--- a/sub2/hasil prediktor.xlsx
+++ b/sub2/hasil prediktor.xlsx
@@ -348,2942 +348,2942 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>2.738951444625854</v>
+        <v>5.072086334228516</v>
       </c>
       <c r="B1">
-        <v>124.2092208862305</v>
+        <v>123.7010650634766</v>
       </c>
       <c r="C1">
-        <v>126.000129699707</v>
+        <v>304.0190124511719</v>
       </c>
       <c r="D1">
-        <v>11.1041316986084</v>
+        <v>11.45011806488037</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>2.728055238723755</v>
+        <v>5.075581073760986</v>
       </c>
       <c r="B2">
-        <v>124.2244415283203</v>
+        <v>123.6973342895508</v>
       </c>
       <c r="C2">
-        <v>126.0001373291016</v>
+        <v>304.0193481445312</v>
       </c>
       <c r="D2">
-        <v>11.1041316986084</v>
+        <v>11.45072078704834</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2.717164516448975</v>
+        <v>5.079085350036621</v>
       </c>
       <c r="B3">
-        <v>124.2396469116211</v>
+        <v>123.6936187744141</v>
       </c>
       <c r="C3">
-        <v>126.0001373291016</v>
+        <v>304.0197143554688</v>
       </c>
       <c r="D3">
-        <v>11.1041316986084</v>
+        <v>11.45132350921631</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2.706279754638672</v>
+        <v>5.082599639892578</v>
       </c>
       <c r="B4">
-        <v>124.2548446655273</v>
+        <v>123.6899108886719</v>
       </c>
       <c r="C4">
-        <v>126.0001373291016</v>
+        <v>304.0200805664062</v>
       </c>
       <c r="D4">
-        <v>11.1041316986084</v>
+        <v>11.45192718505859</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>2.695400714874268</v>
+        <v>5.086123466491699</v>
       </c>
       <c r="B5">
-        <v>124.2700347900391</v>
+        <v>123.6862106323242</v>
       </c>
       <c r="C5">
-        <v>126.0001373291016</v>
+        <v>304.0204467773438</v>
       </c>
       <c r="D5">
-        <v>11.1041316986084</v>
+        <v>11.4525318145752</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>2.68452787399292</v>
+        <v>5.089657783508301</v>
       </c>
       <c r="B6">
-        <v>124.2852325439453</v>
+        <v>123.6825180053711</v>
       </c>
       <c r="C6">
-        <v>126.0001373291016</v>
+        <v>304.0208129882812</v>
       </c>
       <c r="D6">
-        <v>11.1041316986084</v>
+        <v>11.45313739776611</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>2.673661470413208</v>
+        <v>5.093201160430908</v>
       </c>
       <c r="B7">
-        <v>124.300407409668</v>
+        <v>123.678825378418</v>
       </c>
       <c r="C7">
-        <v>126.0001449584961</v>
+        <v>304.0211791992188</v>
       </c>
       <c r="D7">
-        <v>11.1041316986084</v>
+        <v>11.45374298095703</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>2.662800788879395</v>
+        <v>5.096754550933838</v>
       </c>
       <c r="B8">
-        <v>124.3155670166016</v>
+        <v>123.6751480102539</v>
       </c>
       <c r="C8">
-        <v>126.0001449584961</v>
+        <v>304.0215454101562</v>
       </c>
       <c r="D8">
-        <v>11.10413074493408</v>
+        <v>11.45434951782227</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>2.651946544647217</v>
+        <v>5.100317478179932</v>
       </c>
       <c r="B9">
-        <v>124.3307266235352</v>
+        <v>123.6714706420898</v>
       </c>
       <c r="C9">
-        <v>126.0001449584961</v>
+        <v>304.0219116210938</v>
       </c>
       <c r="D9">
-        <v>11.10413074493408</v>
+        <v>11.45495700836182</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>2.641098022460938</v>
+        <v>5.103889942169189</v>
       </c>
       <c r="B10">
-        <v>124.3458862304688</v>
+        <v>123.6678085327148</v>
       </c>
       <c r="C10">
-        <v>126.0001449584961</v>
+        <v>304.0222778320312</v>
       </c>
       <c r="D10">
-        <v>11.10412979125977</v>
+        <v>11.45556545257568</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>2.630256175994873</v>
+        <v>5.10747241973877</v>
       </c>
       <c r="B11">
-        <v>124.3610229492188</v>
+        <v>123.6641464233398</v>
       </c>
       <c r="C11">
-        <v>126.0001525878906</v>
+        <v>304.0226745605469</v>
       </c>
       <c r="D11">
-        <v>11.10412979125977</v>
+        <v>11.45617389678955</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>2.619420289993286</v>
+        <v>5.111063957214355</v>
       </c>
       <c r="B12">
-        <v>124.3761520385742</v>
+        <v>123.6604995727539</v>
       </c>
       <c r="C12">
-        <v>126.0001525878906</v>
+        <v>304.0230407714844</v>
       </c>
       <c r="D12">
-        <v>11.10412883758545</v>
+        <v>11.45678329467773</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>2.608590602874756</v>
+        <v>5.114665031433105</v>
       </c>
       <c r="B13">
-        <v>124.3912887573242</v>
+        <v>123.656852722168</v>
       </c>
       <c r="C13">
-        <v>126.0001525878906</v>
+        <v>304.0234069824219</v>
       </c>
       <c r="D13">
-        <v>11.10412788391113</v>
+        <v>11.45739364624023</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>2.597767353057861</v>
+        <v>5.118275165557861</v>
       </c>
       <c r="B14">
-        <v>124.4064025878906</v>
+        <v>123.6532211303711</v>
       </c>
       <c r="C14">
-        <v>126.0001525878906</v>
+        <v>304.0238037109375</v>
       </c>
       <c r="D14">
-        <v>11.10412788391113</v>
+        <v>11.45800495147705</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>2.586950540542603</v>
+        <v>5.121894836425781</v>
       </c>
       <c r="B15">
-        <v>124.4215087890625</v>
+        <v>123.6495895385742</v>
       </c>
       <c r="C15">
-        <v>126.0001525878906</v>
+        <v>304.024169921875</v>
       </c>
       <c r="D15">
-        <v>11.10412693023682</v>
+        <v>11.45861625671387</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>2.5761399269104</v>
+        <v>5.125523567199707</v>
       </c>
       <c r="B16">
-        <v>124.4366073608398</v>
+        <v>123.6459655761719</v>
       </c>
       <c r="C16">
-        <v>126.0001602172852</v>
+        <v>304.0245666503906</v>
       </c>
       <c r="D16">
-        <v>11.1041259765625</v>
+        <v>11.45922946929932</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>2.565335750579834</v>
+        <v>5.129161357879639</v>
       </c>
       <c r="B17">
-        <v>124.4516983032227</v>
+        <v>123.6423492431641</v>
       </c>
       <c r="C17">
-        <v>126.0001602172852</v>
+        <v>304.0249328613281</v>
       </c>
       <c r="D17">
-        <v>11.10412502288818</v>
+        <v>11.45984268188477</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>2.554537773132324</v>
+        <v>5.132809162139893</v>
       </c>
       <c r="B18">
-        <v>124.4667739868164</v>
+        <v>123.6387481689453</v>
       </c>
       <c r="C18">
-        <v>126.0001602172852</v>
+        <v>304.0253295898438</v>
       </c>
       <c r="D18">
-        <v>11.10412311553955</v>
+        <v>11.46045684814453</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>2.543746471405029</v>
+        <v>5.136464595794678</v>
       </c>
       <c r="B19">
-        <v>124.4818496704102</v>
+        <v>123.635139465332</v>
       </c>
       <c r="C19">
-        <v>126.0001602172852</v>
+        <v>304.0256958007812</v>
       </c>
       <c r="D19">
-        <v>11.10412216186523</v>
+        <v>11.4610710144043</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>2.53296160697937</v>
+        <v>5.140129566192627</v>
       </c>
       <c r="B20">
-        <v>124.4969100952148</v>
+        <v>123.6315383911133</v>
       </c>
       <c r="C20">
-        <v>126.0001602172852</v>
+        <v>304.0260925292969</v>
       </c>
       <c r="D20">
-        <v>11.10412120819092</v>
+        <v>11.4616870880127</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>2.522183895111084</v>
+        <v>5.14380407333374</v>
       </c>
       <c r="B21">
-        <v>124.5119552612305</v>
+        <v>123.6279525756836</v>
       </c>
       <c r="C21">
-        <v>126.0001678466797</v>
+        <v>304.0264892578125</v>
       </c>
       <c r="D21">
-        <v>11.10411930084229</v>
+        <v>11.46230316162109</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>2.511411428451538</v>
+        <v>5.147487163543701</v>
       </c>
       <c r="B22">
-        <v>124.5270004272461</v>
+        <v>123.6243743896484</v>
       </c>
       <c r="C22">
-        <v>126.0001678466797</v>
+        <v>304.0268859863281</v>
       </c>
       <c r="D22">
-        <v>11.10411834716797</v>
+        <v>11.46292018890381</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>2.500646591186523</v>
+        <v>5.151178359985352</v>
       </c>
       <c r="B23">
-        <v>124.5420455932617</v>
+        <v>123.6207885742188</v>
       </c>
       <c r="C23">
-        <v>126.0001678466797</v>
+        <v>304.0272827148438</v>
       </c>
       <c r="D23">
-        <v>11.10411643981934</v>
+        <v>11.46353816986084</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>2.489887952804565</v>
+        <v>5.154878616333008</v>
       </c>
       <c r="B24">
-        <v>124.5570602416992</v>
+        <v>123.6172180175781</v>
       </c>
       <c r="C24">
-        <v>126.0001678466797</v>
+        <v>304.0276794433594</v>
       </c>
       <c r="D24">
-        <v>11.10411548614502</v>
+        <v>11.46415710449219</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>2.479135751724243</v>
+        <v>5.15858793258667</v>
       </c>
       <c r="B25">
-        <v>124.5720748901367</v>
+        <v>123.613655090332</v>
       </c>
       <c r="C25">
-        <v>126.0001754760742</v>
+        <v>304.0280456542969</v>
       </c>
       <c r="D25">
-        <v>11.10411357879639</v>
+        <v>11.46477603912354</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>2.468390941619873</v>
+        <v>5.16230583190918</v>
       </c>
       <c r="B26">
-        <v>124.5870819091797</v>
+        <v>123.6100921630859</v>
       </c>
       <c r="C26">
-        <v>126.0001754760742</v>
+        <v>304.0284729003906</v>
       </c>
       <c r="D26">
-        <v>11.10411167144775</v>
+        <v>11.46539688110352</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>2.457652568817139</v>
+        <v>5.166031837463379</v>
       </c>
       <c r="B27">
-        <v>124.6020812988281</v>
+        <v>123.6065444946289</v>
       </c>
       <c r="C27">
-        <v>126.0001754760742</v>
+        <v>304.0288696289062</v>
       </c>
       <c r="D27">
-        <v>11.10410976409912</v>
+        <v>11.4660177230835</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>2.44692063331604</v>
+        <v>5.169766426086426</v>
       </c>
       <c r="B28">
-        <v>124.617073059082</v>
+        <v>123.6029968261719</v>
       </c>
       <c r="C28">
-        <v>126.0001754760742</v>
+        <v>304.0292663574219</v>
       </c>
       <c r="D28">
-        <v>11.10410785675049</v>
+        <v>11.46663951873779</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>2.436195135116577</v>
+        <v>5.17350959777832</v>
       </c>
       <c r="B29">
-        <v>124.6320571899414</v>
+        <v>123.5994567871094</v>
       </c>
       <c r="C29">
-        <v>126.0001754760742</v>
+        <v>304.0296630859375</v>
       </c>
       <c r="D29">
-        <v>11.10410594940186</v>
+        <v>11.46726226806641</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>2.425476789474487</v>
+        <v>5.177260875701904</v>
       </c>
       <c r="B30">
-        <v>124.6470184326172</v>
+        <v>123.5959243774414</v>
       </c>
       <c r="C30">
-        <v>126.0001831054688</v>
+        <v>304.0300598144531</v>
       </c>
       <c r="D30">
-        <v>11.10410404205322</v>
+        <v>11.46788597106934</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>2.414765357971191</v>
+        <v>5.181020736694336</v>
       </c>
       <c r="B31">
-        <v>124.6619720458984</v>
+        <v>123.5923919677734</v>
       </c>
       <c r="C31">
-        <v>126.0001831054688</v>
+        <v>304.0304870605469</v>
       </c>
       <c r="D31">
-        <v>11.10410213470459</v>
+        <v>11.46851062774658</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>2.404061079025269</v>
+        <v>5.184788703918457</v>
       </c>
       <c r="B32">
-        <v>124.6769332885742</v>
+        <v>123.5888671875</v>
       </c>
       <c r="C32">
-        <v>126.0001831054688</v>
+        <v>304.0308837890625</v>
       </c>
       <c r="D32">
-        <v>11.10410022735596</v>
+        <v>11.46913528442383</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>2.393362998962402</v>
+        <v>5.188564777374268</v>
       </c>
       <c r="B33">
-        <v>124.6918792724609</v>
+        <v>123.5853576660156</v>
       </c>
       <c r="C33">
-        <v>126.0001831054688</v>
+        <v>304.0312805175781</v>
       </c>
       <c r="D33">
-        <v>11.10409736633301</v>
+        <v>11.46976184844971</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>2.382672071456909</v>
+        <v>5.192348957061768</v>
       </c>
       <c r="B34">
-        <v>124.7068023681641</v>
+        <v>123.5818405151367</v>
       </c>
       <c r="C34">
-        <v>126.0001831054688</v>
+        <v>304.0317077636719</v>
       </c>
       <c r="D34">
-        <v>11.10409545898438</v>
+        <v>11.47038841247559</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>2.371988296508789</v>
+        <v>5.196141242980957</v>
       </c>
       <c r="B35">
-        <v>124.7217178344727</v>
+        <v>123.5783386230469</v>
       </c>
       <c r="C35">
-        <v>126.0001907348633</v>
+        <v>304.0321044921875</v>
       </c>
       <c r="D35">
-        <v>11.10409259796143</v>
+        <v>11.4710168838501</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>2.361311435699463</v>
+        <v>5.199941635131836</v>
       </c>
       <c r="B36">
-        <v>124.7366333007812</v>
+        <v>123.574836730957</v>
       </c>
       <c r="C36">
-        <v>126.0001907348633</v>
+        <v>304.0325317382812</v>
       </c>
       <c r="D36">
-        <v>11.10409069061279</v>
+        <v>11.47164535522461</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>2.350641965866089</v>
+        <v>5.203749179840088</v>
       </c>
       <c r="B37">
-        <v>124.7515335083008</v>
+        <v>123.5713348388672</v>
       </c>
       <c r="C37">
-        <v>126.0001907348633</v>
+        <v>304.0329284667969</v>
       </c>
       <c r="D37">
-        <v>11.10408782958984</v>
+        <v>11.47227478027344</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>2.339978456497192</v>
+        <v>5.207564830780029</v>
       </c>
       <c r="B38">
-        <v>124.7664184570312</v>
+        <v>123.5678482055664</v>
       </c>
       <c r="C38">
-        <v>126.0001907348633</v>
+        <v>304.0333557128906</v>
       </c>
       <c r="D38">
-        <v>11.10408496856689</v>
+        <v>11.47290515899658</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>2.329322814941406</v>
+        <v>5.21138858795166</v>
       </c>
       <c r="B39">
-        <v>124.7813110351562</v>
+        <v>123.5643615722656</v>
       </c>
       <c r="C39">
-        <v>126.0001983642578</v>
+        <v>304.0337829589844</v>
       </c>
       <c r="D39">
-        <v>11.10408306121826</v>
+        <v>11.47353649139404</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>2.318673849105835</v>
+        <v>5.215219974517822</v>
       </c>
       <c r="B40">
-        <v>124.7961807250977</v>
+        <v>123.5608825683594</v>
       </c>
       <c r="C40">
-        <v>126.0001983642578</v>
+        <v>304.0341796875</v>
       </c>
       <c r="D40">
-        <v>11.10408020019531</v>
+        <v>11.4741678237915</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>2.308032274246216</v>
+        <v>5.219058990478516</v>
       </c>
       <c r="B41">
-        <v>124.81103515625</v>
+        <v>123.5574111938477</v>
       </c>
       <c r="C41">
-        <v>126.0001983642578</v>
+        <v>304.0346069335938</v>
       </c>
       <c r="D41">
-        <v>11.10407733917236</v>
+        <v>11.4748010635376</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>2.297397136688232</v>
+        <v>5.222905158996582</v>
       </c>
       <c r="B42">
-        <v>124.8258972167969</v>
+        <v>123.5539398193359</v>
       </c>
       <c r="C42">
-        <v>126.0001983642578</v>
+        <v>304.0350341796875</v>
       </c>
       <c r="D42">
-        <v>11.10407447814941</v>
+        <v>11.47543525695801</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>2.286770343780518</v>
+        <v>5.22675895690918</v>
       </c>
       <c r="B43">
-        <v>124.8407363891602</v>
+        <v>123.5504684448242</v>
       </c>
       <c r="C43">
-        <v>126.0001983642578</v>
+        <v>304.0354614257812</v>
       </c>
       <c r="D43">
-        <v>11.10407161712646</v>
+        <v>11.47606945037842</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>2.276149749755859</v>
+        <v>5.23061990737915</v>
       </c>
       <c r="B44">
-        <v>124.8555679321289</v>
+        <v>123.5470123291016</v>
       </c>
       <c r="C44">
-        <v>126.0002059936523</v>
+        <v>304.035888671875</v>
       </c>
       <c r="D44">
-        <v>11.1040678024292</v>
+        <v>11.47670555114746</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>2.265537738800049</v>
+        <v>5.234488487243652</v>
       </c>
       <c r="B45">
-        <v>124.8703918457031</v>
+        <v>123.5435638427734</v>
       </c>
       <c r="C45">
-        <v>126.0002059936523</v>
+        <v>304.0363159179688</v>
       </c>
       <c r="D45">
-        <v>11.10406494140625</v>
+        <v>11.4773416519165</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>2.254930973052979</v>
+        <v>5.238364219665527</v>
       </c>
       <c r="B46">
-        <v>124.8852081298828</v>
+        <v>123.5401077270508</v>
       </c>
       <c r="C46">
-        <v>126.0002059936523</v>
+        <v>304.0367431640625</v>
       </c>
       <c r="D46">
-        <v>11.1040620803833</v>
+        <v>11.47797966003418</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>2.244333267211914</v>
+        <v>5.242247104644775</v>
       </c>
       <c r="B47">
-        <v>124.9000015258789</v>
+        <v>123.5366592407227</v>
       </c>
       <c r="C47">
-        <v>126.0002059936523</v>
+        <v>304.0371704101562</v>
       </c>
       <c r="D47">
-        <v>11.10405826568604</v>
+        <v>11.47861766815186</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>2.233742237091064</v>
+        <v>5.246138095855713</v>
       </c>
       <c r="B48">
-        <v>124.9147872924805</v>
+        <v>123.5332183837891</v>
       </c>
       <c r="C48">
-        <v>126.0002059936523</v>
+        <v>304.03759765625</v>
       </c>
       <c r="D48">
-        <v>11.10405540466309</v>
+        <v>11.47925662994385</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>2.223158359527588</v>
+        <v>5.250034809112549</v>
       </c>
       <c r="B49">
-        <v>124.929573059082</v>
+        <v>123.5297775268555</v>
       </c>
       <c r="C49">
-        <v>126.0002136230469</v>
+        <v>304.0380249023438</v>
       </c>
       <c r="D49">
-        <v>11.10405158996582</v>
+        <v>11.47989749908447</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>2.212581157684326</v>
+        <v>5.253939151763916</v>
       </c>
       <c r="B50">
-        <v>124.9443435668945</v>
+        <v>123.5263442993164</v>
       </c>
       <c r="C50">
-        <v>126.0002136230469</v>
+        <v>304.0384826660156</v>
       </c>
       <c r="D50">
-        <v>11.10404777526855</v>
+        <v>11.4805383682251</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>2.202012062072754</v>
+        <v>5.257850170135498</v>
       </c>
       <c r="B51">
-        <v>124.959114074707</v>
+        <v>123.5229187011719</v>
       </c>
       <c r="C51">
-        <v>126.0002136230469</v>
+        <v>304.0389099121094</v>
       </c>
       <c r="D51">
-        <v>11.10404491424561</v>
+        <v>11.48118019104004</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>2.191450357437134</v>
+        <v>5.261768341064453</v>
       </c>
       <c r="B52">
-        <v>124.9738540649414</v>
+        <v>123.5194931030273</v>
       </c>
       <c r="C52">
-        <v>126.0002136230469</v>
+        <v>304.0393371582031</v>
       </c>
       <c r="D52">
-        <v>11.10404109954834</v>
+        <v>11.4818229675293</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>2.180896282196045</v>
+        <v>5.265692710876465</v>
       </c>
       <c r="B53">
-        <v>124.9885940551758</v>
+        <v>123.5160751342773</v>
       </c>
       <c r="C53">
-        <v>126.0002212524414</v>
+        <v>304.0397644042969</v>
       </c>
       <c r="D53">
-        <v>11.10403728485107</v>
+        <v>11.48246765136719</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>2.170350074768066</v>
+        <v>5.26962423324585</v>
       </c>
       <c r="B54">
-        <v>125.0033264160156</v>
+        <v>123.5126571655273</v>
       </c>
       <c r="C54">
-        <v>126.0002212524414</v>
+        <v>304.0402221679688</v>
       </c>
       <c r="D54">
-        <v>11.10403347015381</v>
+        <v>11.48311233520508</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>2.159810543060303</v>
+        <v>5.273562431335449</v>
       </c>
       <c r="B55">
-        <v>125.0180511474609</v>
+        <v>123.5092468261719</v>
       </c>
       <c r="C55">
-        <v>126.0002212524414</v>
+        <v>304.0406494140625</v>
       </c>
       <c r="D55">
-        <v>11.10402965545654</v>
+        <v>11.48375797271729</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>2.149278402328491</v>
+        <v>5.277507305145264</v>
       </c>
       <c r="B56">
-        <v>125.0327606201172</v>
+        <v>123.5058364868164</v>
       </c>
       <c r="C56">
-        <v>126.0002212524414</v>
+        <v>304.0411071777344</v>
       </c>
       <c r="D56">
-        <v>11.10402584075928</v>
+        <v>11.48440456390381</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>2.138754844665527</v>
+        <v>5.281458377838135</v>
       </c>
       <c r="B57">
-        <v>125.0474472045898</v>
+        <v>123.5024337768555</v>
       </c>
       <c r="C57">
-        <v>126.0002212524414</v>
+        <v>304.0415344238281</v>
       </c>
       <c r="D57">
-        <v>11.10402202606201</v>
+        <v>11.48505210876465</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>2.128237247467041</v>
+        <v>5.285415649414062</v>
       </c>
       <c r="B58">
-        <v>125.062141418457</v>
+        <v>123.4990310668945</v>
       </c>
       <c r="C58">
-        <v>126.0002288818359</v>
+        <v>304.0419921875</v>
       </c>
       <c r="D58">
-        <v>11.10401725769043</v>
+        <v>11.4857006072998</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>2.117728471755981</v>
+        <v>5.289379596710205</v>
       </c>
       <c r="B59">
-        <v>125.0768127441406</v>
+        <v>123.4956359863281</v>
       </c>
       <c r="C59">
-        <v>126.0002288818359</v>
+        <v>304.0424194335938</v>
       </c>
       <c r="D59">
-        <v>11.10401344299316</v>
+        <v>11.48635005950928</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>2.107226610183716</v>
+        <v>5.293349266052246</v>
       </c>
       <c r="B60">
-        <v>125.0914764404297</v>
+        <v>123.4922409057617</v>
       </c>
       <c r="C60">
-        <v>126.0002288818359</v>
+        <v>304.0428771972656</v>
       </c>
       <c r="D60">
-        <v>11.1040096282959</v>
+        <v>11.48700141906738</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>2.09673285484314</v>
+        <v>5.297325611114502</v>
       </c>
       <c r="B61">
-        <v>125.1061325073242</v>
+        <v>123.4888534545898</v>
       </c>
       <c r="C61">
-        <v>126.0002288818359</v>
+        <v>304.0433349609375</v>
       </c>
       <c r="D61">
-        <v>11.10400485992432</v>
+        <v>11.48765277862549</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>2.086247205734253</v>
+        <v>5.301307678222656</v>
       </c>
       <c r="B62">
-        <v>125.1207885742188</v>
+        <v>123.485466003418</v>
       </c>
       <c r="C62">
-        <v>126.0002288818359</v>
+        <v>304.0437927246094</v>
       </c>
       <c r="D62">
-        <v>11.10400104522705</v>
+        <v>11.48830509185791</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>2.07576847076416</v>
+        <v>5.305295944213867</v>
       </c>
       <c r="B63">
-        <v>125.1354141235352</v>
+        <v>123.4820861816406</v>
       </c>
       <c r="C63">
-        <v>126.0002365112305</v>
+        <v>304.0442199707031</v>
       </c>
       <c r="D63">
-        <v>11.10399627685547</v>
+        <v>11.48895835876465</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>2.065297365188599</v>
+        <v>5.309290885925293</v>
       </c>
       <c r="B64">
-        <v>125.1500396728516</v>
+        <v>123.4787063598633</v>
       </c>
       <c r="C64">
-        <v>126.0002365112305</v>
+        <v>304.044677734375</v>
       </c>
       <c r="D64">
-        <v>11.10399150848389</v>
+        <v>11.4896125793457</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>2.054835081100464</v>
+        <v>5.313291072845459</v>
       </c>
       <c r="B65">
-        <v>125.1646499633789</v>
+        <v>123.4753341674805</v>
       </c>
       <c r="C65">
-        <v>126.0002365112305</v>
+        <v>304.0451354980469</v>
       </c>
       <c r="D65">
-        <v>11.1039867401123</v>
+        <v>11.49026870727539</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>2.044379711151123</v>
+        <v>5.317296981811523</v>
       </c>
       <c r="B66">
-        <v>125.1792449951172</v>
+        <v>123.4719619750977</v>
       </c>
       <c r="C66">
-        <v>126.0002365112305</v>
+        <v>304.0455932617188</v>
       </c>
       <c r="D66">
-        <v>11.10398197174072</v>
+        <v>11.49092483520508</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>2.03393292427063</v>
+        <v>5.321308612823486</v>
       </c>
       <c r="B67">
-        <v>125.1938400268555</v>
+        <v>123.4685821533203</v>
       </c>
       <c r="C67">
-        <v>126.000244140625</v>
+        <v>304.0460510253906</v>
       </c>
       <c r="D67">
-        <v>11.10397815704346</v>
+        <v>11.4915828704834</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>2.023493051528931</v>
+        <v>5.325325965881348</v>
       </c>
       <c r="B68">
-        <v>125.2084197998047</v>
+        <v>123.465217590332</v>
       </c>
       <c r="C68">
-        <v>126.000244140625</v>
+        <v>304.0465087890625</v>
       </c>
       <c r="D68">
-        <v>11.10397338867188</v>
+        <v>11.49224090576172</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>2.013060808181763</v>
+        <v>5.329349040985107</v>
       </c>
       <c r="B69">
-        <v>125.2229919433594</v>
+        <v>123.4618530273438</v>
       </c>
       <c r="C69">
-        <v>126.000244140625</v>
+        <v>304.0469665527344</v>
       </c>
       <c r="D69">
-        <v>11.10396766662598</v>
+        <v>11.49289989471436</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>2.002637147903442</v>
+        <v>5.333377838134766</v>
       </c>
       <c r="B70">
-        <v>125.2375411987305</v>
+        <v>123.45849609375</v>
       </c>
       <c r="C70">
-        <v>126.000244140625</v>
+        <v>304.0474243164062</v>
       </c>
       <c r="D70">
-        <v>11.10396289825439</v>
+        <v>11.49356079101562</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>1.992221355438232</v>
+        <v>5.337411880493164</v>
       </c>
       <c r="B71">
-        <v>125.2520980834961</v>
+        <v>123.4551391601562</v>
       </c>
       <c r="C71">
-        <v>126.000244140625</v>
+        <v>304.0478820800781</v>
       </c>
       <c r="D71">
-        <v>11.10395812988281</v>
+        <v>11.49422264099121</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>1.981813907623291</v>
+        <v>5.341450691223145</v>
       </c>
       <c r="B72">
-        <v>125.2666320800781</v>
+        <v>123.451774597168</v>
       </c>
       <c r="C72">
-        <v>126.0002517700195</v>
+        <v>304.04833984375</v>
       </c>
       <c r="D72">
-        <v>11.10395336151123</v>
+        <v>11.4948844909668</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1.971413135528564</v>
+        <v>5.345495223999023</v>
       </c>
       <c r="B73">
-        <v>125.2811584472656</v>
+        <v>123.4484252929688</v>
       </c>
       <c r="C73">
-        <v>126.0002517700195</v>
+        <v>304.0487976074219</v>
       </c>
       <c r="D73">
-        <v>11.10394763946533</v>
+        <v>11.49554824829102</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>1.961021661758423</v>
+        <v>5.349545478820801</v>
       </c>
       <c r="B74">
-        <v>125.2956619262695</v>
+        <v>123.4450759887695</v>
       </c>
       <c r="C74">
-        <v>126.0002517700195</v>
+        <v>304.0492553710938</v>
       </c>
       <c r="D74">
-        <v>11.10394287109375</v>
+        <v>11.49621295928955</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>1.950637102127075</v>
+        <v>5.35360050201416</v>
       </c>
       <c r="B75">
-        <v>125.310173034668</v>
+        <v>123.4417343139648</v>
       </c>
       <c r="C75">
-        <v>126.0002517700195</v>
+        <v>304.0497436523438</v>
       </c>
       <c r="D75">
-        <v>11.10393714904785</v>
+        <v>11.4968786239624</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>1.940260767936707</v>
+        <v>5.35766077041626</v>
       </c>
       <c r="B76">
-        <v>125.3246536254883</v>
+        <v>123.4383773803711</v>
       </c>
       <c r="C76">
-        <v>126.0002517700195</v>
+        <v>304.0502014160156</v>
       </c>
       <c r="D76">
-        <v>11.10393238067627</v>
+        <v>11.49754428863525</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>1.929892897605896</v>
+        <v>5.361724853515625</v>
       </c>
       <c r="B77">
-        <v>125.3391342163086</v>
+        <v>123.4350433349609</v>
       </c>
       <c r="C77">
-        <v>126.0002593994141</v>
+        <v>304.0506591796875</v>
       </c>
       <c r="D77">
-        <v>11.10392665863037</v>
+        <v>11.49821186065674</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>1.919532775878906</v>
+        <v>5.365795135498047</v>
       </c>
       <c r="B78">
-        <v>125.3535995483398</v>
+        <v>123.4317016601562</v>
       </c>
       <c r="C78">
-        <v>126.0002593994141</v>
+        <v>304.0511474609375</v>
       </c>
       <c r="D78">
-        <v>11.10392093658447</v>
+        <v>11.49888038635254</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>1.909181118011475</v>
+        <v>5.369870185852051</v>
       </c>
       <c r="B79">
-        <v>125.3680648803711</v>
+        <v>123.4283676147461</v>
       </c>
       <c r="C79">
-        <v>126.0002593994141</v>
+        <v>304.0516052246094</v>
       </c>
       <c r="D79">
-        <v>11.10391521453857</v>
+        <v>11.49955081939697</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>1.898836493492126</v>
+        <v>5.373949527740479</v>
       </c>
       <c r="B80">
-        <v>125.3824996948242</v>
+        <v>123.4250259399414</v>
       </c>
       <c r="C80">
-        <v>126.0002593994141</v>
+        <v>304.0520629882812</v>
       </c>
       <c r="D80">
-        <v>11.10391044616699</v>
+        <v>11.50022125244141</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>1.888501405715942</v>
+        <v>5.378034114837646</v>
       </c>
       <c r="B81">
-        <v>125.3969421386719</v>
+        <v>123.4216918945312</v>
       </c>
       <c r="C81">
-        <v>126.0002670288086</v>
+        <v>304.0525512695312</v>
       </c>
       <c r="D81">
-        <v>11.10390472412109</v>
+        <v>11.50089263916016</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>1.878174066543579</v>
+        <v>5.382122039794922</v>
       </c>
       <c r="B82">
-        <v>125.4113616943359</v>
+        <v>123.4183654785156</v>
       </c>
       <c r="C82">
-        <v>126.0002670288086</v>
+        <v>304.0530090332031</v>
       </c>
       <c r="D82">
-        <v>11.1038990020752</v>
+        <v>11.50156593322754</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>1.867854118347168</v>
+        <v>5.386215686798096</v>
       </c>
       <c r="B83">
-        <v>125.42578125</v>
+        <v>123.4150238037109</v>
       </c>
       <c r="C83">
-        <v>126.0002670288086</v>
+        <v>304.0534973144531</v>
       </c>
       <c r="D83">
-        <v>11.10389232635498</v>
+        <v>11.50223922729492</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>1.857542991638184</v>
+        <v>5.390313148498535</v>
       </c>
       <c r="B84">
-        <v>125.4401779174805</v>
+        <v>123.4116973876953</v>
       </c>
       <c r="C84">
-        <v>126.0002670288086</v>
+        <v>304.053955078125</v>
       </c>
       <c r="D84">
-        <v>11.10388660430908</v>
+        <v>11.50291442871094</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>1.847239971160889</v>
+        <v>5.394415378570557</v>
       </c>
       <c r="B85">
-        <v>125.4545669555664</v>
+        <v>123.4083786010742</v>
       </c>
       <c r="C85">
-        <v>126.0002670288086</v>
+        <v>304.054443359375</v>
       </c>
       <c r="D85">
-        <v>11.10388088226318</v>
+        <v>11.50359058380127</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>1.836945652961731</v>
+        <v>5.398521900177002</v>
       </c>
       <c r="B86">
-        <v>125.4689483642578</v>
+        <v>123.4050445556641</v>
       </c>
       <c r="C86">
-        <v>126.0002746582031</v>
+        <v>304.054931640625</v>
       </c>
       <c r="D86">
-        <v>11.10387516021729</v>
+        <v>11.50426769256592</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>1.826659202575684</v>
+        <v>5.402632713317871</v>
       </c>
       <c r="B87">
-        <v>125.4833145141602</v>
+        <v>123.401725769043</v>
       </c>
       <c r="C87">
-        <v>126.0002746582031</v>
+        <v>304.0553894042969</v>
       </c>
       <c r="D87">
-        <v>11.10386848449707</v>
+        <v>11.50494575500488</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>1.816381454467773</v>
+        <v>5.406746864318848</v>
       </c>
       <c r="B88">
-        <v>125.4976654052734</v>
+        <v>123.3984069824219</v>
       </c>
       <c r="C88">
-        <v>126.0002746582031</v>
+        <v>304.0558776855469</v>
       </c>
       <c r="D88">
-        <v>11.10386276245117</v>
+        <v>11.50562477111816</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>1.806111454963684</v>
+        <v>5.410865783691406</v>
       </c>
       <c r="B89">
-        <v>125.5120010375977</v>
+        <v>123.3950805664062</v>
       </c>
       <c r="C89">
-        <v>126.0002746582031</v>
+        <v>304.0563659667969</v>
       </c>
       <c r="D89">
-        <v>11.10385608673096</v>
+        <v>11.50630474090576</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>1.795848965644836</v>
+        <v>5.41498851776123</v>
       </c>
       <c r="B90">
-        <v>125.5263366699219</v>
+        <v>123.3917617797852</v>
       </c>
       <c r="C90">
-        <v>126.0002746582031</v>
+        <v>304.0568237304688</v>
       </c>
       <c r="D90">
-        <v>11.10385036468506</v>
+        <v>11.50698566436768</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>1.785596489906311</v>
+        <v>5.419114589691162</v>
       </c>
       <c r="B91">
-        <v>125.540657043457</v>
+        <v>123.3884429931641</v>
       </c>
       <c r="C91">
-        <v>126.0002822875977</v>
+        <v>304.0573120117188</v>
       </c>
       <c r="D91">
-        <v>11.10384368896484</v>
+        <v>11.50766849517822</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>1.775351881980896</v>
+        <v>5.423245429992676</v>
       </c>
       <c r="B92">
-        <v>125.5549621582031</v>
+        <v>123.3851318359375</v>
       </c>
       <c r="C92">
-        <v>126.0002822875977</v>
+        <v>304.0578002929688</v>
       </c>
       <c r="D92">
-        <v>11.10383701324463</v>
+        <v>11.50835227966309</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>1.765115976333618</v>
+        <v>5.427379608154297</v>
       </c>
       <c r="B93">
-        <v>125.5692520141602</v>
+        <v>123.3818206787109</v>
       </c>
       <c r="C93">
-        <v>126.0002822875977</v>
+        <v>304.0582885742188</v>
       </c>
       <c r="D93">
-        <v>11.10383129119873</v>
+        <v>11.50903606414795</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>1.754887819290161</v>
+        <v>5.431517601013184</v>
       </c>
       <c r="B94">
-        <v>125.5835418701172</v>
+        <v>123.3785018920898</v>
       </c>
       <c r="C94">
-        <v>126.0002822875977</v>
+        <v>304.0587768554688</v>
       </c>
       <c r="D94">
-        <v>11.10382461547852</v>
+        <v>11.50972175598145</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>1.744668126106262</v>
+        <v>5.435659408569336</v>
       </c>
       <c r="B95">
-        <v>125.5978088378906</v>
+        <v>123.3751907348633</v>
       </c>
       <c r="C95">
-        <v>126.0002822875977</v>
+        <v>304.0592651367188</v>
       </c>
       <c r="D95">
-        <v>11.1038179397583</v>
+        <v>11.51040840148926</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>1.734456181526184</v>
+        <v>5.439804077148438</v>
       </c>
       <c r="B96">
-        <v>125.6120681762695</v>
+        <v>123.3718719482422</v>
       </c>
       <c r="C96">
-        <v>126.0002899169922</v>
+        <v>304.0597229003906</v>
       </c>
       <c r="D96">
-        <v>11.10381126403809</v>
+        <v>11.51109600067139</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>1.724254369735718</v>
+        <v>5.443952083587646</v>
       </c>
       <c r="B97">
-        <v>125.6263198852539</v>
+        <v>123.3685684204102</v>
       </c>
       <c r="C97">
-        <v>126.0002899169922</v>
+        <v>304.0602111816406</v>
       </c>
       <c r="D97">
-        <v>11.10380458831787</v>
+        <v>11.51178550720215</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>1.714060306549072</v>
+        <v>5.448104381561279</v>
       </c>
       <c r="B98">
-        <v>125.6405487060547</v>
+        <v>123.3652572631836</v>
       </c>
       <c r="C98">
-        <v>126.0002899169922</v>
+        <v>304.0606994628906</v>
       </c>
       <c r="D98">
-        <v>11.10379695892334</v>
+        <v>11.51247501373291</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>1.703874588012695</v>
+        <v>5.452259063720703</v>
       </c>
       <c r="B99">
-        <v>125.65478515625</v>
+        <v>123.361946105957</v>
       </c>
       <c r="C99">
-        <v>126.0002899169922</v>
+        <v>304.0611877441406</v>
       </c>
       <c r="D99">
-        <v>11.10379028320312</v>
+        <v>11.5131664276123</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>1.693697810173035</v>
+        <v>5.456417083740234</v>
       </c>
       <c r="B100">
-        <v>125.6689910888672</v>
+        <v>123.3586349487305</v>
       </c>
       <c r="C100">
-        <v>126.0002975463867</v>
+        <v>304.0616760253906</v>
       </c>
       <c r="D100">
-        <v>11.10378360748291</v>
+        <v>11.51385879516602</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>1.683529615402222</v>
+        <v>5.460578918457031</v>
       </c>
       <c r="B101">
-        <v>125.6831970214844</v>
+        <v>123.3553237915039</v>
       </c>
       <c r="C101">
-        <v>126.0002975463867</v>
+        <v>304.0621643066406</v>
       </c>
       <c r="D101">
-        <v>11.1037769317627</v>
+        <v>11.51455116271973</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>1.673369646072388</v>
+        <v>5.464743137359619</v>
       </c>
       <c r="B102">
-        <v>125.6973876953125</v>
+        <v>123.3520202636719</v>
       </c>
       <c r="C102">
-        <v>126.0002975463867</v>
+        <v>304.0626831054688</v>
       </c>
       <c r="D102">
-        <v>11.10376930236816</v>
+        <v>11.51524639129639</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>1.663218021392822</v>
+        <v>5.468910217285156</v>
       </c>
       <c r="B103">
-        <v>125.7115631103516</v>
+        <v>123.3487167358398</v>
       </c>
       <c r="C103">
-        <v>126.0002975463867</v>
+        <v>304.0631713867188</v>
       </c>
       <c r="D103">
-        <v>11.10376262664795</v>
+        <v>11.51594161987305</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>1.653074860572815</v>
+        <v>5.473080635070801</v>
       </c>
       <c r="B104">
-        <v>125.7257232666016</v>
+        <v>123.3454055786133</v>
       </c>
       <c r="C104">
-        <v>126.0002975463867</v>
+        <v>304.0636596679688</v>
       </c>
       <c r="D104">
-        <v>11.10375499725342</v>
+        <v>11.51663780212402</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>1.642941832542419</v>
+        <v>5.477254390716553</v>
       </c>
       <c r="B105">
-        <v>125.7398681640625</v>
+        <v>123.3421020507812</v>
       </c>
       <c r="C105">
-        <v>126.0003051757812</v>
+        <v>304.0641479492188</v>
       </c>
       <c r="D105">
-        <v>11.1037483215332</v>
+        <v>11.51733589172363</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>1.632816195487976</v>
+        <v>5.481429576873779</v>
       </c>
       <c r="B106">
-        <v>125.7540130615234</v>
+        <v>123.3387908935547</v>
       </c>
       <c r="C106">
-        <v>126.0003051757812</v>
+        <v>304.0646362304688</v>
       </c>
       <c r="D106">
-        <v>11.10374069213867</v>
+        <v>11.51803398132324</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>1.622699618339539</v>
+        <v>5.485608100891113</v>
       </c>
       <c r="B107">
-        <v>125.7681503295898</v>
+        <v>123.3354873657227</v>
       </c>
       <c r="C107">
-        <v>126.0003051757812</v>
+        <v>304.0651245117188</v>
       </c>
       <c r="D107">
-        <v>11.10373306274414</v>
+        <v>11.51873397827148</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>1.612592458724976</v>
+        <v>5.489789009094238</v>
       </c>
       <c r="B108">
-        <v>125.7822494506836</v>
+        <v>123.3321762084961</v>
       </c>
       <c r="C108">
-        <v>126.0003051757812</v>
+        <v>304.0656433105469</v>
       </c>
       <c r="D108">
-        <v>11.10372543334961</v>
+        <v>11.51943492889404</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>1.602492451667786</v>
+        <v>5.493972301483154</v>
       </c>
       <c r="B109">
-        <v>125.7963562011719</v>
+        <v>123.3288803100586</v>
       </c>
       <c r="C109">
-        <v>126.0003051757812</v>
+        <v>304.0661315917969</v>
       </c>
       <c r="D109">
-        <v>11.10371780395508</v>
+        <v>11.52013778686523</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>1.592402100563049</v>
+        <v>5.498158931732178</v>
       </c>
       <c r="B110">
-        <v>125.8104553222656</v>
+        <v>123.3255767822266</v>
       </c>
       <c r="C110">
-        <v>126.0003128051758</v>
+        <v>304.0666198730469</v>
       </c>
       <c r="D110">
-        <v>11.10371017456055</v>
+        <v>11.52084064483643</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>1.582320332527161</v>
+        <v>5.502346992492676</v>
       </c>
       <c r="B111">
-        <v>125.8245315551758</v>
+        <v>123.322265625</v>
       </c>
       <c r="C111">
-        <v>126.0003128051758</v>
+        <v>304.0671081542969</v>
       </c>
       <c r="D111">
-        <v>11.10370254516602</v>
+        <v>11.52154541015625</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>1.572247505187988</v>
+        <v>5.506537914276123</v>
       </c>
       <c r="B112">
-        <v>125.8385925292969</v>
+        <v>123.318962097168</v>
       </c>
       <c r="C112">
-        <v>126.0003128051758</v>
+        <v>304.067626953125</v>
       </c>
       <c r="D112">
-        <v>11.10369491577148</v>
+        <v>11.52225017547607</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>1.562182545661926</v>
+        <v>5.510730266571045</v>
       </c>
       <c r="B113">
-        <v>125.852653503418</v>
+        <v>123.3156509399414</v>
       </c>
       <c r="C113">
-        <v>126.0003128051758</v>
+        <v>304.068115234375</v>
       </c>
       <c r="D113">
-        <v>11.10368728637695</v>
+        <v>11.52295684814453</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>1.552127599716187</v>
+        <v>5.514925479888916</v>
       </c>
       <c r="B114">
-        <v>125.86669921875</v>
+        <v>123.3123474121094</v>
       </c>
       <c r="C114">
-        <v>126.0003128051758</v>
+        <v>304.0686340332031</v>
       </c>
       <c r="D114">
-        <v>11.10367965698242</v>
+        <v>11.5236644744873</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>1.542081356048584</v>
+        <v>5.519122123718262</v>
       </c>
       <c r="B115">
-        <v>125.880729675293</v>
+        <v>123.3090362548828</v>
       </c>
       <c r="C115">
-        <v>126.0003204345703</v>
+        <v>304.0691223144531</v>
       </c>
       <c r="D115">
-        <v>11.10367202758789</v>
+        <v>11.52437400817871</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>1.532043695449829</v>
+        <v>5.523321151733398</v>
       </c>
       <c r="B116">
-        <v>125.8947448730469</v>
+        <v>123.3057327270508</v>
       </c>
       <c r="C116">
-        <v>126.0003204345703</v>
+        <v>304.0696105957031</v>
       </c>
       <c r="D116">
-        <v>11.10366344451904</v>
+        <v>11.52508354187012</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>1.522014617919922</v>
+        <v>5.527522087097168</v>
       </c>
       <c r="B117">
-        <v>125.9087448120117</v>
+        <v>123.3024291992188</v>
       </c>
       <c r="C117">
-        <v>126.0003204345703</v>
+        <v>304.0701293945312</v>
       </c>
       <c r="D117">
-        <v>11.10365581512451</v>
+        <v>11.52579498291016</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>1.511995434761047</v>
+        <v>5.53172492980957</v>
       </c>
       <c r="B118">
-        <v>125.9227447509766</v>
+        <v>123.2991180419922</v>
       </c>
       <c r="C118">
-        <v>126.0003204345703</v>
+        <v>304.0706176757812</v>
       </c>
       <c r="D118">
-        <v>11.10364818572998</v>
+        <v>11.52650737762451</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>1.501984596252441</v>
+        <v>5.535928726196289</v>
       </c>
       <c r="B119">
-        <v>125.9367218017578</v>
+        <v>123.2958068847656</v>
       </c>
       <c r="C119">
-        <v>126.0003204345703</v>
+        <v>304.0711364746094</v>
       </c>
       <c r="D119">
-        <v>11.10363960266113</v>
+        <v>11.52722072601318</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>1.491981863975525</v>
+        <v>5.540135383605957</v>
       </c>
       <c r="B120">
-        <v>125.9506912231445</v>
+        <v>123.2924957275391</v>
       </c>
       <c r="C120">
-        <v>126.0003280639648</v>
+        <v>304.0716247558594</v>
       </c>
       <c r="D120">
-        <v>11.10363101959229</v>
+        <v>11.52793502807617</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>1.481989860534668</v>
+        <v>5.544342994689941</v>
       </c>
       <c r="B121">
-        <v>125.9646377563477</v>
+        <v>123.289192199707</v>
       </c>
       <c r="C121">
-        <v>126.0003280639648</v>
+        <v>304.0721435546875</v>
       </c>
       <c r="D121">
-        <v>11.10362339019775</v>
+        <v>11.52865028381348</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>1.472004652023315</v>
+        <v>5.5485520362854</v>
       </c>
       <c r="B122">
-        <v>125.9785842895508</v>
+        <v>123.2858810424805</v>
       </c>
       <c r="C122">
-        <v>126.0003280639648</v>
+        <v>304.0726318359375</v>
       </c>
       <c r="D122">
-        <v>11.10361480712891</v>
+        <v>11.52936744689941</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>1.462030172348022</v>
+        <v>5.552762508392334</v>
       </c>
       <c r="B123">
-        <v>125.9925079345703</v>
+        <v>123.2825622558594</v>
       </c>
       <c r="C123">
-        <v>126.0003280639648</v>
+        <v>304.0731506347656</v>
       </c>
       <c r="D123">
-        <v>11.10360622406006</v>
+        <v>11.53008556365967</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>1.45206344127655</v>
+        <v>5.556974411010742</v>
       </c>
       <c r="B124">
-        <v>126.0064392089844</v>
+        <v>123.2792587280273</v>
       </c>
       <c r="C124">
-        <v>126.0003280639648</v>
+        <v>304.0736389160156</v>
       </c>
       <c r="D124">
-        <v>11.10359764099121</v>
+        <v>11.53080463409424</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>1.4421067237854</v>
+        <v>5.561187744140625</v>
       </c>
       <c r="B125">
-        <v>126.0203399658203</v>
+        <v>123.2759399414062</v>
       </c>
       <c r="C125">
-        <v>126.0003356933594</v>
+        <v>304.0741577148438</v>
       </c>
       <c r="D125">
-        <v>11.10358905792236</v>
+        <v>11.53152465820312</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>1.432158470153809</v>
+        <v>5.565402507781982</v>
       </c>
       <c r="B126">
-        <v>126.0342254638672</v>
+        <v>123.2726287841797</v>
       </c>
       <c r="C126">
-        <v>126.0003356933594</v>
+        <v>304.0746765136719</v>
       </c>
       <c r="D126">
-        <v>11.10358142852783</v>
+        <v>11.53224563598633</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>1.422219634056091</v>
+        <v>5.569617748260498</v>
       </c>
       <c r="B127">
-        <v>126.0481109619141</v>
+        <v>123.2693099975586</v>
       </c>
       <c r="C127">
-        <v>126.0003356933594</v>
+        <v>304.0751647949219</v>
       </c>
       <c r="D127">
-        <v>11.10357189178467</v>
+        <v>11.53296852111816</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>1.412289977073669</v>
+        <v>5.573834896087646</v>
       </c>
       <c r="B128">
-        <v>126.0619812011719</v>
+        <v>123.2659912109375</v>
       </c>
       <c r="C128">
-        <v>126.0003356933594</v>
+        <v>304.07568359375</v>
       </c>
       <c r="D128">
-        <v>11.10356330871582</v>
+        <v>11.53369235992432</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>1.402368903160095</v>
+        <v>5.578052520751953</v>
       </c>
       <c r="B129">
-        <v>126.0758361816406</v>
+        <v>123.2626724243164</v>
       </c>
       <c r="C129">
-        <v>126.0003356933594</v>
+        <v>304.0762023925781</v>
       </c>
       <c r="D129">
-        <v>11.10355472564697</v>
+        <v>11.53441715240479</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>1.3924560546875</v>
+        <v>5.582271099090576</v>
       </c>
       <c r="B130">
-        <v>126.0896682739258</v>
+        <v>123.2593536376953</v>
       </c>
       <c r="C130">
-        <v>126.0003433227539</v>
+        <v>304.0766906738281</v>
       </c>
       <c r="D130">
-        <v>11.10354614257812</v>
+        <v>11.53514289855957</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>1.382554531097412</v>
+        <v>5.586490631103516</v>
       </c>
       <c r="B131">
-        <v>126.1034927368164</v>
+        <v>123.2560348510742</v>
       </c>
       <c r="C131">
-        <v>126.0003433227539</v>
+        <v>304.0772094726562</v>
       </c>
       <c r="D131">
-        <v>11.10353755950928</v>
+        <v>11.53586959838867</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>1.372660398483276</v>
+        <v>5.590711116790771</v>
       </c>
       <c r="B132">
-        <v>126.1173248291016</v>
+        <v>123.2527160644531</v>
       </c>
       <c r="C132">
-        <v>126.0003433227539</v>
+        <v>304.0777282714844</v>
       </c>
       <c r="D132">
-        <v>11.10352802276611</v>
+        <v>11.53659820556641</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>1.36277711391449</v>
+        <v>5.594931602478027</v>
       </c>
       <c r="B133">
-        <v>126.1311187744141</v>
+        <v>123.249382019043</v>
       </c>
       <c r="C133">
-        <v>126.0003433227539</v>
+        <v>304.0782165527344</v>
       </c>
       <c r="D133">
-        <v>11.10351943969727</v>
+        <v>11.53732776641846</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>1.352901458740234</v>
+        <v>5.5991530418396</v>
       </c>
       <c r="B134">
-        <v>126.144905090332</v>
+        <v>123.2460632324219</v>
       </c>
       <c r="C134">
-        <v>126.0003433227539</v>
+        <v>304.0787353515625</v>
       </c>
       <c r="D134">
-        <v>11.10351085662842</v>
+        <v>11.53805828094482</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>1.343035340309143</v>
+        <v>5.603375434875488</v>
       </c>
       <c r="B135">
-        <v>126.15869140625</v>
+        <v>123.2427368164062</v>
       </c>
       <c r="C135">
-        <v>126.0003509521484</v>
+        <v>304.0792541503906</v>
       </c>
       <c r="D135">
-        <v>11.10350131988525</v>
+        <v>11.53878974914551</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>1.333178520202637</v>
+        <v>5.607598304748535</v>
       </c>
       <c r="B136">
-        <v>126.1724624633789</v>
+        <v>123.2394027709961</v>
       </c>
       <c r="C136">
-        <v>126.0003509521484</v>
+        <v>304.0797729492188</v>
       </c>
       <c r="D136">
-        <v>11.10349178314209</v>
+        <v>11.53952217102051</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>1.323331117630005</v>
+        <v>5.61182165145874</v>
       </c>
       <c r="B137">
-        <v>126.1862030029297</v>
+        <v>123.2360763549805</v>
       </c>
       <c r="C137">
-        <v>126.0003509521484</v>
+        <v>304.0802612304688</v>
       </c>
       <c r="D137">
-        <v>11.10348320007324</v>
+        <v>11.54025650024414</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>1.313492178916931</v>
+        <v>5.616044998168945</v>
       </c>
       <c r="B138">
-        <v>126.1999435424805</v>
+        <v>123.2327499389648</v>
       </c>
       <c r="C138">
-        <v>126.0003509521484</v>
+        <v>304.0807800292969</v>
       </c>
       <c r="D138">
-        <v>11.10347366333008</v>
+        <v>11.54099082946777</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>1.303663969039917</v>
+        <v>5.62026834487915</v>
       </c>
       <c r="B139">
-        <v>126.2136688232422</v>
+        <v>123.2294082641602</v>
       </c>
       <c r="C139">
-        <v>126.0003509521484</v>
+        <v>304.081298828125</v>
       </c>
       <c r="D139">
-        <v>11.10346412658691</v>
+        <v>11.54172801971436</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>1.293844223022461</v>
+        <v>5.624492168426514</v>
       </c>
       <c r="B140">
-        <v>126.2273788452148</v>
+        <v>123.22607421875</v>
       </c>
       <c r="C140">
-        <v>126.000358581543</v>
+        <v>304.0818176269531</v>
       </c>
       <c r="D140">
-        <v>11.10345458984375</v>
+        <v>11.54246520996094</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>1.284032821655273</v>
+        <v>5.628715991973877</v>
       </c>
       <c r="B141">
-        <v>126.241081237793</v>
+        <v>123.2227401733398</v>
       </c>
       <c r="C141">
-        <v>126.000358581543</v>
+        <v>304.0823364257812</v>
       </c>
       <c r="D141">
-        <v>11.1034460067749</v>
+        <v>11.54320335388184</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>1.274231791496277</v>
+        <v>5.632940292358398</v>
       </c>
       <c r="B142">
-        <v>126.2547760009766</v>
+        <v>123.2193908691406</v>
       </c>
       <c r="C142">
-        <v>126.000358581543</v>
+        <v>304.0828247070312</v>
       </c>
       <c r="D142">
-        <v>11.10343647003174</v>
+        <v>11.54394340515137</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>1.264439582824707</v>
+        <v>5.637164115905762</v>
       </c>
       <c r="B143">
-        <v>126.2684478759766</v>
+        <v>123.2160568237305</v>
       </c>
       <c r="C143">
-        <v>126.000358581543</v>
+        <v>304.0833435058594</v>
       </c>
       <c r="D143">
-        <v>11.10342693328857</v>
+        <v>11.54468441009521</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>1.254657030105591</v>
+        <v>5.641387939453125</v>
       </c>
       <c r="B144">
-        <v>126.282112121582</v>
+        <v>123.2127151489258</v>
       </c>
       <c r="C144">
-        <v>126.000358581543</v>
+        <v>304.0838623046875</v>
       </c>
       <c r="D144">
-        <v>11.10341739654541</v>
+        <v>11.54542541503906</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>1.244884252548218</v>
+        <v>5.645612239837646</v>
       </c>
       <c r="B145">
-        <v>126.2957534790039</v>
+        <v>123.2093658447266</v>
       </c>
       <c r="C145">
-        <v>126.0003662109375</v>
+        <v>304.0843811035156</v>
       </c>
       <c r="D145">
-        <v>11.10340785980225</v>
+        <v>11.54616928100586</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>1.235119342803955</v>
+        <v>5.64983606338501</v>
       </c>
       <c r="B146">
-        <v>126.3093948364258</v>
+        <v>123.2060165405273</v>
       </c>
       <c r="C146">
-        <v>126.0003662109375</v>
+        <v>304.0848999023438</v>
       </c>
       <c r="D146">
-        <v>11.10339736938477</v>
+        <v>11.54691314697266</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>1.225366592407227</v>
+        <v>5.654059410095215</v>
       </c>
       <c r="B147">
-        <v>126.3230133056641</v>
+        <v>123.2026672363281</v>
       </c>
       <c r="C147">
-        <v>126.0003662109375</v>
+        <v>304.0854187011719</v>
       </c>
       <c r="D147">
-        <v>11.1033878326416</v>
+        <v>11.54765892028809</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>1.215620398521423</v>
+        <v>5.658282279968262</v>
       </c>
       <c r="B148">
-        <v>126.3366241455078</v>
+        <v>123.1993103027344</v>
       </c>
       <c r="C148">
-        <v>126.0003662109375</v>
+        <v>304.0859375</v>
       </c>
       <c r="D148">
-        <v>11.10337829589844</v>
+        <v>11.54840564727783</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>1.205884337425232</v>
+        <v>5.66250467300415</v>
       </c>
       <c r="B149">
-        <v>126.3502197265625</v>
+        <v>123.1959609985352</v>
       </c>
       <c r="C149">
-        <v>126.0003662109375</v>
+        <v>304.0864562988281</v>
       </c>
       <c r="D149">
-        <v>11.10336780548096</v>
+        <v>11.54915332794189</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>1.196157932281494</v>
+        <v>5.666727066040039</v>
       </c>
       <c r="B150">
-        <v>126.3638076782227</v>
+        <v>123.1925964355469</v>
       </c>
       <c r="C150">
-        <v>126.000373840332</v>
+        <v>304.0869445800781</v>
       </c>
       <c r="D150">
-        <v>11.10335826873779</v>
+        <v>11.54990196228027</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>1.1864413022995</v>
+        <v>5.670948505401611</v>
       </c>
       <c r="B151">
-        <v>126.3773727416992</v>
+        <v>123.1892395019531</v>
       </c>
       <c r="C151">
-        <v>126.000373840332</v>
+        <v>304.0874633789062</v>
       </c>
       <c r="D151">
-        <v>11.10334873199463</v>
+        <v>11.55065155029297</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>1.176733374595642</v>
+        <v>5.675169944763184</v>
       </c>
       <c r="B152">
-        <v>126.3909225463867</v>
+        <v>123.1858749389648</v>
       </c>
       <c r="C152">
-        <v>126.000373840332</v>
+        <v>304.0879821777344</v>
       </c>
       <c r="D152">
-        <v>11.10333824157715</v>
+        <v>11.5514030456543</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>1.167035818099976</v>
+        <v>5.679389953613281</v>
       </c>
       <c r="B153">
-        <v>126.4044647216797</v>
+        <v>123.1825103759766</v>
       </c>
       <c r="C153">
-        <v>126.000373840332</v>
+        <v>304.0885009765625</v>
       </c>
       <c r="D153">
-        <v>11.10332870483398</v>
+        <v>11.55215549468994</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>1.157347321510315</v>
+        <v>5.683609962463379</v>
       </c>
       <c r="B154">
-        <v>126.4179992675781</v>
+        <v>123.1791458129883</v>
       </c>
       <c r="C154">
-        <v>126.000373840332</v>
+        <v>304.0890197753906</v>
       </c>
       <c r="D154">
-        <v>11.1033182144165</v>
+        <v>11.5529088973999</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>1.147667288780212</v>
+        <v>5.687828063964844</v>
       </c>
       <c r="B155">
-        <v>126.431510925293</v>
+        <v>123.1757736206055</v>
       </c>
       <c r="C155">
-        <v>126.0003814697266</v>
+        <v>304.0895385742188</v>
       </c>
       <c r="D155">
-        <v>11.10330772399902</v>
+        <v>11.55366325378418</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>1.137998342514038</v>
+        <v>5.692046642303467</v>
       </c>
       <c r="B156">
-        <v>126.4450149536133</v>
+        <v>123.1723937988281</v>
       </c>
       <c r="C156">
-        <v>126.0003814697266</v>
+        <v>304.0900573730469</v>
       </c>
       <c r="D156">
-        <v>11.10329818725586</v>
+        <v>11.55441951751709</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>1.12833845615387</v>
+        <v>5.696263790130615</v>
       </c>
       <c r="B157">
-        <v>126.4585113525391</v>
+        <v>123.1690216064453</v>
       </c>
       <c r="C157">
-        <v>126.0003814697266</v>
+        <v>304.090576171875</v>
       </c>
       <c r="D157">
-        <v>11.10328769683838</v>
+        <v>11.55517578125</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>1.118687629699707</v>
+        <v>5.700479507446289</v>
       </c>
       <c r="B158">
-        <v>126.4719772338867</v>
+        <v>123.165641784668</v>
       </c>
       <c r="C158">
-        <v>126.0003814697266</v>
+        <v>304.0910949707031</v>
       </c>
       <c r="D158">
-        <v>11.1032772064209</v>
+        <v>11.55593395233154</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>1.109046459197998</v>
+        <v>5.704694747924805</v>
       </c>
       <c r="B159">
-        <v>126.4854431152344</v>
+        <v>123.1622619628906</v>
       </c>
       <c r="C159">
-        <v>126.0003814697266</v>
+        <v>304.0916137695312</v>
       </c>
       <c r="D159">
-        <v>11.10326671600342</v>
+        <v>11.5566930770874</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>1.099415183067322</v>
+        <v>5.708908081054688</v>
       </c>
       <c r="B160">
-        <v>126.498893737793</v>
+        <v>123.1588745117188</v>
       </c>
       <c r="C160">
-        <v>126.0003890991211</v>
+        <v>304.0921325683594</v>
       </c>
       <c r="D160">
-        <v>11.10325622558594</v>
+        <v>11.55745410919189</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>1.08979344367981</v>
+        <v>5.71312141418457</v>
       </c>
       <c r="B161">
-        <v>126.5123291015625</v>
+        <v>123.1554870605469</v>
       </c>
       <c r="C161">
-        <v>126.0003890991211</v>
+        <v>304.0926513671875</v>
       </c>
       <c r="D161">
-        <v>11.10324573516846</v>
+        <v>11.55821514129639</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>1.08018159866333</v>
+        <v>5.71733283996582</v>
       </c>
       <c r="B162">
-        <v>126.5257568359375</v>
+        <v>123.152099609375</v>
       </c>
       <c r="C162">
-        <v>126.0003890991211</v>
+        <v>304.0931701660156</v>
       </c>
       <c r="D162">
-        <v>11.10323524475098</v>
+        <v>11.55897808074951</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>1.070578455924988</v>
+        <v>5.721543312072754</v>
       </c>
       <c r="B163">
-        <v>126.5391616821289</v>
+        <v>123.1487045288086</v>
       </c>
       <c r="C163">
-        <v>126.0003890991211</v>
+        <v>304.0936889648438</v>
       </c>
       <c r="D163">
-        <v>11.1032247543335</v>
+        <v>11.55974102020264</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>1.060985326766968</v>
+        <v>5.725751876831055</v>
       </c>
       <c r="B164">
-        <v>126.5525665283203</v>
+        <v>123.1453094482422</v>
       </c>
       <c r="C164">
-        <v>126.0003890991211</v>
+        <v>304.0942077636719</v>
       </c>
       <c r="D164">
-        <v>11.10321426391602</v>
+        <v>11.56050586700439</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>1.05140221118927</v>
+        <v>5.729959487915039</v>
       </c>
       <c r="B165">
-        <v>126.5659484863281</v>
+        <v>123.1419067382812</v>
       </c>
       <c r="C165">
-        <v>126.0003967285156</v>
+        <v>304.0947265625</v>
       </c>
       <c r="D165">
-        <v>11.10320281982422</v>
+        <v>11.56127262115479</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>1.041828036308289</v>
+        <v>5.734165191650391</v>
       </c>
       <c r="B166">
-        <v>126.5793075561523</v>
+        <v>123.1385040283203</v>
       </c>
       <c r="C166">
-        <v>126.0003967285156</v>
+        <v>304.0952453613281</v>
       </c>
       <c r="D166">
-        <v>11.10319232940674</v>
+        <v>11.56203937530518</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>1.032264113426208</v>
+        <v>5.738369464874268</v>
       </c>
       <c r="B167">
-        <v>126.5926742553711</v>
+        <v>123.1350936889648</v>
       </c>
       <c r="C167">
-        <v>126.0003967285156</v>
+        <v>304.0957641601562</v>
       </c>
       <c r="D167">
-        <v>11.10318183898926</v>
+        <v>11.5628080368042</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>1.022709250450134</v>
+        <v>5.74257230758667</v>
       </c>
       <c r="B168">
-        <v>126.6060104370117</v>
+        <v>123.1316833496094</v>
       </c>
       <c r="C168">
-        <v>126.0003967285156</v>
+        <v>304.0962829589844</v>
       </c>
       <c r="D168">
-        <v>11.10317039489746</v>
+        <v>11.56357669830322</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>1.013164162635803</v>
+        <v>5.746773719787598</v>
       </c>
       <c r="B169">
-        <v>126.6193466186523</v>
+        <v>123.1282730102539</v>
       </c>
       <c r="C169">
-        <v>126.0003967285156</v>
+        <v>304.0968017578125</v>
       </c>
       <c r="D169">
-        <v>11.10315990447998</v>
+        <v>11.56434726715088</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>1.003629446029663</v>
+        <v>5.750972747802734</v>
       </c>
       <c r="B170">
-        <v>126.6326522827148</v>
+        <v>123.1248550415039</v>
       </c>
       <c r="C170">
-        <v>126.0004043579102</v>
+        <v>304.0973205566406</v>
       </c>
       <c r="D170">
-        <v>11.1031494140625</v>
+        <v>11.56511974334717</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>0.9941037893295288</v>
+        <v>5.755171298980713</v>
       </c>
       <c r="B171">
-        <v>126.6459579467773</v>
+        <v>123.1214370727539</v>
       </c>
       <c r="C171">
-        <v>126.0004043579102</v>
+        <v>304.0978393554688</v>
       </c>
       <c r="D171">
-        <v>11.1031379699707</v>
+        <v>11.56589221954346</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>0.9845881462097168</v>
+        <v>5.759366512298584</v>
       </c>
       <c r="B172">
-        <v>126.6592483520508</v>
+        <v>123.1180114746094</v>
       </c>
       <c r="C172">
-        <v>126.0004043579102</v>
+        <v>304.0983581542969</v>
       </c>
       <c r="D172">
-        <v>11.10312652587891</v>
+        <v>11.56666564941406</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>0.9750816822052002</v>
+        <v>5.763560771942139</v>
       </c>
       <c r="B173">
-        <v>126.6725234985352</v>
+        <v>123.1145782470703</v>
       </c>
       <c r="C173">
-        <v>126.0004043579102</v>
+        <v>304.098876953125</v>
       </c>
       <c r="D173">
-        <v>11.10311603546143</v>
+        <v>11.5674409866333</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>0.9655848741531372</v>
+        <v>5.767752647399902</v>
       </c>
       <c r="B174">
-        <v>126.685791015625</v>
+        <v>123.1111526489258</v>
       </c>
       <c r="C174">
-        <v>126.0004043579102</v>
+        <v>304.0993957519531</v>
       </c>
       <c r="D174">
-        <v>11.10310459136963</v>
+        <v>11.56821727752686</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>0.9560981392860413</v>
+        <v>5.771943092346191</v>
       </c>
       <c r="B175">
-        <v>126.6990203857422</v>
+        <v>123.1077117919922</v>
       </c>
       <c r="C175">
-        <v>126.0004119873047</v>
+        <v>304.0999145507812</v>
       </c>
       <c r="D175">
-        <v>11.10309314727783</v>
+        <v>11.56899452209473</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>0.9466214776039124</v>
+        <v>5.776131153106689</v>
       </c>
       <c r="B176">
-        <v>126.712272644043</v>
+        <v>123.1042709350586</v>
       </c>
       <c r="C176">
-        <v>126.0004119873047</v>
+        <v>304.1004333496094</v>
       </c>
       <c r="D176">
-        <v>11.10308265686035</v>
+        <v>11.56977272033691</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>0.9371545314788818</v>
+        <v>5.780317783355713</v>
       </c>
       <c r="B177">
-        <v>126.7254867553711</v>
+        <v>123.100830078125</v>
       </c>
       <c r="C177">
-        <v>126.0004119873047</v>
+        <v>304.1009521484375</v>
       </c>
       <c r="D177">
-        <v>11.10307121276855</v>
+        <v>11.57055282592773</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>0.9276970028877258</v>
+        <v>5.784501075744629</v>
       </c>
       <c r="B178">
-        <v>126.7386932373047</v>
+        <v>123.0973815917969</v>
       </c>
       <c r="C178">
-        <v>126.0004119873047</v>
+        <v>304.1014709472656</v>
       </c>
       <c r="D178">
-        <v>11.10305976867676</v>
+        <v>11.57133293151855</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>0.9182502031326294</v>
+        <v>5.788682460784912</v>
       </c>
       <c r="B179">
-        <v>126.7518844604492</v>
+        <v>123.0939407348633</v>
       </c>
       <c r="C179">
-        <v>126.0004119873047</v>
+        <v>304.1019897460938</v>
       </c>
       <c r="D179">
-        <v>11.10304832458496</v>
+        <v>11.57211494445801</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>0.9088121056556702</v>
+        <v>5.792861938476562</v>
       </c>
       <c r="B180">
-        <v>126.7650604248047</v>
+        <v>123.0904846191406</v>
       </c>
       <c r="C180">
-        <v>126.0004119873047</v>
+        <v>304.1025085449219</v>
       </c>
       <c r="D180">
-        <v>11.10303688049316</v>
+        <v>11.57289791107178</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>0.8993843793869019</v>
+        <v>5.797039031982422</v>
       </c>
       <c r="B181">
-        <v>126.7782211303711</v>
+        <v>123.087028503418</v>
       </c>
       <c r="C181">
-        <v>126.0004196166992</v>
+        <v>304.10302734375</v>
       </c>
       <c r="D181">
-        <v>11.10302543640137</v>
+        <v>11.57368183135986</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>0.8899657726287842</v>
+        <v>5.801214218139648</v>
       </c>
       <c r="B182">
-        <v>126.7913818359375</v>
+        <v>123.0835647583008</v>
       </c>
       <c r="C182">
-        <v>126.0004196166992</v>
+        <v>304.1035461425781</v>
       </c>
       <c r="D182">
-        <v>11.10301399230957</v>
+        <v>11.57446670532227</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>0.8805578947067261</v>
+        <v>5.805386543273926</v>
       </c>
       <c r="B183">
-        <v>126.8045120239258</v>
+        <v>123.0800933837891</v>
       </c>
       <c r="C183">
-        <v>126.0004196166992</v>
+        <v>304.1040649414062</v>
       </c>
       <c r="D183">
-        <v>11.10300254821777</v>
+        <v>11.57525253295898</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>0.8711596727371216</v>
+        <v>5.809556484222412</v>
       </c>
       <c r="B184">
-        <v>126.8176498413086</v>
+        <v>123.0766296386719</v>
       </c>
       <c r="C184">
-        <v>126.0004196166992</v>
+        <v>304.1045837402344</v>
       </c>
       <c r="D184">
-        <v>11.10299015045166</v>
+        <v>11.57604026794434</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>0.8617709279060364</v>
+        <v>5.813724517822266</v>
       </c>
       <c r="B185">
-        <v>126.8307495117188</v>
+        <v>123.0731582641602</v>
       </c>
       <c r="C185">
-        <v>126.0004196166992</v>
+        <v>304.1051025390625</v>
       </c>
       <c r="D185">
-        <v>11.10297870635986</v>
+        <v>11.576828956604</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>0.8523918390274048</v>
+        <v>5.817889213562012</v>
       </c>
       <c r="B186">
-        <v>126.8438568115234</v>
+        <v>123.0696792602539</v>
       </c>
       <c r="C186">
-        <v>126.0004272460938</v>
+        <v>304.1056213378906</v>
       </c>
       <c r="D186">
-        <v>11.10296726226807</v>
+        <v>11.57761859893799</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>0.843022882938385</v>
+        <v>5.822051525115967</v>
       </c>
       <c r="B187">
-        <v>126.8569259643555</v>
+        <v>123.0661926269531</v>
       </c>
       <c r="C187">
-        <v>126.0004272460938</v>
+        <v>304.1061401367188</v>
       </c>
       <c r="D187">
-        <v>11.10295486450195</v>
+        <v>11.57840824127197</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>0.8336645364761353</v>
+        <v>5.826211452484131</v>
       </c>
       <c r="B188">
-        <v>126.870002746582</v>
+        <v>123.0627136230469</v>
       </c>
       <c r="C188">
-        <v>126.0004272460938</v>
+        <v>304.1066589355469</v>
       </c>
       <c r="D188">
-        <v>11.10294342041016</v>
+        <v>11.57920074462891</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>0.8243160247802734</v>
+        <v>5.830368518829346</v>
       </c>
       <c r="B189">
-        <v>126.8830642700195</v>
+        <v>123.0592193603516</v>
       </c>
       <c r="C189">
-        <v>126.0004272460938</v>
+        <v>304.107177734375</v>
       </c>
       <c r="D189">
-        <v>11.10293197631836</v>
+        <v>11.57999324798584</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>0.8149762153625488</v>
+        <v>5.834522724151611</v>
       </c>
       <c r="B190">
-        <v>126.8960952758789</v>
+        <v>123.0557250976562</v>
       </c>
       <c r="C190">
-        <v>126.0004272460938</v>
+        <v>304.1076965332031</v>
       </c>
       <c r="D190">
-        <v>11.10291957855225</v>
+        <v>11.58078670501709</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>0.805647075176239</v>
+        <v>5.838674545288086</v>
       </c>
       <c r="B191">
-        <v>126.9091186523438</v>
+        <v>123.0522308349609</v>
       </c>
       <c r="C191">
-        <v>126.0004348754883</v>
+        <v>304.1082153320312</v>
       </c>
       <c r="D191">
-        <v>11.10290813446045</v>
+        <v>11.58158206939697</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>0.7963280081748962</v>
+        <v>5.842823028564453</v>
       </c>
       <c r="B192">
-        <v>126.9221420288086</v>
+        <v>123.0487289428711</v>
       </c>
       <c r="C192">
-        <v>126.0004348754883</v>
+        <v>304.1087341308594</v>
       </c>
       <c r="D192">
-        <v>11.10289573669434</v>
+        <v>11.58237838745117</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>0.7870180606842041</v>
+        <v>5.846969127655029</v>
       </c>
       <c r="B193">
-        <v>126.9351425170898</v>
+        <v>123.0452270507812</v>
       </c>
       <c r="C193">
-        <v>126.0004348754883</v>
+        <v>304.1092529296875</v>
       </c>
       <c r="D193">
-        <v>11.10288333892822</v>
+        <v>11.58317470550537</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>0.7777191400527954</v>
+        <v>5.851111888885498</v>
       </c>
       <c r="B194">
-        <v>126.948127746582</v>
+        <v>123.0417098999023</v>
       </c>
       <c r="C194">
-        <v>126.0004348754883</v>
+        <v>304.1097717285156</v>
       </c>
       <c r="D194">
-        <v>11.10287189483643</v>
+        <v>11.5839729309082</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>0.7684305310249329</v>
+        <v>5.855252742767334</v>
       </c>
       <c r="B195">
-        <v>126.9610977172852</v>
+        <v>123.0381927490234</v>
       </c>
       <c r="C195">
-        <v>126.0004348754883</v>
+        <v>304.1102905273438</v>
       </c>
       <c r="D195">
-        <v>11.10285949707031</v>
+        <v>11.58477306365967</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>0.7591497898101807</v>
+        <v>5.859389305114746</v>
       </c>
       <c r="B196">
-        <v>126.9740600585938</v>
+        <v>123.0346755981445</v>
       </c>
       <c r="C196">
-        <v>126.0004348754883</v>
+        <v>304.1107788085938</v>
       </c>
       <c r="D196">
-        <v>11.1028470993042</v>
+        <v>11.58557319641113</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>0.7498806715011597</v>
+        <v>5.863523483276367</v>
       </c>
       <c r="B197">
-        <v>126.9869995117188</v>
+        <v>123.0311508178711</v>
       </c>
       <c r="C197">
-        <v>126.0004425048828</v>
+        <v>304.1112976074219</v>
       </c>
       <c r="D197">
-        <v>11.1028356552124</v>
+        <v>11.58637428283691</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>0.7406212687492371</v>
+        <v>5.867654800415039</v>
       </c>
       <c r="B198">
-        <v>126.9999313354492</v>
+        <v>123.0276260375977</v>
       </c>
       <c r="C198">
-        <v>126.0004425048828</v>
+        <v>304.11181640625</v>
       </c>
       <c r="D198">
-        <v>11.10282325744629</v>
+        <v>11.58717727661133</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>0.731372594833374</v>
+        <v>5.871783256530762</v>
       </c>
       <c r="B199">
-        <v>127.0128479003906</v>
+        <v>123.0240859985352</v>
       </c>
       <c r="C199">
-        <v>126.0004425048828</v>
+        <v>304.1123352050781</v>
       </c>
       <c r="D199">
-        <v>11.10281085968018</v>
+        <v>11.58798027038574</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>0.722132682800293</v>
+        <v>5.875907421112061</v>
       </c>
       <c r="B200">
-        <v>127.025749206543</v>
+        <v>123.0205535888672</v>
       </c>
       <c r="C200">
-        <v>126.0004425048828</v>
+        <v>304.1128540039062</v>
       </c>
       <c r="D200">
-        <v>11.10279846191406</v>
+        <v>11.58878517150879</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>0.7129031419754028</v>
+        <v>5.880029201507568</v>
       </c>
       <c r="B201">
-        <v>127.0386352539062</v>
+        <v>123.0170059204102</v>
       </c>
       <c r="C201">
-        <v>126.0004425048828</v>
+        <v>304.1133728027344</v>
       </c>
       <c r="D201">
-        <v>11.10278606414795</v>
+        <v>11.58959102630615</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>0.7036836743354797</v>
+        <v>5.884148120880127</v>
       </c>
       <c r="B202">
-        <v>127.0515060424805</v>
+        <v>123.0134658813477</v>
       </c>
       <c r="C202">
-        <v>126.0004501342773</v>
+        <v>304.1138916015625</v>
       </c>
       <c r="D202">
-        <v>11.10277366638184</v>
+        <v>11.59039783477783</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>0.6944742798805237</v>
+        <v>5.88826322555542</v>
       </c>
       <c r="B203">
-        <v>127.0643768310547</v>
+        <v>123.0099182128906</v>
       </c>
       <c r="C203">
-        <v>126.0004501342773</v>
+        <v>304.1144104003906</v>
       </c>
       <c r="D203">
-        <v>11.10276126861572</v>
+        <v>11.59120559692383</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>0.6852745413780212</v>
+        <v>5.892375469207764</v>
       </c>
       <c r="B204">
-        <v>127.0772171020508</v>
+        <v>123.0063552856445</v>
       </c>
       <c r="C204">
-        <v>126.0004501342773</v>
+        <v>304.1149291992188</v>
       </c>
       <c r="D204">
-        <v>11.10274887084961</v>
+        <v>11.59201431274414</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>0.676085889339447</v>
+        <v>5.896483421325684</v>
       </c>
       <c r="B205">
-        <v>127.0900421142578</v>
+        <v>123.002799987793</v>
       </c>
       <c r="C205">
-        <v>126.0004501342773</v>
+        <v>304.1154479980469</v>
       </c>
       <c r="D205">
-        <v>11.10273551940918</v>
+        <v>11.59282398223877</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>0.6669065952301025</v>
+        <v>5.900589942932129</v>
       </c>
       <c r="B206">
-        <v>127.1028594970703</v>
+        <v>122.9992294311523</v>
       </c>
       <c r="C206">
-        <v>126.0004501342773</v>
+        <v>304.115966796875</v>
       </c>
       <c r="D206">
-        <v>11.10272312164307</v>
+        <v>11.59363460540771</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>0.6577373743057251</v>
+        <v>5.904691696166992</v>
       </c>
       <c r="B207">
-        <v>127.1156692504883</v>
+        <v>122.9956588745117</v>
       </c>
       <c r="C207">
-        <v>126.0004577636719</v>
+        <v>304.116455078125</v>
       </c>
       <c r="D207">
-        <v>11.10271072387695</v>
+        <v>11.59444713592529</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>0.6485782265663147</v>
+        <v>5.90878963470459</v>
       </c>
       <c r="B208">
-        <v>127.1284561157227</v>
+        <v>122.9920883178711</v>
       </c>
       <c r="C208">
-        <v>126.0004577636719</v>
+        <v>304.1169738769531</v>
       </c>
       <c r="D208">
-        <v>11.10269832611084</v>
+        <v>11.59525966644287</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>0.6394301056861877</v>
+        <v>5.912884712219238</v>
       </c>
       <c r="B209">
-        <v>127.141242980957</v>
+        <v>122.9885025024414</v>
       </c>
       <c r="C209">
-        <v>126.0004577636719</v>
+        <v>304.1174926757812</v>
       </c>
       <c r="D209">
-        <v>11.10268497467041</v>
+        <v>11.59607410430908</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>0.6302910447120667</v>
+        <v>5.916976451873779</v>
       </c>
       <c r="B210">
-        <v>127.1539916992188</v>
+        <v>122.9849243164062</v>
       </c>
       <c r="C210">
-        <v>126.0004577636719</v>
+        <v>304.1180114746094</v>
       </c>
       <c r="D210">
-        <v>11.1026725769043</v>
+        <v>11.59688949584961</v>
       </c>
     </row>
   </sheetData>

--- a/sub2/hasil prediktor.xlsx
+++ b/sub2/hasil prediktor.xlsx
@@ -348,2942 +348,2942 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>5.072086334228516</v>
+        <v>3.365703582763672</v>
       </c>
       <c r="B1">
-        <v>123.7010650634766</v>
+        <v>122.3113021850586</v>
       </c>
       <c r="C1">
-        <v>304.0190124511719</v>
+        <v>88.46054840087891</v>
       </c>
       <c r="D1">
-        <v>11.45011806488037</v>
+        <v>11.18891525268555</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>5.075581073760986</v>
+        <v>3.364835262298584</v>
       </c>
       <c r="B2">
-        <v>123.6973342895508</v>
+        <v>122.3134613037109</v>
       </c>
       <c r="C2">
-        <v>304.0193481445312</v>
+        <v>88.46709442138672</v>
       </c>
       <c r="D2">
-        <v>11.45072078704834</v>
+        <v>11.18916893005371</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>5.079085350036621</v>
+        <v>3.363970279693604</v>
       </c>
       <c r="B3">
-        <v>123.6936187744141</v>
+        <v>122.3155899047852</v>
       </c>
       <c r="C3">
-        <v>304.0197143554688</v>
+        <v>88.47360992431641</v>
       </c>
       <c r="D3">
-        <v>11.45132350921631</v>
+        <v>11.18942356109619</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>5.082599639892578</v>
+        <v>3.363110542297363</v>
       </c>
       <c r="B4">
-        <v>123.6899108886719</v>
+        <v>122.3177032470703</v>
       </c>
       <c r="C4">
-        <v>304.0200805664062</v>
+        <v>88.48013305664062</v>
       </c>
       <c r="D4">
-        <v>11.45192718505859</v>
+        <v>11.18967914581299</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>5.086123466491699</v>
+        <v>3.362253665924072</v>
       </c>
       <c r="B5">
-        <v>123.6862106323242</v>
+        <v>122.3197860717773</v>
       </c>
       <c r="C5">
-        <v>304.0204467773438</v>
+        <v>88.48660278320312</v>
       </c>
       <c r="D5">
-        <v>11.4525318145752</v>
+        <v>11.18993377685547</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5.089657783508301</v>
+        <v>3.361401796340942</v>
       </c>
       <c r="B6">
-        <v>123.6825180053711</v>
+        <v>122.3218460083008</v>
       </c>
       <c r="C6">
-        <v>304.0208129882812</v>
+        <v>88.49309539794922</v>
       </c>
       <c r="D6">
-        <v>11.45313739776611</v>
+        <v>11.19018936157227</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>5.093201160430908</v>
+        <v>3.360553503036499</v>
       </c>
       <c r="B7">
-        <v>123.678825378418</v>
+        <v>122.3238830566406</v>
       </c>
       <c r="C7">
-        <v>304.0211791992188</v>
+        <v>88.49954223632812</v>
       </c>
       <c r="D7">
-        <v>11.45374298095703</v>
+        <v>11.19044494628906</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>5.096754550933838</v>
+        <v>3.359709501266479</v>
       </c>
       <c r="B8">
-        <v>123.6751480102539</v>
+        <v>122.3258895874023</v>
       </c>
       <c r="C8">
-        <v>304.0215454101562</v>
+        <v>88.50601196289062</v>
       </c>
       <c r="D8">
-        <v>11.45434951782227</v>
+        <v>11.19070148468018</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>5.100317478179932</v>
+        <v>3.358869314193726</v>
       </c>
       <c r="B9">
-        <v>123.6714706420898</v>
+        <v>122.327880859375</v>
       </c>
       <c r="C9">
-        <v>304.0219116210938</v>
+        <v>88.51242828369141</v>
       </c>
       <c r="D9">
-        <v>11.45495700836182</v>
+        <v>11.19095802307129</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>5.103889942169189</v>
+        <v>3.358033180236816</v>
       </c>
       <c r="B10">
-        <v>123.6678085327148</v>
+        <v>122.3298492431641</v>
       </c>
       <c r="C10">
-        <v>304.0222778320312</v>
+        <v>88.51887512207031</v>
       </c>
       <c r="D10">
-        <v>11.45556545257568</v>
+        <v>11.19121551513672</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>5.10747241973877</v>
+        <v>3.357200860977173</v>
       </c>
       <c r="B11">
-        <v>123.6641464233398</v>
+        <v>122.3317947387695</v>
       </c>
       <c r="C11">
-        <v>304.0226745605469</v>
+        <v>88.52527618408203</v>
       </c>
       <c r="D11">
-        <v>11.45617389678955</v>
+        <v>11.19147205352783</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>5.111063957214355</v>
+        <v>3.356373071670532</v>
       </c>
       <c r="B12">
-        <v>123.6604995727539</v>
+        <v>122.3337173461914</v>
       </c>
       <c r="C12">
-        <v>304.0230407714844</v>
+        <v>88.53169250488281</v>
       </c>
       <c r="D12">
-        <v>11.45678329467773</v>
+        <v>11.19172954559326</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>5.114665031433105</v>
+        <v>3.35554838180542</v>
       </c>
       <c r="B13">
-        <v>123.656852722168</v>
+        <v>122.3356246948242</v>
       </c>
       <c r="C13">
-        <v>304.0234069824219</v>
+        <v>88.5380859375</v>
       </c>
       <c r="D13">
-        <v>11.45739364624023</v>
+        <v>11.19198608398438</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>5.118275165557861</v>
+        <v>3.354728221893311</v>
       </c>
       <c r="B14">
-        <v>123.6532211303711</v>
+        <v>122.3375091552734</v>
       </c>
       <c r="C14">
-        <v>304.0238037109375</v>
+        <v>88.54449462890625</v>
       </c>
       <c r="D14">
-        <v>11.45800495147705</v>
+        <v>11.19224548339844</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>5.121894836425781</v>
+        <v>3.353911876678467</v>
       </c>
       <c r="B15">
-        <v>123.6495895385742</v>
+        <v>122.3393707275391</v>
       </c>
       <c r="C15">
-        <v>304.024169921875</v>
+        <v>88.55088806152344</v>
       </c>
       <c r="D15">
-        <v>11.45861625671387</v>
+        <v>11.19250392913818</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>5.125523567199707</v>
+        <v>3.353099822998047</v>
       </c>
       <c r="B16">
-        <v>123.6459655761719</v>
+        <v>122.3412094116211</v>
       </c>
       <c r="C16">
-        <v>304.0245666503906</v>
+        <v>88.55728149414062</v>
       </c>
       <c r="D16">
-        <v>11.45922946929932</v>
+        <v>11.19276237487793</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>5.129161357879639</v>
+        <v>3.352290868759155</v>
       </c>
       <c r="B17">
-        <v>123.6423492431641</v>
+        <v>122.3430328369141</v>
       </c>
       <c r="C17">
-        <v>304.0249328613281</v>
+        <v>88.56365203857422</v>
       </c>
       <c r="D17">
-        <v>11.45984268188477</v>
+        <v>11.19302082061768</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>5.132809162139893</v>
+        <v>3.351486444473267</v>
       </c>
       <c r="B18">
-        <v>123.6387481689453</v>
+        <v>122.3448333740234</v>
       </c>
       <c r="C18">
-        <v>304.0253295898438</v>
+        <v>88.57006072998047</v>
       </c>
       <c r="D18">
-        <v>11.46045684814453</v>
+        <v>11.19328022003174</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>5.136464595794678</v>
+        <v>3.350685596466064</v>
       </c>
       <c r="B19">
-        <v>123.635139465332</v>
+        <v>122.3466110229492</v>
       </c>
       <c r="C19">
-        <v>304.0256958007812</v>
+        <v>88.57643127441406</v>
       </c>
       <c r="D19">
-        <v>11.4610710144043</v>
+        <v>11.1935396194458</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>5.140129566192627</v>
+        <v>3.349888801574707</v>
       </c>
       <c r="B20">
-        <v>123.6315383911133</v>
+        <v>122.3483810424805</v>
       </c>
       <c r="C20">
-        <v>304.0260925292969</v>
+        <v>88.58282470703125</v>
       </c>
       <c r="D20">
-        <v>11.4616870880127</v>
+        <v>11.19379901885986</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>5.14380407333374</v>
+        <v>3.349095344543457</v>
       </c>
       <c r="B21">
-        <v>123.6279525756836</v>
+        <v>122.3501205444336</v>
       </c>
       <c r="C21">
-        <v>304.0264892578125</v>
+        <v>88.58920288085938</v>
       </c>
       <c r="D21">
-        <v>11.46230316162109</v>
+        <v>11.19405841827393</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>5.147487163543701</v>
+        <v>3.348306179046631</v>
       </c>
       <c r="B22">
-        <v>123.6243743896484</v>
+        <v>122.3518447875977</v>
       </c>
       <c r="C22">
-        <v>304.0268859863281</v>
+        <v>88.59559631347656</v>
       </c>
       <c r="D22">
-        <v>11.46292018890381</v>
+        <v>11.19431972503662</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>5.151178359985352</v>
+        <v>3.347520589828491</v>
       </c>
       <c r="B23">
-        <v>123.6207885742188</v>
+        <v>122.3535537719727</v>
       </c>
       <c r="C23">
-        <v>304.0272827148438</v>
+        <v>88.60196685791016</v>
       </c>
       <c r="D23">
-        <v>11.46353816986084</v>
+        <v>11.19457912445068</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>5.154878616333008</v>
+        <v>3.346739292144775</v>
       </c>
       <c r="B24">
-        <v>123.6172180175781</v>
+        <v>122.3552474975586</v>
       </c>
       <c r="C24">
-        <v>304.0276794433594</v>
+        <v>88.60838317871094</v>
       </c>
       <c r="D24">
-        <v>11.46415710449219</v>
+        <v>11.19483947753906</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>5.15858793258667</v>
+        <v>3.345961093902588</v>
       </c>
       <c r="B25">
-        <v>123.613655090332</v>
+        <v>122.3569183349609</v>
       </c>
       <c r="C25">
-        <v>304.0280456542969</v>
+        <v>88.61475372314453</v>
       </c>
       <c r="D25">
-        <v>11.46477603912354</v>
+        <v>11.19509983062744</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>5.16230583190918</v>
+        <v>3.345186948776245</v>
       </c>
       <c r="B26">
-        <v>123.6100921630859</v>
+        <v>122.3585739135742</v>
       </c>
       <c r="C26">
-        <v>304.0284729003906</v>
+        <v>88.62117004394531</v>
       </c>
       <c r="D26">
-        <v>11.46539688110352</v>
+        <v>11.19536209106445</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>5.166031837463379</v>
+        <v>3.344416618347168</v>
       </c>
       <c r="B27">
-        <v>123.6065444946289</v>
+        <v>122.3602142333984</v>
       </c>
       <c r="C27">
-        <v>304.0288696289062</v>
+        <v>88.6275634765625</v>
       </c>
       <c r="D27">
-        <v>11.4660177230835</v>
+        <v>11.19562244415283</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>5.169766426086426</v>
+        <v>3.343649864196777</v>
       </c>
       <c r="B28">
-        <v>123.6029968261719</v>
+        <v>122.3618316650391</v>
       </c>
       <c r="C28">
-        <v>304.0292663574219</v>
+        <v>88.63401794433594</v>
       </c>
       <c r="D28">
-        <v>11.46663951873779</v>
+        <v>11.19588375091553</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>5.17350959777832</v>
+        <v>3.342886686325073</v>
       </c>
       <c r="B29">
-        <v>123.5994567871094</v>
+        <v>122.3634338378906</v>
       </c>
       <c r="C29">
-        <v>304.0296630859375</v>
+        <v>88.64041900634766</v>
       </c>
       <c r="D29">
-        <v>11.46726226806641</v>
+        <v>11.19614505767822</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>5.177260875701904</v>
+        <v>3.342127323150635</v>
       </c>
       <c r="B30">
-        <v>123.5959243774414</v>
+        <v>122.3650283813477</v>
       </c>
       <c r="C30">
-        <v>304.0300598144531</v>
+        <v>88.64686584472656</v>
       </c>
       <c r="D30">
-        <v>11.46788597106934</v>
+        <v>11.19640731811523</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>5.181020736694336</v>
+        <v>3.341371774673462</v>
       </c>
       <c r="B31">
-        <v>123.5923919677734</v>
+        <v>122.3666000366211</v>
       </c>
       <c r="C31">
-        <v>304.0304870605469</v>
+        <v>88.6533203125</v>
       </c>
       <c r="D31">
-        <v>11.46851062774658</v>
+        <v>11.19666767120361</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>5.184788703918457</v>
+        <v>3.340620040893555</v>
       </c>
       <c r="B32">
-        <v>123.5888671875</v>
+        <v>122.3681640625</v>
       </c>
       <c r="C32">
-        <v>304.0308837890625</v>
+        <v>88.65978240966797</v>
       </c>
       <c r="D32">
-        <v>11.46913528442383</v>
+        <v>11.19692993164062</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>5.188564777374268</v>
+        <v>3.339871406555176</v>
       </c>
       <c r="B33">
-        <v>123.5853576660156</v>
+        <v>122.3696975708008</v>
       </c>
       <c r="C33">
-        <v>304.0312805175781</v>
+        <v>88.66623687744141</v>
       </c>
       <c r="D33">
-        <v>11.46976184844971</v>
+        <v>11.19719219207764</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>5.192348957061768</v>
+        <v>3.339126825332642</v>
       </c>
       <c r="B34">
-        <v>123.5818405151367</v>
+        <v>122.3712310791016</v>
       </c>
       <c r="C34">
-        <v>304.0317077636719</v>
+        <v>88.67271423339844</v>
       </c>
       <c r="D34">
-        <v>11.47038841247559</v>
+        <v>11.19745445251465</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>5.196141242980957</v>
+        <v>3.338385820388794</v>
       </c>
       <c r="B35">
-        <v>123.5783386230469</v>
+        <v>122.3727416992188</v>
       </c>
       <c r="C35">
-        <v>304.0321044921875</v>
+        <v>88.67921447753906</v>
       </c>
       <c r="D35">
-        <v>11.4710168838501</v>
+        <v>11.19771766662598</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>5.199941635131836</v>
+        <v>3.337648391723633</v>
       </c>
       <c r="B36">
-        <v>123.574836730957</v>
+        <v>122.3742370605469</v>
       </c>
       <c r="C36">
-        <v>304.0325317382812</v>
+        <v>88.68571472167969</v>
       </c>
       <c r="D36">
-        <v>11.47164535522461</v>
+        <v>11.19797897338867</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>5.203749179840088</v>
+        <v>3.336914539337158</v>
       </c>
       <c r="B37">
-        <v>123.5713348388672</v>
+        <v>122.3757247924805</v>
       </c>
       <c r="C37">
-        <v>304.0329284667969</v>
+        <v>88.69223785400391</v>
       </c>
       <c r="D37">
-        <v>11.47227478027344</v>
+        <v>11.19824123382568</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>5.207564830780029</v>
+        <v>3.33618426322937</v>
       </c>
       <c r="B38">
-        <v>123.5678482055664</v>
+        <v>122.3771896362305</v>
       </c>
       <c r="C38">
-        <v>304.0333557128906</v>
+        <v>88.69878387451172</v>
       </c>
       <c r="D38">
-        <v>11.47290515899658</v>
+        <v>11.19850444793701</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>5.21138858795166</v>
+        <v>3.335457801818848</v>
       </c>
       <c r="B39">
-        <v>123.5643615722656</v>
+        <v>122.3786468505859</v>
       </c>
       <c r="C39">
-        <v>304.0337829589844</v>
+        <v>88.70535278320312</v>
       </c>
       <c r="D39">
-        <v>11.47353649139404</v>
+        <v>11.19876670837402</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>5.215219974517822</v>
+        <v>3.334734678268433</v>
       </c>
       <c r="B40">
-        <v>123.5608825683594</v>
+        <v>122.3800888061523</v>
       </c>
       <c r="C40">
-        <v>304.0341796875</v>
+        <v>88.71192932128906</v>
       </c>
       <c r="D40">
-        <v>11.4741678237915</v>
+        <v>11.19902992248535</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>5.219058990478516</v>
+        <v>3.334014892578125</v>
       </c>
       <c r="B41">
-        <v>123.5574111938477</v>
+        <v>122.3815231323242</v>
       </c>
       <c r="C41">
-        <v>304.0346069335938</v>
+        <v>88.71851348876953</v>
       </c>
       <c r="D41">
-        <v>11.4748010635376</v>
+        <v>11.19929313659668</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>5.222905158996582</v>
+        <v>3.333298683166504</v>
       </c>
       <c r="B42">
-        <v>123.5539398193359</v>
+        <v>122.3829345703125</v>
       </c>
       <c r="C42">
-        <v>304.0350341796875</v>
+        <v>88.72512817382812</v>
       </c>
       <c r="D42">
-        <v>11.47543525695801</v>
+        <v>11.19955635070801</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>5.22675895690918</v>
+        <v>3.332586526870728</v>
       </c>
       <c r="B43">
-        <v>123.5504684448242</v>
+        <v>122.3843307495117</v>
       </c>
       <c r="C43">
-        <v>304.0354614257812</v>
+        <v>88.73175811767578</v>
       </c>
       <c r="D43">
-        <v>11.47606945037842</v>
+        <v>11.19981861114502</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>5.23061990737915</v>
+        <v>3.3318772315979</v>
       </c>
       <c r="B44">
-        <v>123.5470123291016</v>
+        <v>122.3857269287109</v>
       </c>
       <c r="C44">
-        <v>304.035888671875</v>
+        <v>88.73841857910156</v>
       </c>
       <c r="D44">
-        <v>11.47670555114746</v>
+        <v>11.20008182525635</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>5.234488487243652</v>
+        <v>3.331171751022339</v>
       </c>
       <c r="B45">
-        <v>123.5435638427734</v>
+        <v>122.3871078491211</v>
       </c>
       <c r="C45">
-        <v>304.0363159179688</v>
+        <v>88.74510192871094</v>
       </c>
       <c r="D45">
-        <v>11.4773416519165</v>
+        <v>11.20034503936768</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>5.238364219665527</v>
+        <v>3.330469369888306</v>
       </c>
       <c r="B46">
-        <v>123.5401077270508</v>
+        <v>122.3884735107422</v>
       </c>
       <c r="C46">
-        <v>304.0367431640625</v>
+        <v>88.75177764892578</v>
       </c>
       <c r="D46">
-        <v>11.47797966003418</v>
+        <v>11.200608253479</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>5.242247104644775</v>
+        <v>3.329771041870117</v>
       </c>
       <c r="B47">
-        <v>123.5366592407227</v>
+        <v>122.3898239135742</v>
       </c>
       <c r="C47">
-        <v>304.0371704101562</v>
+        <v>88.75851440429688</v>
       </c>
       <c r="D47">
-        <v>11.47861766815186</v>
+        <v>11.20087146759033</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>5.246138095855713</v>
+        <v>3.329075813293457</v>
       </c>
       <c r="B48">
-        <v>123.5332183837891</v>
+        <v>122.3911666870117</v>
       </c>
       <c r="C48">
-        <v>304.03759765625</v>
+        <v>88.76525115966797</v>
       </c>
       <c r="D48">
-        <v>11.47925662994385</v>
+        <v>11.20113563537598</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>5.250034809112549</v>
+        <v>3.328383684158325</v>
       </c>
       <c r="B49">
-        <v>123.5297775268555</v>
+        <v>122.3924942016602</v>
       </c>
       <c r="C49">
-        <v>304.0380249023438</v>
+        <v>88.77201080322266</v>
       </c>
       <c r="D49">
-        <v>11.47989749908447</v>
+        <v>11.20139980316162</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>5.253939151763916</v>
+        <v>3.32769513130188</v>
       </c>
       <c r="B50">
-        <v>123.5263442993164</v>
+        <v>122.3938140869141</v>
       </c>
       <c r="C50">
-        <v>304.0384826660156</v>
+        <v>88.77880096435547</v>
       </c>
       <c r="D50">
-        <v>11.4805383682251</v>
+        <v>11.20166301727295</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>5.257850170135498</v>
+        <v>3.327010631561279</v>
       </c>
       <c r="B51">
-        <v>123.5229187011719</v>
+        <v>122.395133972168</v>
       </c>
       <c r="C51">
-        <v>304.0389099121094</v>
+        <v>88.78561401367188</v>
       </c>
       <c r="D51">
-        <v>11.48118019104004</v>
+        <v>11.20192623138428</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>5.261768341064453</v>
+        <v>3.326328754425049</v>
       </c>
       <c r="B52">
-        <v>123.5194931030273</v>
+        <v>122.3964309692383</v>
       </c>
       <c r="C52">
-        <v>304.0393371582031</v>
+        <v>88.79244995117188</v>
       </c>
       <c r="D52">
-        <v>11.4818229675293</v>
+        <v>11.20218944549561</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>5.265692710876465</v>
+        <v>3.325650691986084</v>
       </c>
       <c r="B53">
-        <v>123.5160751342773</v>
+        <v>122.3977127075195</v>
       </c>
       <c r="C53">
-        <v>304.0397644042969</v>
+        <v>88.79931640625</v>
       </c>
       <c r="D53">
-        <v>11.48246765136719</v>
+        <v>11.20245361328125</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>5.26962423324585</v>
+        <v>3.324975728988647</v>
       </c>
       <c r="B54">
-        <v>123.5126571655273</v>
+        <v>122.3989868164062</v>
       </c>
       <c r="C54">
-        <v>304.0402221679688</v>
+        <v>88.80621337890625</v>
       </c>
       <c r="D54">
-        <v>11.48311233520508</v>
+        <v>11.20271682739258</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>5.273562431335449</v>
+        <v>3.324304103851318</v>
       </c>
       <c r="B55">
-        <v>123.5092468261719</v>
+        <v>122.400260925293</v>
       </c>
       <c r="C55">
-        <v>304.0406494140625</v>
+        <v>88.81313323974609</v>
       </c>
       <c r="D55">
-        <v>11.48375797271729</v>
+        <v>11.20298099517822</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>5.277507305145264</v>
+        <v>3.323635578155518</v>
       </c>
       <c r="B56">
-        <v>123.5058364868164</v>
+        <v>122.4015121459961</v>
       </c>
       <c r="C56">
-        <v>304.0411071777344</v>
+        <v>88.82007598876953</v>
       </c>
       <c r="D56">
-        <v>11.48440456390381</v>
+        <v>11.20324420928955</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>5.281458377838135</v>
+        <v>3.322970867156982</v>
       </c>
       <c r="B57">
-        <v>123.5024337768555</v>
+        <v>122.4027557373047</v>
       </c>
       <c r="C57">
-        <v>304.0415344238281</v>
+        <v>88.82705688476562</v>
       </c>
       <c r="D57">
-        <v>11.48505210876465</v>
+        <v>11.20350742340088</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>5.285415649414062</v>
+        <v>3.322309017181396</v>
       </c>
       <c r="B58">
-        <v>123.4990310668945</v>
+        <v>122.4039993286133</v>
       </c>
       <c r="C58">
-        <v>304.0419921875</v>
+        <v>88.83404541015625</v>
       </c>
       <c r="D58">
-        <v>11.4857006072998</v>
+        <v>11.20377159118652</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>5.289379596710205</v>
+        <v>3.321650743484497</v>
       </c>
       <c r="B59">
-        <v>123.4956359863281</v>
+        <v>122.4052276611328</v>
       </c>
       <c r="C59">
-        <v>304.0424194335938</v>
+        <v>88.84107971191406</v>
       </c>
       <c r="D59">
-        <v>11.48635005950928</v>
+        <v>11.20403480529785</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>5.293349266052246</v>
+        <v>3.320995569229126</v>
       </c>
       <c r="B60">
-        <v>123.4922409057617</v>
+        <v>122.4064407348633</v>
       </c>
       <c r="C60">
-        <v>304.0428771972656</v>
+        <v>88.84814453125</v>
       </c>
       <c r="D60">
-        <v>11.48700141906738</v>
+        <v>11.2042989730835</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>5.297325611114502</v>
+        <v>3.320343971252441</v>
       </c>
       <c r="B61">
-        <v>123.4888534545898</v>
+        <v>122.4076461791992</v>
       </c>
       <c r="C61">
-        <v>304.0433349609375</v>
+        <v>88.85524749755859</v>
       </c>
       <c r="D61">
-        <v>11.48765277862549</v>
+        <v>11.20456218719482</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>5.301307678222656</v>
+        <v>3.319695234298706</v>
       </c>
       <c r="B62">
-        <v>123.485466003418</v>
+        <v>122.4088516235352</v>
       </c>
       <c r="C62">
-        <v>304.0437927246094</v>
+        <v>88.86235809326172</v>
       </c>
       <c r="D62">
-        <v>11.48830509185791</v>
+        <v>11.20482540130615</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>5.305295944213867</v>
+        <v>3.319049835205078</v>
       </c>
       <c r="B63">
-        <v>123.4820861816406</v>
+        <v>122.410041809082</v>
       </c>
       <c r="C63">
-        <v>304.0442199707031</v>
+        <v>88.86953735351562</v>
       </c>
       <c r="D63">
-        <v>11.48895835876465</v>
+        <v>11.20508861541748</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>5.309290885925293</v>
+        <v>3.318407773971558</v>
       </c>
       <c r="B64">
-        <v>123.4787063598633</v>
+        <v>122.4112167358398</v>
       </c>
       <c r="C64">
-        <v>304.044677734375</v>
+        <v>88.87670135498047</v>
       </c>
       <c r="D64">
-        <v>11.4896125793457</v>
+        <v>11.20535278320312</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>5.313291072845459</v>
+        <v>3.317768812179565</v>
       </c>
       <c r="B65">
-        <v>123.4753341674805</v>
+        <v>122.4123992919922</v>
       </c>
       <c r="C65">
-        <v>304.0451354980469</v>
+        <v>88.88394165039062</v>
       </c>
       <c r="D65">
-        <v>11.49026870727539</v>
+        <v>11.20561599731445</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>5.317296981811523</v>
+        <v>3.317132949829102</v>
       </c>
       <c r="B66">
-        <v>123.4719619750977</v>
+        <v>122.4135589599609</v>
       </c>
       <c r="C66">
-        <v>304.0455932617188</v>
+        <v>88.89117431640625</v>
       </c>
       <c r="D66">
-        <v>11.49092483520508</v>
+        <v>11.20587921142578</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>5.321308612823486</v>
+        <v>3.316500425338745</v>
       </c>
       <c r="B67">
-        <v>123.4685821533203</v>
+        <v>122.4147186279297</v>
       </c>
       <c r="C67">
-        <v>304.0460510253906</v>
+        <v>88.89846801757812</v>
       </c>
       <c r="D67">
-        <v>11.4915828704834</v>
+        <v>11.20614242553711</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>5.325325965881348</v>
+        <v>3.315870761871338</v>
       </c>
       <c r="B68">
-        <v>123.465217590332</v>
+        <v>122.4158706665039</v>
       </c>
       <c r="C68">
-        <v>304.0465087890625</v>
+        <v>88.90577697753906</v>
       </c>
       <c r="D68">
-        <v>11.49224090576172</v>
+        <v>11.20640563964844</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>5.329349040985107</v>
+        <v>3.315244436264038</v>
       </c>
       <c r="B69">
-        <v>123.4618530273438</v>
+        <v>122.4170074462891</v>
       </c>
       <c r="C69">
-        <v>304.0469665527344</v>
+        <v>88.91312408447266</v>
       </c>
       <c r="D69">
-        <v>11.49289989471436</v>
+        <v>11.20666885375977</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>5.333377838134766</v>
+        <v>3.314621210098267</v>
       </c>
       <c r="B70">
-        <v>123.45849609375</v>
+        <v>122.4181442260742</v>
       </c>
       <c r="C70">
-        <v>304.0474243164062</v>
+        <v>88.92050933837891</v>
       </c>
       <c r="D70">
-        <v>11.49356079101562</v>
+        <v>11.20693206787109</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>5.337411880493164</v>
+        <v>3.314001083374023</v>
       </c>
       <c r="B71">
-        <v>123.4551391601562</v>
+        <v>122.4192657470703</v>
       </c>
       <c r="C71">
-        <v>304.0478820800781</v>
+        <v>88.92791748046875</v>
       </c>
       <c r="D71">
-        <v>11.49422264099121</v>
+        <v>11.20719528198242</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>5.341450691223145</v>
+        <v>3.313384532928467</v>
       </c>
       <c r="B72">
-        <v>123.451774597168</v>
+        <v>122.4203872680664</v>
       </c>
       <c r="C72">
-        <v>304.04833984375</v>
+        <v>88.93538665771484</v>
       </c>
       <c r="D72">
-        <v>11.4948844909668</v>
+        <v>11.20745849609375</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>5.345495223999023</v>
+        <v>3.312770366668701</v>
       </c>
       <c r="B73">
-        <v>123.4484252929688</v>
+        <v>122.421501159668</v>
       </c>
       <c r="C73">
-        <v>304.0487976074219</v>
+        <v>88.94285583496094</v>
       </c>
       <c r="D73">
-        <v>11.49554824829102</v>
+        <v>11.20772266387939</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>5.349545478820801</v>
+        <v>3.312159776687622</v>
       </c>
       <c r="B74">
-        <v>123.4450759887695</v>
+        <v>122.4225997924805</v>
       </c>
       <c r="C74">
-        <v>304.0492553710938</v>
+        <v>88.95040893554688</v>
       </c>
       <c r="D74">
-        <v>11.49621295928955</v>
+        <v>11.20798397064209</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>5.35360050201416</v>
+        <v>3.311552047729492</v>
       </c>
       <c r="B75">
-        <v>123.4417343139648</v>
+        <v>122.4236907958984</v>
       </c>
       <c r="C75">
-        <v>304.0497436523438</v>
+        <v>88.95793914794922</v>
       </c>
       <c r="D75">
-        <v>11.4968786239624</v>
+        <v>11.20824718475342</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>5.35766077041626</v>
+        <v>3.310947418212891</v>
       </c>
       <c r="B76">
-        <v>123.4383773803711</v>
+        <v>122.4247894287109</v>
       </c>
       <c r="C76">
-        <v>304.0502014160156</v>
+        <v>88.96556091308594</v>
       </c>
       <c r="D76">
-        <v>11.49754428863525</v>
+        <v>11.20851135253906</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>5.361724853515625</v>
+        <v>3.31034517288208</v>
       </c>
       <c r="B77">
-        <v>123.4350433349609</v>
+        <v>122.4258728027344</v>
       </c>
       <c r="C77">
-        <v>304.0506591796875</v>
+        <v>88.97316741943359</v>
       </c>
       <c r="D77">
-        <v>11.49821186065674</v>
+        <v>11.20877265930176</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>5.365795135498047</v>
+        <v>3.309746980667114</v>
       </c>
       <c r="B78">
-        <v>123.4317016601562</v>
+        <v>122.4269485473633</v>
       </c>
       <c r="C78">
-        <v>304.0511474609375</v>
+        <v>88.9808349609375</v>
       </c>
       <c r="D78">
-        <v>11.49888038635254</v>
+        <v>11.20903587341309</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>5.369870185852051</v>
+        <v>3.309151172637939</v>
       </c>
       <c r="B79">
-        <v>123.4283676147461</v>
+        <v>122.4280166625977</v>
       </c>
       <c r="C79">
-        <v>304.0516052246094</v>
+        <v>88.988525390625</v>
       </c>
       <c r="D79">
-        <v>11.49955081939697</v>
+        <v>11.2092981338501</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>5.373949527740479</v>
+        <v>3.308558702468872</v>
       </c>
       <c r="B80">
-        <v>123.4250259399414</v>
+        <v>122.429084777832</v>
       </c>
       <c r="C80">
-        <v>304.0520629882812</v>
+        <v>88.99628448486328</v>
       </c>
       <c r="D80">
-        <v>11.50022125244141</v>
+        <v>11.20956039428711</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>5.378034114837646</v>
+        <v>3.307969093322754</v>
       </c>
       <c r="B81">
-        <v>123.4216918945312</v>
+        <v>122.4301452636719</v>
       </c>
       <c r="C81">
-        <v>304.0525512695312</v>
+        <v>89.00405120849609</v>
       </c>
       <c r="D81">
-        <v>11.50089263916016</v>
+        <v>11.20982360839844</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>5.382122039794922</v>
+        <v>3.307382345199585</v>
       </c>
       <c r="B82">
-        <v>123.4183654785156</v>
+        <v>122.4311904907227</v>
       </c>
       <c r="C82">
-        <v>304.0530090332031</v>
+        <v>89.01186370849609</v>
       </c>
       <c r="D82">
-        <v>11.50156593322754</v>
+        <v>11.21008586883545</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>5.386215686798096</v>
+        <v>3.306798458099365</v>
       </c>
       <c r="B83">
-        <v>123.4150238037109</v>
+        <v>122.4322357177734</v>
       </c>
       <c r="C83">
-        <v>304.0534973144531</v>
+        <v>89.01970672607422</v>
       </c>
       <c r="D83">
-        <v>11.50223922729492</v>
+        <v>11.21034717559814</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>5.390313148498535</v>
+        <v>3.306218147277832</v>
       </c>
       <c r="B84">
-        <v>123.4116973876953</v>
+        <v>122.4332809448242</v>
       </c>
       <c r="C84">
-        <v>304.053955078125</v>
+        <v>89.02761077880859</v>
       </c>
       <c r="D84">
-        <v>11.50291442871094</v>
+        <v>11.21060943603516</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>5.394415378570557</v>
+        <v>3.30564022064209</v>
       </c>
       <c r="B85">
-        <v>123.4083786010742</v>
+        <v>122.4343109130859</v>
       </c>
       <c r="C85">
-        <v>304.054443359375</v>
+        <v>89.03553009033203</v>
       </c>
       <c r="D85">
-        <v>11.50359058380127</v>
+        <v>11.21087169647217</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>5.398521900177002</v>
+        <v>3.305065393447876</v>
       </c>
       <c r="B86">
-        <v>123.4050445556641</v>
+        <v>122.4353408813477</v>
       </c>
       <c r="C86">
-        <v>304.054931640625</v>
+        <v>89.04350280761719</v>
       </c>
       <c r="D86">
-        <v>11.50426769256592</v>
+        <v>11.21113395690918</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>5.402632713317871</v>
+        <v>3.304493188858032</v>
       </c>
       <c r="B87">
-        <v>123.401725769043</v>
+        <v>122.4363632202148</v>
       </c>
       <c r="C87">
-        <v>304.0553894042969</v>
+        <v>89.05149841308594</v>
       </c>
       <c r="D87">
-        <v>11.50494575500488</v>
+        <v>11.21139526367188</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>5.406746864318848</v>
+        <v>3.303924322128296</v>
       </c>
       <c r="B88">
-        <v>123.3984069824219</v>
+        <v>122.4373779296875</v>
       </c>
       <c r="C88">
-        <v>304.0558776855469</v>
+        <v>89.05953979492188</v>
       </c>
       <c r="D88">
-        <v>11.50562477111816</v>
+        <v>11.21165657043457</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>5.410865783691406</v>
+        <v>3.30335807800293</v>
       </c>
       <c r="B89">
-        <v>123.3950805664062</v>
+        <v>122.4383926391602</v>
       </c>
       <c r="C89">
-        <v>304.0563659667969</v>
+        <v>89.06761932373047</v>
       </c>
       <c r="D89">
-        <v>11.50630474090576</v>
+        <v>11.21191787719727</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>5.41498851776123</v>
+        <v>3.302794694900513</v>
       </c>
       <c r="B90">
-        <v>123.3917617797852</v>
+        <v>122.4393997192383</v>
       </c>
       <c r="C90">
-        <v>304.0568237304688</v>
+        <v>89.07575225830078</v>
       </c>
       <c r="D90">
-        <v>11.50698566436768</v>
+        <v>11.21218013763428</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>5.419114589691162</v>
+        <v>3.302233934402466</v>
       </c>
       <c r="B91">
-        <v>123.3884429931641</v>
+        <v>122.4403991699219</v>
       </c>
       <c r="C91">
-        <v>304.0573120117188</v>
+        <v>89.08388519287109</v>
       </c>
       <c r="D91">
-        <v>11.50766849517822</v>
+        <v>11.21244049072266</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>5.423245429992676</v>
+        <v>3.301676750183105</v>
       </c>
       <c r="B92">
-        <v>123.3851318359375</v>
+        <v>122.4413986206055</v>
       </c>
       <c r="C92">
-        <v>304.0578002929688</v>
+        <v>89.09210205078125</v>
       </c>
       <c r="D92">
-        <v>11.50835227966309</v>
+        <v>11.21270179748535</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>5.427379608154297</v>
+        <v>3.301121473312378</v>
       </c>
       <c r="B93">
-        <v>123.3818206787109</v>
+        <v>122.4423904418945</v>
       </c>
       <c r="C93">
-        <v>304.0582885742188</v>
+        <v>89.10032653808594</v>
       </c>
       <c r="D93">
-        <v>11.50903606414795</v>
+        <v>11.21296215057373</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>5.431517601013184</v>
+        <v>3.300570011138916</v>
       </c>
       <c r="B94">
-        <v>123.3785018920898</v>
+        <v>122.4433746337891</v>
       </c>
       <c r="C94">
-        <v>304.0587768554688</v>
+        <v>89.10863494873047</v>
       </c>
       <c r="D94">
-        <v>11.50972175598145</v>
+        <v>11.21322441101074</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>5.435659408569336</v>
+        <v>3.300020456314087</v>
       </c>
       <c r="B95">
-        <v>123.3751907348633</v>
+        <v>122.4443588256836</v>
       </c>
       <c r="C95">
-        <v>304.0592651367188</v>
+        <v>89.11691284179688</v>
       </c>
       <c r="D95">
-        <v>11.51040840148926</v>
+        <v>11.21348476409912</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>5.439804077148438</v>
+        <v>3.299474477767944</v>
       </c>
       <c r="B96">
-        <v>123.3718719482422</v>
+        <v>122.4453277587891</v>
       </c>
       <c r="C96">
-        <v>304.0597229003906</v>
+        <v>89.12527465820312</v>
       </c>
       <c r="D96">
-        <v>11.51109600067139</v>
+        <v>11.2137451171875</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>5.443952083587646</v>
+        <v>3.298930644989014</v>
       </c>
       <c r="B97">
-        <v>123.3685684204102</v>
+        <v>122.4463043212891</v>
       </c>
       <c r="C97">
-        <v>304.0602111816406</v>
+        <v>89.13365936279297</v>
       </c>
       <c r="D97">
-        <v>11.51178550720215</v>
+        <v>11.21400451660156</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>5.448104381561279</v>
+        <v>3.298389911651611</v>
       </c>
       <c r="B98">
-        <v>123.3652572631836</v>
+        <v>122.4472732543945</v>
       </c>
       <c r="C98">
-        <v>304.0606994628906</v>
+        <v>89.14211273193359</v>
       </c>
       <c r="D98">
-        <v>11.51247501373291</v>
+        <v>11.21426582336426</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>5.452259063720703</v>
+        <v>3.297851800918579</v>
       </c>
       <c r="B99">
-        <v>123.361946105957</v>
+        <v>122.4482345581055</v>
       </c>
       <c r="C99">
-        <v>304.0611877441406</v>
+        <v>89.15057373046875</v>
       </c>
       <c r="D99">
-        <v>11.5131664276123</v>
+        <v>11.21452617645264</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>5.456417083740234</v>
+        <v>3.297316551208496</v>
       </c>
       <c r="B100">
-        <v>123.3586349487305</v>
+        <v>122.4491958618164</v>
       </c>
       <c r="C100">
-        <v>304.0616760253906</v>
+        <v>89.15909576416016</v>
       </c>
       <c r="D100">
-        <v>11.51385879516602</v>
+        <v>11.2147855758667</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>5.460578918457031</v>
+        <v>3.296784400939941</v>
       </c>
       <c r="B101">
-        <v>123.3553237915039</v>
+        <v>122.4501495361328</v>
       </c>
       <c r="C101">
-        <v>304.0621643066406</v>
+        <v>89.16765594482422</v>
       </c>
       <c r="D101">
-        <v>11.51455116271973</v>
+        <v>11.21504497528076</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>5.464743137359619</v>
+        <v>3.296254396438599</v>
       </c>
       <c r="B102">
-        <v>123.3520202636719</v>
+        <v>122.4511032104492</v>
       </c>
       <c r="C102">
-        <v>304.0626831054688</v>
+        <v>89.17623901367188</v>
       </c>
       <c r="D102">
-        <v>11.51524639129639</v>
+        <v>11.21530532836914</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>5.468910217285156</v>
+        <v>3.295727252960205</v>
       </c>
       <c r="B103">
-        <v>123.3487167358398</v>
+        <v>122.4520492553711</v>
       </c>
       <c r="C103">
-        <v>304.0631713867188</v>
+        <v>89.18489074707031</v>
       </c>
       <c r="D103">
-        <v>11.51594161987305</v>
+        <v>11.2155647277832</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>5.473080635070801</v>
+        <v>3.295202493667603</v>
       </c>
       <c r="B104">
-        <v>123.3454055786133</v>
+        <v>122.452995300293</v>
       </c>
       <c r="C104">
-        <v>304.0636596679688</v>
+        <v>89.19354248046875</v>
       </c>
       <c r="D104">
-        <v>11.51663780212402</v>
+        <v>11.21582412719727</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>5.477254390716553</v>
+        <v>3.294681310653687</v>
       </c>
       <c r="B105">
-        <v>123.3421020507812</v>
+        <v>122.4539337158203</v>
       </c>
       <c r="C105">
-        <v>304.0641479492188</v>
+        <v>89.20227813720703</v>
       </c>
       <c r="D105">
-        <v>11.51733589172363</v>
+        <v>11.21608352661133</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>5.481429576873779</v>
+        <v>3.294162034988403</v>
       </c>
       <c r="B106">
-        <v>123.3387908935547</v>
+        <v>122.4548645019531</v>
       </c>
       <c r="C106">
-        <v>304.0646362304688</v>
+        <v>89.21102142333984</v>
       </c>
       <c r="D106">
-        <v>11.51803398132324</v>
+        <v>11.21634197235107</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>5.485608100891113</v>
+        <v>3.293645620346069</v>
       </c>
       <c r="B107">
-        <v>123.3354873657227</v>
+        <v>122.4557952880859</v>
       </c>
       <c r="C107">
-        <v>304.0651245117188</v>
+        <v>89.21981811523438</v>
       </c>
       <c r="D107">
-        <v>11.51873397827148</v>
+        <v>11.21660137176514</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>5.489789009094238</v>
+        <v>3.293131828308105</v>
       </c>
       <c r="B108">
-        <v>123.3321762084961</v>
+        <v>122.4567337036133</v>
       </c>
       <c r="C108">
-        <v>304.0656433105469</v>
+        <v>89.22865295410156</v>
       </c>
       <c r="D108">
-        <v>11.51943492889404</v>
+        <v>11.2168607711792</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>5.493972301483154</v>
+        <v>3.29262113571167</v>
       </c>
       <c r="B109">
-        <v>123.3288803100586</v>
+        <v>122.4576568603516</v>
       </c>
       <c r="C109">
-        <v>304.0661315917969</v>
+        <v>89.23753356933594</v>
       </c>
       <c r="D109">
-        <v>11.52013778686523</v>
+        <v>11.21711826324463</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>5.498158931732178</v>
+        <v>3.292112350463867</v>
       </c>
       <c r="B110">
-        <v>123.3255767822266</v>
+        <v>122.4585723876953</v>
       </c>
       <c r="C110">
-        <v>304.0666198730469</v>
+        <v>89.24643707275391</v>
       </c>
       <c r="D110">
-        <v>11.52084064483643</v>
+        <v>11.21737670898438</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>5.502346992492676</v>
+        <v>3.291606664657593</v>
       </c>
       <c r="B111">
-        <v>123.322265625</v>
+        <v>122.4594955444336</v>
       </c>
       <c r="C111">
-        <v>304.0671081542969</v>
+        <v>89.25540924072266</v>
       </c>
       <c r="D111">
-        <v>11.52154541015625</v>
+        <v>11.2176342010498</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>5.506537914276123</v>
+        <v>3.291103601455688</v>
       </c>
       <c r="B112">
-        <v>123.318962097168</v>
+        <v>122.4604034423828</v>
       </c>
       <c r="C112">
-        <v>304.067626953125</v>
+        <v>89.26439666748047</v>
       </c>
       <c r="D112">
-        <v>11.52225017547607</v>
+        <v>11.21789264678955</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>5.510730266571045</v>
+        <v>3.290603160858154</v>
       </c>
       <c r="B113">
-        <v>123.3156509399414</v>
+        <v>122.461311340332</v>
       </c>
       <c r="C113">
-        <v>304.068115234375</v>
+        <v>89.27345275878906</v>
       </c>
       <c r="D113">
-        <v>11.52295684814453</v>
+        <v>11.21815013885498</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>5.514925479888916</v>
+        <v>3.290105104446411</v>
       </c>
       <c r="B114">
-        <v>123.3123474121094</v>
+        <v>122.4622192382812</v>
       </c>
       <c r="C114">
-        <v>304.0686340332031</v>
+        <v>89.28253173828125</v>
       </c>
       <c r="D114">
-        <v>11.5236644744873</v>
+        <v>11.21840858459473</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>5.519122123718262</v>
+        <v>3.289609670639038</v>
       </c>
       <c r="B115">
-        <v>123.3090362548828</v>
+        <v>122.4631271362305</v>
       </c>
       <c r="C115">
-        <v>304.0691223144531</v>
+        <v>89.29164886474609</v>
       </c>
       <c r="D115">
-        <v>11.52437400817871</v>
+        <v>11.21866512298584</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>5.523321151733398</v>
+        <v>3.289116859436035</v>
       </c>
       <c r="B116">
-        <v>123.3057327270508</v>
+        <v>122.4640274047852</v>
       </c>
       <c r="C116">
-        <v>304.0696105957031</v>
+        <v>89.30080413818359</v>
       </c>
       <c r="D116">
-        <v>11.52508354187012</v>
+        <v>11.21892356872559</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>5.527522087097168</v>
+        <v>3.288626670837402</v>
       </c>
       <c r="B117">
-        <v>123.3024291992188</v>
+        <v>122.4649276733398</v>
       </c>
       <c r="C117">
-        <v>304.0701293945312</v>
+        <v>89.31002807617188</v>
       </c>
       <c r="D117">
-        <v>11.52579498291016</v>
+        <v>11.2191801071167</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>5.53172492980957</v>
+        <v>3.288138866424561</v>
       </c>
       <c r="B118">
-        <v>123.2991180419922</v>
+        <v>122.4658126831055</v>
       </c>
       <c r="C118">
-        <v>304.0706176757812</v>
+        <v>89.31924438476562</v>
       </c>
       <c r="D118">
-        <v>11.52650737762451</v>
+        <v>11.21943664550781</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>5.535928726196289</v>
+        <v>3.287653684616089</v>
       </c>
       <c r="B119">
-        <v>123.2958068847656</v>
+        <v>122.4667129516602</v>
       </c>
       <c r="C119">
-        <v>304.0711364746094</v>
+        <v>89.32854461669922</v>
       </c>
       <c r="D119">
-        <v>11.52722072601318</v>
+        <v>11.21969318389893</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>5.540135383605957</v>
+        <v>3.287171125411987</v>
       </c>
       <c r="B120">
-        <v>123.2924957275391</v>
+        <v>122.4676055908203</v>
       </c>
       <c r="C120">
-        <v>304.0716247558594</v>
+        <v>89.33786010742188</v>
       </c>
       <c r="D120">
-        <v>11.52793502807617</v>
+        <v>11.21994972229004</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>5.544342994689941</v>
+        <v>3.286690950393677</v>
       </c>
       <c r="B121">
-        <v>123.289192199707</v>
+        <v>122.4684829711914</v>
       </c>
       <c r="C121">
-        <v>304.0721435546875</v>
+        <v>89.34723663330078</v>
       </c>
       <c r="D121">
-        <v>11.52865028381348</v>
+        <v>11.22020721435547</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>5.5485520362854</v>
+        <v>3.286213159561157</v>
       </c>
       <c r="B122">
-        <v>123.2858810424805</v>
+        <v>122.469367980957</v>
       </c>
       <c r="C122">
-        <v>304.0726318359375</v>
+        <v>89.35661315917969</v>
       </c>
       <c r="D122">
-        <v>11.52936744689941</v>
+        <v>11.22046375274658</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>5.552762508392334</v>
+        <v>3.285738229751587</v>
       </c>
       <c r="B123">
-        <v>123.2825622558594</v>
+        <v>122.4702453613281</v>
       </c>
       <c r="C123">
-        <v>304.0731506347656</v>
+        <v>89.36607360839844</v>
       </c>
       <c r="D123">
-        <v>11.53008556365967</v>
+        <v>11.22071933746338</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>5.556974411010742</v>
+        <v>3.285265445709229</v>
       </c>
       <c r="B124">
-        <v>123.2792587280273</v>
+        <v>122.4711303710938</v>
       </c>
       <c r="C124">
-        <v>304.0736389160156</v>
+        <v>89.37555694580078</v>
       </c>
       <c r="D124">
-        <v>11.53080463409424</v>
+        <v>11.22097396850586</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>5.561187744140625</v>
+        <v>3.28479528427124</v>
       </c>
       <c r="B125">
-        <v>123.2759399414062</v>
+        <v>122.4720001220703</v>
       </c>
       <c r="C125">
-        <v>304.0741577148438</v>
+        <v>89.38510131835938</v>
       </c>
       <c r="D125">
-        <v>11.53152465820312</v>
+        <v>11.22123146057129</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>5.565402507781982</v>
+        <v>3.284327507019043</v>
       </c>
       <c r="B126">
-        <v>123.2726287841797</v>
+        <v>122.4728775024414</v>
       </c>
       <c r="C126">
-        <v>304.0746765136719</v>
+        <v>89.39466094970703</v>
       </c>
       <c r="D126">
-        <v>11.53224563598633</v>
+        <v>11.22148609161377</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>5.569617748260498</v>
+        <v>3.283862352371216</v>
       </c>
       <c r="B127">
-        <v>123.2693099975586</v>
+        <v>122.473747253418</v>
       </c>
       <c r="C127">
-        <v>304.0751647949219</v>
+        <v>89.40425872802734</v>
       </c>
       <c r="D127">
-        <v>11.53296852111816</v>
+        <v>11.22174072265625</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>5.573834896087646</v>
+        <v>3.28339958190918</v>
       </c>
       <c r="B128">
-        <v>123.2659912109375</v>
+        <v>122.474609375</v>
       </c>
       <c r="C128">
-        <v>304.07568359375</v>
+        <v>89.41391754150391</v>
       </c>
       <c r="D128">
-        <v>11.53369235992432</v>
+        <v>11.22199630737305</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>5.578052520751953</v>
+        <v>3.282939434051514</v>
       </c>
       <c r="B129">
-        <v>123.2626724243164</v>
+        <v>122.4754791259766</v>
       </c>
       <c r="C129">
-        <v>304.0762023925781</v>
+        <v>89.42362213134766</v>
       </c>
       <c r="D129">
-        <v>11.53441715240479</v>
+        <v>11.22225093841553</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>5.582271099090576</v>
+        <v>3.28248143196106</v>
       </c>
       <c r="B130">
-        <v>123.2593536376953</v>
+        <v>122.4763412475586</v>
       </c>
       <c r="C130">
-        <v>304.0766906738281</v>
+        <v>89.43333435058594</v>
       </c>
       <c r="D130">
-        <v>11.53514289855957</v>
+        <v>11.22250556945801</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>5.586490631103516</v>
+        <v>3.282025814056396</v>
       </c>
       <c r="B131">
-        <v>123.2560348510742</v>
+        <v>122.4771957397461</v>
       </c>
       <c r="C131">
-        <v>304.0772094726562</v>
+        <v>89.44313049316406</v>
       </c>
       <c r="D131">
-        <v>11.53586959838867</v>
+        <v>11.22275924682617</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>5.590711116790771</v>
+        <v>3.281572580337524</v>
       </c>
       <c r="B132">
-        <v>123.2527160644531</v>
+        <v>122.4780654907227</v>
       </c>
       <c r="C132">
-        <v>304.0777282714844</v>
+        <v>89.45292663574219</v>
       </c>
       <c r="D132">
-        <v>11.53659820556641</v>
+        <v>11.22301387786865</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>5.594931602478027</v>
+        <v>3.281121969223022</v>
       </c>
       <c r="B133">
-        <v>123.249382019043</v>
+        <v>122.4789199829102</v>
       </c>
       <c r="C133">
-        <v>304.0782165527344</v>
+        <v>89.46276092529297</v>
       </c>
       <c r="D133">
-        <v>11.53732776641846</v>
+        <v>11.22326755523682</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>5.5991530418396</v>
+        <v>3.280673742294312</v>
       </c>
       <c r="B134">
-        <v>123.2460632324219</v>
+        <v>122.4797668457031</v>
       </c>
       <c r="C134">
-        <v>304.0787353515625</v>
+        <v>89.47266387939453</v>
       </c>
       <c r="D134">
-        <v>11.53805828094482</v>
+        <v>11.22352123260498</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>5.603375434875488</v>
+        <v>3.280227422714233</v>
       </c>
       <c r="B135">
-        <v>123.2427368164062</v>
+        <v>122.4806213378906</v>
       </c>
       <c r="C135">
-        <v>304.0792541503906</v>
+        <v>89.48258972167969</v>
       </c>
       <c r="D135">
-        <v>11.53878974914551</v>
+        <v>11.22377586364746</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>5.607598304748535</v>
+        <v>3.279784202575684</v>
       </c>
       <c r="B136">
-        <v>123.2394027709961</v>
+        <v>122.4814682006836</v>
       </c>
       <c r="C136">
-        <v>304.0797729492188</v>
+        <v>89.49256896972656</v>
       </c>
       <c r="D136">
-        <v>11.53952217102051</v>
+        <v>11.22402858734131</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>5.61182165145874</v>
+        <v>3.279342651367188</v>
       </c>
       <c r="B137">
-        <v>123.2360763549805</v>
+        <v>122.4823150634766</v>
       </c>
       <c r="C137">
-        <v>304.0802612304688</v>
+        <v>89.50257873535156</v>
       </c>
       <c r="D137">
-        <v>11.54025650024414</v>
+        <v>11.22428131103516</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>5.616044998168945</v>
+        <v>3.278903961181641</v>
       </c>
       <c r="B138">
-        <v>123.2327499389648</v>
+        <v>122.483154296875</v>
       </c>
       <c r="C138">
-        <v>304.0807800292969</v>
+        <v>89.51263427734375</v>
       </c>
       <c r="D138">
-        <v>11.54099082946777</v>
+        <v>11.224534034729</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>5.62026834487915</v>
+        <v>3.278467416763306</v>
       </c>
       <c r="B139">
-        <v>123.2294082641602</v>
+        <v>122.484001159668</v>
       </c>
       <c r="C139">
-        <v>304.081298828125</v>
+        <v>89.52272033691406</v>
       </c>
       <c r="D139">
-        <v>11.54172801971436</v>
+        <v>11.22478675842285</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>5.624492168426514</v>
+        <v>3.278033256530762</v>
       </c>
       <c r="B140">
-        <v>123.22607421875</v>
+        <v>122.4848403930664</v>
       </c>
       <c r="C140">
-        <v>304.0818176269531</v>
+        <v>89.53286743164062</v>
       </c>
       <c r="D140">
-        <v>11.54246520996094</v>
+        <v>11.2250394821167</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>5.628715991973877</v>
+        <v>3.27760124206543</v>
       </c>
       <c r="B141">
-        <v>123.2227401733398</v>
+        <v>122.4856796264648</v>
       </c>
       <c r="C141">
-        <v>304.0823364257812</v>
+        <v>89.54303741455078</v>
       </c>
       <c r="D141">
-        <v>11.54320335388184</v>
+        <v>11.22529220581055</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>5.632940292358398</v>
+        <v>3.277171611785889</v>
       </c>
       <c r="B142">
-        <v>123.2193908691406</v>
+        <v>122.4865188598633</v>
       </c>
       <c r="C142">
-        <v>304.0828247070312</v>
+        <v>89.55325317382812</v>
       </c>
       <c r="D142">
-        <v>11.54394340515137</v>
+        <v>11.22554302215576</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>5.637164115905762</v>
+        <v>3.27674412727356</v>
       </c>
       <c r="B143">
-        <v>123.2160568237305</v>
+        <v>122.4873504638672</v>
       </c>
       <c r="C143">
-        <v>304.0833435058594</v>
+        <v>89.56349945068359</v>
       </c>
       <c r="D143">
-        <v>11.54468441009521</v>
+        <v>11.22579479217529</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>5.641387939453125</v>
+        <v>3.276319265365601</v>
       </c>
       <c r="B144">
-        <v>123.2127151489258</v>
+        <v>122.4881896972656</v>
       </c>
       <c r="C144">
-        <v>304.0838623046875</v>
+        <v>89.57379913330078</v>
       </c>
       <c r="D144">
-        <v>11.54542541503906</v>
+        <v>11.22604656219482</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>5.645612239837646</v>
+        <v>3.275896549224854</v>
       </c>
       <c r="B145">
-        <v>123.2093658447266</v>
+        <v>122.4890213012695</v>
       </c>
       <c r="C145">
-        <v>304.0843811035156</v>
+        <v>89.58412170410156</v>
       </c>
       <c r="D145">
-        <v>11.54616928100586</v>
+        <v>11.22629737854004</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>5.64983606338501</v>
+        <v>3.275476217269897</v>
       </c>
       <c r="B146">
-        <v>123.2060165405273</v>
+        <v>122.4898529052734</v>
       </c>
       <c r="C146">
-        <v>304.0848999023438</v>
+        <v>89.59449005126953</v>
       </c>
       <c r="D146">
-        <v>11.54691314697266</v>
+        <v>11.22654914855957</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>5.654059410095215</v>
+        <v>3.275058031082153</v>
       </c>
       <c r="B147">
-        <v>123.2026672363281</v>
+        <v>122.4906768798828</v>
       </c>
       <c r="C147">
-        <v>304.0854187011719</v>
+        <v>89.60489654541016</v>
       </c>
       <c r="D147">
-        <v>11.54765892028809</v>
+        <v>11.2268009185791</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>5.658282279968262</v>
+        <v>3.274641990661621</v>
       </c>
       <c r="B148">
-        <v>123.1993103027344</v>
+        <v>122.4915008544922</v>
       </c>
       <c r="C148">
-        <v>304.0859375</v>
+        <v>89.61534881591797</v>
       </c>
       <c r="D148">
-        <v>11.54840564727783</v>
+        <v>11.22705078125</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>5.66250467300415</v>
+        <v>3.27422833442688</v>
       </c>
       <c r="B149">
-        <v>123.1959609985352</v>
+        <v>122.4923248291016</v>
       </c>
       <c r="C149">
-        <v>304.0864562988281</v>
+        <v>89.62583923339844</v>
       </c>
       <c r="D149">
-        <v>11.54915332794189</v>
+        <v>11.2273006439209</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>5.666727066040039</v>
+        <v>3.27381706237793</v>
       </c>
       <c r="B150">
-        <v>123.1925964355469</v>
+        <v>122.4931488037109</v>
       </c>
       <c r="C150">
-        <v>304.0869445800781</v>
+        <v>89.63636779785156</v>
       </c>
       <c r="D150">
-        <v>11.54990196228027</v>
+        <v>11.2275505065918</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>5.670948505401611</v>
+        <v>3.273407697677612</v>
       </c>
       <c r="B151">
-        <v>123.1892395019531</v>
+        <v>122.4939727783203</v>
       </c>
       <c r="C151">
-        <v>304.0874633789062</v>
+        <v>89.64693450927734</v>
       </c>
       <c r="D151">
-        <v>11.55065155029297</v>
+        <v>11.22780132293701</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>5.675169944763184</v>
+        <v>3.273000955581665</v>
       </c>
       <c r="B152">
-        <v>123.1858749389648</v>
+        <v>122.4947891235352</v>
       </c>
       <c r="C152">
-        <v>304.0879821777344</v>
+        <v>89.65755462646484</v>
       </c>
       <c r="D152">
-        <v>11.5514030456543</v>
+        <v>11.22805118560791</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>5.679389953613281</v>
+        <v>3.272596120834351</v>
       </c>
       <c r="B153">
-        <v>123.1825103759766</v>
+        <v>122.4956130981445</v>
       </c>
       <c r="C153">
-        <v>304.0885009765625</v>
+        <v>89.66819000244141</v>
       </c>
       <c r="D153">
-        <v>11.55215549468994</v>
+        <v>11.22830104827881</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>5.683609962463379</v>
+        <v>3.272193908691406</v>
       </c>
       <c r="B154">
-        <v>123.1791458129883</v>
+        <v>122.4964294433594</v>
       </c>
       <c r="C154">
-        <v>304.0890197753906</v>
+        <v>89.67888641357422</v>
       </c>
       <c r="D154">
-        <v>11.5529088973999</v>
+        <v>11.22854995727539</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>5.687828063964844</v>
+        <v>3.271792888641357</v>
       </c>
       <c r="B155">
-        <v>123.1757736206055</v>
+        <v>122.4972381591797</v>
       </c>
       <c r="C155">
-        <v>304.0895385742188</v>
+        <v>89.68960571289062</v>
       </c>
       <c r="D155">
-        <v>11.55366325378418</v>
+        <v>11.22879886627197</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>5.692046642303467</v>
+        <v>3.271394968032837</v>
       </c>
       <c r="B156">
-        <v>123.1723937988281</v>
+        <v>122.4980545043945</v>
       </c>
       <c r="C156">
-        <v>304.0900573730469</v>
+        <v>89.70036315917969</v>
       </c>
       <c r="D156">
-        <v>11.55441951751709</v>
+        <v>11.22904777526855</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>5.696263790130615</v>
+        <v>3.270999193191528</v>
       </c>
       <c r="B157">
-        <v>123.1690216064453</v>
+        <v>122.4988708496094</v>
       </c>
       <c r="C157">
-        <v>304.090576171875</v>
+        <v>89.71115875244141</v>
       </c>
       <c r="D157">
-        <v>11.55517578125</v>
+        <v>11.22929573059082</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>5.700479507446289</v>
+        <v>3.270605325698853</v>
       </c>
       <c r="B158">
-        <v>123.165641784668</v>
+        <v>122.4996795654297</v>
       </c>
       <c r="C158">
-        <v>304.0910949707031</v>
+        <v>89.72201538085938</v>
       </c>
       <c r="D158">
-        <v>11.55593395233154</v>
+        <v>11.2295446395874</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>5.704694747924805</v>
+        <v>3.270213603973389</v>
       </c>
       <c r="B159">
-        <v>123.1622619628906</v>
+        <v>122.50048828125</v>
       </c>
       <c r="C159">
-        <v>304.0916137695312</v>
+        <v>89.73287200927734</v>
       </c>
       <c r="D159">
-        <v>11.5566930770874</v>
+        <v>11.22979259490967</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>5.708908081054688</v>
+        <v>3.269824028015137</v>
       </c>
       <c r="B160">
-        <v>123.1588745117188</v>
+        <v>122.5013046264648</v>
       </c>
       <c r="C160">
-        <v>304.0921325683594</v>
+        <v>89.74380493164062</v>
       </c>
       <c r="D160">
-        <v>11.55745410919189</v>
+        <v>11.23003959655762</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>5.71312141418457</v>
+        <v>3.269436836242676</v>
       </c>
       <c r="B161">
-        <v>123.1554870605469</v>
+        <v>122.5021057128906</v>
       </c>
       <c r="C161">
-        <v>304.0926513671875</v>
+        <v>89.75476837158203</v>
       </c>
       <c r="D161">
-        <v>11.55821514129639</v>
+        <v>11.23028755187988</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>5.71733283996582</v>
+        <v>3.269051551818848</v>
       </c>
       <c r="B162">
-        <v>123.152099609375</v>
+        <v>122.5029144287109</v>
       </c>
       <c r="C162">
-        <v>304.0931701660156</v>
+        <v>89.76575469970703</v>
       </c>
       <c r="D162">
-        <v>11.55897808074951</v>
+        <v>11.23053455352783</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>5.721543312072754</v>
+        <v>3.268668413162231</v>
       </c>
       <c r="B163">
-        <v>123.1487045288086</v>
+        <v>122.5037155151367</v>
       </c>
       <c r="C163">
-        <v>304.0936889648438</v>
+        <v>89.77677917480469</v>
       </c>
       <c r="D163">
-        <v>11.55974102020264</v>
+        <v>11.2307825088501</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>5.725751876831055</v>
+        <v>3.268287181854248</v>
       </c>
       <c r="B164">
-        <v>123.1453094482422</v>
+        <v>122.5045166015625</v>
       </c>
       <c r="C164">
-        <v>304.0942077636719</v>
+        <v>89.78785705566406</v>
       </c>
       <c r="D164">
-        <v>11.56050586700439</v>
+        <v>11.23102951049805</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>5.729959487915039</v>
+        <v>3.267908811569214</v>
       </c>
       <c r="B165">
-        <v>123.1419067382812</v>
+        <v>122.5053176879883</v>
       </c>
       <c r="C165">
-        <v>304.0947265625</v>
+        <v>89.79896545410156</v>
       </c>
       <c r="D165">
-        <v>11.56127262115479</v>
+        <v>11.23127555847168</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>5.734165191650391</v>
+        <v>3.267531633377075</v>
       </c>
       <c r="B166">
-        <v>123.1385040283203</v>
+        <v>122.5061187744141</v>
       </c>
       <c r="C166">
-        <v>304.0952453613281</v>
+        <v>89.81013488769531</v>
       </c>
       <c r="D166">
-        <v>11.56203937530518</v>
+        <v>11.23152160644531</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>5.738369464874268</v>
+        <v>3.267157077789307</v>
       </c>
       <c r="B167">
-        <v>123.1350936889648</v>
+        <v>122.5069198608398</v>
       </c>
       <c r="C167">
-        <v>304.0957641601562</v>
+        <v>89.82130432128906</v>
       </c>
       <c r="D167">
-        <v>11.5628080368042</v>
+        <v>11.23176765441895</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>5.74257230758667</v>
+        <v>3.266784429550171</v>
       </c>
       <c r="B168">
-        <v>123.1316833496094</v>
+        <v>122.5077209472656</v>
       </c>
       <c r="C168">
-        <v>304.0962829589844</v>
+        <v>89.83251953125</v>
       </c>
       <c r="D168">
-        <v>11.56357669830322</v>
+        <v>11.23201370239258</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>5.746773719787598</v>
+        <v>3.266414165496826</v>
       </c>
       <c r="B169">
-        <v>123.1282730102539</v>
+        <v>122.5085144042969</v>
       </c>
       <c r="C169">
-        <v>304.0968017578125</v>
+        <v>89.84381103515625</v>
       </c>
       <c r="D169">
-        <v>11.56434726715088</v>
+        <v>11.23225975036621</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>5.750972747802734</v>
+        <v>3.266045570373535</v>
       </c>
       <c r="B170">
-        <v>123.1248550415039</v>
+        <v>122.5093078613281</v>
       </c>
       <c r="C170">
-        <v>304.0973205566406</v>
+        <v>89.85508728027344</v>
       </c>
       <c r="D170">
-        <v>11.56511974334717</v>
+        <v>11.23250484466553</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>5.755171298980713</v>
+        <v>3.265679359436035</v>
       </c>
       <c r="B171">
-        <v>123.1214370727539</v>
+        <v>122.5101013183594</v>
       </c>
       <c r="C171">
-        <v>304.0978393554688</v>
+        <v>89.86643981933594</v>
       </c>
       <c r="D171">
-        <v>11.56589221954346</v>
+        <v>11.23274993896484</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>5.759366512298584</v>
+        <v>3.265315055847168</v>
       </c>
       <c r="B172">
-        <v>123.1180114746094</v>
+        <v>122.5108947753906</v>
       </c>
       <c r="C172">
-        <v>304.0983581542969</v>
+        <v>89.87778472900391</v>
       </c>
       <c r="D172">
-        <v>11.56666564941406</v>
+        <v>11.23299407958984</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>5.763560771942139</v>
+        <v>3.264952898025513</v>
       </c>
       <c r="B173">
-        <v>123.1145782470703</v>
+        <v>122.5116806030273</v>
       </c>
       <c r="C173">
-        <v>304.098876953125</v>
+        <v>89.88921356201172</v>
       </c>
       <c r="D173">
-        <v>11.5674409866333</v>
+        <v>11.23323917388916</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>5.767752647399902</v>
+        <v>3.26459264755249</v>
       </c>
       <c r="B174">
-        <v>123.1111526489258</v>
+        <v>122.5124816894531</v>
       </c>
       <c r="C174">
-        <v>304.0993957519531</v>
+        <v>89.90066528320312</v>
       </c>
       <c r="D174">
-        <v>11.56821727752686</v>
+        <v>11.23348426818848</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>5.771943092346191</v>
+        <v>3.264234304428101</v>
       </c>
       <c r="B175">
-        <v>123.1077117919922</v>
+        <v>122.5132675170898</v>
       </c>
       <c r="C175">
-        <v>304.0999145507812</v>
+        <v>89.91215515136719</v>
       </c>
       <c r="D175">
-        <v>11.56899452209473</v>
+        <v>11.23372745513916</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>5.776131153106689</v>
+        <v>3.263878107070923</v>
       </c>
       <c r="B176">
-        <v>123.1042709350586</v>
+        <v>122.5140533447266</v>
       </c>
       <c r="C176">
-        <v>304.1004333496094</v>
+        <v>89.92366790771484</v>
       </c>
       <c r="D176">
-        <v>11.56977272033691</v>
+        <v>11.23397064208984</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>5.780317783355713</v>
+        <v>3.263524055480957</v>
       </c>
       <c r="B177">
-        <v>123.100830078125</v>
+        <v>122.5148468017578</v>
       </c>
       <c r="C177">
-        <v>304.1009521484375</v>
+        <v>89.93524932861328</v>
       </c>
       <c r="D177">
-        <v>11.57055282592773</v>
+        <v>11.23421573638916</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>5.784501075744629</v>
+        <v>3.263172149658203</v>
       </c>
       <c r="B178">
-        <v>123.0973815917969</v>
+        <v>122.5156326293945</v>
       </c>
       <c r="C178">
-        <v>304.1014709472656</v>
+        <v>89.94683837890625</v>
       </c>
       <c r="D178">
-        <v>11.57133293151855</v>
+        <v>11.23445796966553</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>5.788682460784912</v>
+        <v>3.262821912765503</v>
       </c>
       <c r="B179">
-        <v>123.0939407348633</v>
+        <v>122.5164184570312</v>
       </c>
       <c r="C179">
-        <v>304.1019897460938</v>
+        <v>89.95846557617188</v>
       </c>
       <c r="D179">
-        <v>11.57211494445801</v>
+        <v>11.23470115661621</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>5.792861938476562</v>
+        <v>3.262473821640015</v>
       </c>
       <c r="B180">
-        <v>123.0904846191406</v>
+        <v>122.517204284668</v>
       </c>
       <c r="C180">
-        <v>304.1025085449219</v>
+        <v>89.97013092041016</v>
       </c>
       <c r="D180">
-        <v>11.57289791107178</v>
+        <v>11.23494529724121</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>5.797039031982422</v>
+        <v>3.262128114700317</v>
       </c>
       <c r="B181">
-        <v>123.087028503418</v>
+        <v>122.5179901123047</v>
       </c>
       <c r="C181">
-        <v>304.10302734375</v>
+        <v>89.98186492919922</v>
       </c>
       <c r="D181">
-        <v>11.57368183135986</v>
+        <v>11.23518753051758</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>5.801214218139648</v>
+        <v>3.261783838272095</v>
       </c>
       <c r="B182">
-        <v>123.0835647583008</v>
+        <v>122.5187759399414</v>
       </c>
       <c r="C182">
-        <v>304.1035461425781</v>
+        <v>89.99359130859375</v>
       </c>
       <c r="D182">
-        <v>11.57446670532227</v>
+        <v>11.23542881011963</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>5.805386543273926</v>
+        <v>3.261441707611084</v>
       </c>
       <c r="B183">
-        <v>123.0800933837891</v>
+        <v>122.5195541381836</v>
       </c>
       <c r="C183">
-        <v>304.1040649414062</v>
+        <v>90.00538635253906</v>
       </c>
       <c r="D183">
-        <v>11.57525253295898</v>
+        <v>11.235671043396</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>5.809556484222412</v>
+        <v>3.261101484298706</v>
       </c>
       <c r="B184">
-        <v>123.0766296386719</v>
+        <v>122.5203399658203</v>
       </c>
       <c r="C184">
-        <v>304.1045837402344</v>
+        <v>90.01718902587891</v>
       </c>
       <c r="D184">
-        <v>11.57604026794434</v>
+        <v>11.23591327667236</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>5.813724517822266</v>
+        <v>3.260763168334961</v>
       </c>
       <c r="B185">
-        <v>123.0731582641602</v>
+        <v>122.5211181640625</v>
       </c>
       <c r="C185">
-        <v>304.1051025390625</v>
+        <v>90.02906799316406</v>
       </c>
       <c r="D185">
-        <v>11.576828956604</v>
+        <v>11.23615455627441</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>5.817889213562012</v>
+        <v>3.260426759719849</v>
       </c>
       <c r="B186">
-        <v>123.0696792602539</v>
+        <v>122.5218963623047</v>
       </c>
       <c r="C186">
-        <v>304.1056213378906</v>
+        <v>90.04093933105469</v>
       </c>
       <c r="D186">
-        <v>11.57761859893799</v>
+        <v>11.23639678955078</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>5.822051525115967</v>
+        <v>3.260092973709106</v>
       </c>
       <c r="B187">
-        <v>123.0661926269531</v>
+        <v>122.5226745605469</v>
       </c>
       <c r="C187">
-        <v>304.1061401367188</v>
+        <v>90.05287933349609</v>
       </c>
       <c r="D187">
-        <v>11.57840824127197</v>
+        <v>11.23663711547852</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>5.826211452484131</v>
+        <v>3.25976037979126</v>
       </c>
       <c r="B188">
-        <v>123.0627136230469</v>
+        <v>122.5234527587891</v>
       </c>
       <c r="C188">
-        <v>304.1066589355469</v>
+        <v>90.06484222412109</v>
       </c>
       <c r="D188">
-        <v>11.57920074462891</v>
+        <v>11.23687839508057</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>5.830368518829346</v>
+        <v>3.259429931640625</v>
       </c>
       <c r="B189">
-        <v>123.0592193603516</v>
+        <v>122.5242385864258</v>
       </c>
       <c r="C189">
-        <v>304.107177734375</v>
+        <v>90.07685089111328</v>
       </c>
       <c r="D189">
-        <v>11.57999324798584</v>
+        <v>11.23711776733398</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>5.834522724151611</v>
+        <v>3.259101629257202</v>
       </c>
       <c r="B190">
-        <v>123.0557250976562</v>
+        <v>122.5250091552734</v>
       </c>
       <c r="C190">
-        <v>304.1076965332031</v>
+        <v>90.0888671875</v>
       </c>
       <c r="D190">
-        <v>11.58078670501709</v>
+        <v>11.23735809326172</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>5.838674545288086</v>
+        <v>3.258774995803833</v>
       </c>
       <c r="B191">
-        <v>123.0522308349609</v>
+        <v>122.5257873535156</v>
       </c>
       <c r="C191">
-        <v>304.1082153320312</v>
+        <v>90.10095977783203</v>
       </c>
       <c r="D191">
-        <v>11.58158206939697</v>
+        <v>11.23759841918945</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>5.842823028564453</v>
+        <v>3.258450031280518</v>
       </c>
       <c r="B192">
-        <v>123.0487289428711</v>
+        <v>122.5265579223633</v>
       </c>
       <c r="C192">
-        <v>304.1087341308594</v>
+        <v>90.11305999755859</v>
       </c>
       <c r="D192">
-        <v>11.58237838745117</v>
+        <v>11.23783779144287</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>5.846969127655029</v>
+        <v>3.258127450942993</v>
       </c>
       <c r="B193">
-        <v>123.0452270507812</v>
+        <v>122.5273361206055</v>
       </c>
       <c r="C193">
-        <v>304.1092529296875</v>
+        <v>90.12520599365234</v>
       </c>
       <c r="D193">
-        <v>11.58317470550537</v>
+        <v>11.23807716369629</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>5.851111888885498</v>
+        <v>3.257806777954102</v>
       </c>
       <c r="B194">
-        <v>123.0417098999023</v>
+        <v>122.5281066894531</v>
       </c>
       <c r="C194">
-        <v>304.1097717285156</v>
+        <v>90.13737487792969</v>
       </c>
       <c r="D194">
-        <v>11.5839729309082</v>
+        <v>11.23831653594971</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>5.855252742767334</v>
+        <v>3.257487535476685</v>
       </c>
       <c r="B195">
-        <v>123.0381927490234</v>
+        <v>122.5288772583008</v>
       </c>
       <c r="C195">
-        <v>304.1102905273438</v>
+        <v>90.14958953857422</v>
       </c>
       <c r="D195">
-        <v>11.58477306365967</v>
+        <v>11.23855590820312</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>5.859389305114746</v>
+        <v>3.257170438766479</v>
       </c>
       <c r="B196">
-        <v>123.0346755981445</v>
+        <v>122.5296478271484</v>
       </c>
       <c r="C196">
-        <v>304.1107788085938</v>
+        <v>90.16185760498047</v>
       </c>
       <c r="D196">
-        <v>11.58557319641113</v>
+        <v>11.23879432678223</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>5.863523483276367</v>
+        <v>3.256855487823486</v>
       </c>
       <c r="B197">
-        <v>123.0311508178711</v>
+        <v>122.5304260253906</v>
       </c>
       <c r="C197">
-        <v>304.1112976074219</v>
+        <v>90.17414855957031</v>
       </c>
       <c r="D197">
-        <v>11.58637428283691</v>
+        <v>11.23903274536133</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>5.867654800415039</v>
+        <v>3.256541967391968</v>
       </c>
       <c r="B198">
-        <v>123.0276260375977</v>
+        <v>122.5311965942383</v>
       </c>
       <c r="C198">
-        <v>304.11181640625</v>
+        <v>90.18647766113281</v>
       </c>
       <c r="D198">
-        <v>11.58717727661133</v>
+        <v>11.23927021026611</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>5.871783256530762</v>
+        <v>3.256230592727661</v>
       </c>
       <c r="B199">
-        <v>123.0240859985352</v>
+        <v>122.5319671630859</v>
       </c>
       <c r="C199">
-        <v>304.1123352050781</v>
+        <v>90.19881439208984</v>
       </c>
       <c r="D199">
-        <v>11.58798027038574</v>
+        <v>11.23950862884521</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>5.875907421112061</v>
+        <v>3.255920886993408</v>
       </c>
       <c r="B200">
-        <v>123.0205535888672</v>
+        <v>122.5327377319336</v>
       </c>
       <c r="C200">
-        <v>304.1128540039062</v>
+        <v>90.21121978759766</v>
       </c>
       <c r="D200">
-        <v>11.58878517150879</v>
+        <v>11.23974514007568</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>5.880029201507568</v>
+        <v>3.255613088607788</v>
       </c>
       <c r="B201">
-        <v>123.0170059204102</v>
+        <v>122.5335083007812</v>
       </c>
       <c r="C201">
-        <v>304.1133728027344</v>
+        <v>90.22364044189453</v>
       </c>
       <c r="D201">
-        <v>11.58959102630615</v>
+        <v>11.23998355865479</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>5.884148120880127</v>
+        <v>3.25530743598938</v>
       </c>
       <c r="B202">
-        <v>123.0134658813477</v>
+        <v>122.5342712402344</v>
       </c>
       <c r="C202">
-        <v>304.1138916015625</v>
+        <v>90.23612213134766</v>
       </c>
       <c r="D202">
-        <v>11.59039783477783</v>
+        <v>11.24022102355957</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>5.88826322555542</v>
+        <v>3.255003452301025</v>
       </c>
       <c r="B203">
-        <v>123.0099182128906</v>
+        <v>122.535041809082</v>
       </c>
       <c r="C203">
-        <v>304.1144104003906</v>
+        <v>90.24861145019531</v>
       </c>
       <c r="D203">
-        <v>11.59120559692383</v>
+        <v>11.24045753479004</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>5.892375469207764</v>
+        <v>3.254701375961304</v>
       </c>
       <c r="B204">
-        <v>123.0063552856445</v>
+        <v>122.5358047485352</v>
       </c>
       <c r="C204">
-        <v>304.1149291992188</v>
+        <v>90.26115417480469</v>
       </c>
       <c r="D204">
-        <v>11.59201431274414</v>
+        <v>11.24069309234619</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>5.896483421325684</v>
+        <v>3.254400491714478</v>
       </c>
       <c r="B205">
-        <v>123.002799987793</v>
+        <v>122.5365753173828</v>
       </c>
       <c r="C205">
-        <v>304.1154479980469</v>
+        <v>90.27370452880859</v>
       </c>
       <c r="D205">
-        <v>11.59282398223877</v>
+        <v>11.24092960357666</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>5.900589942932129</v>
+        <v>3.254102468490601</v>
       </c>
       <c r="B206">
-        <v>122.9992294311523</v>
+        <v>122.5373382568359</v>
       </c>
       <c r="C206">
-        <v>304.115966796875</v>
+        <v>90.28632354736328</v>
       </c>
       <c r="D206">
-        <v>11.59363460540771</v>
+        <v>11.24116516113281</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>5.904691696166992</v>
+        <v>3.25380539894104</v>
       </c>
       <c r="B207">
-        <v>122.9956588745117</v>
+        <v>122.5381011962891</v>
       </c>
       <c r="C207">
-        <v>304.116455078125</v>
+        <v>90.2989501953125</v>
       </c>
       <c r="D207">
-        <v>11.59444713592529</v>
+        <v>11.24140071868896</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>5.90878963470459</v>
+        <v>3.253510713577271</v>
       </c>
       <c r="B208">
-        <v>122.9920883178711</v>
+        <v>122.5388717651367</v>
       </c>
       <c r="C208">
-        <v>304.1169738769531</v>
+        <v>90.31163787841797</v>
       </c>
       <c r="D208">
-        <v>11.59525966644287</v>
+        <v>11.24163627624512</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>5.912884712219238</v>
+        <v>3.253217458724976</v>
       </c>
       <c r="B209">
-        <v>122.9885025024414</v>
+        <v>122.5396347045898</v>
       </c>
       <c r="C209">
-        <v>304.1174926757812</v>
+        <v>90.32431030273438</v>
       </c>
       <c r="D209">
-        <v>11.59607410430908</v>
+        <v>11.24187183380127</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>5.916976451873779</v>
+        <v>3.252926349639893</v>
       </c>
       <c r="B210">
-        <v>122.9849243164062</v>
+        <v>122.540397644043</v>
       </c>
       <c r="C210">
-        <v>304.1180114746094</v>
+        <v>90.33708953857422</v>
       </c>
       <c r="D210">
-        <v>11.59688949584961</v>
+        <v>11.24210643768311</v>
       </c>
     </row>
   </sheetData>

--- a/sub2/hasil prediktor.xlsx
+++ b/sub2/hasil prediktor.xlsx
@@ -348,2942 +348,2942 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>3.365703582763672</v>
+        <v>5.298746109008789</v>
       </c>
       <c r="B1">
-        <v>122.3113021850586</v>
+        <v>120.7547988891602</v>
       </c>
       <c r="C1">
-        <v>88.46054840087891</v>
+        <v>304.9953002929688</v>
       </c>
       <c r="D1">
-        <v>11.18891525268555</v>
+        <v>4.998927593231201</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>3.364835262298584</v>
+        <v>5.302401065826416</v>
       </c>
       <c r="B2">
-        <v>122.3134613037109</v>
+        <v>120.7494354248047</v>
       </c>
       <c r="C2">
-        <v>88.46709442138672</v>
+        <v>304.9952697753906</v>
       </c>
       <c r="D2">
-        <v>11.18916893005371</v>
+        <v>4.998925685882568</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>3.363970279693604</v>
+        <v>5.30604887008667</v>
       </c>
       <c r="B3">
-        <v>122.3155899047852</v>
+        <v>120.7440795898438</v>
       </c>
       <c r="C3">
-        <v>88.47360992431641</v>
+        <v>304.9952392578125</v>
       </c>
       <c r="D3">
-        <v>11.18942356109619</v>
+        <v>4.998923778533936</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3.363110542297363</v>
+        <v>5.309683322906494</v>
       </c>
       <c r="B4">
-        <v>122.3177032470703</v>
+        <v>120.7387542724609</v>
       </c>
       <c r="C4">
-        <v>88.48013305664062</v>
+        <v>304.9952392578125</v>
       </c>
       <c r="D4">
-        <v>11.18967914581299</v>
+        <v>4.998921394348145</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3.362253665924072</v>
+        <v>5.313316822052002</v>
       </c>
       <c r="B5">
-        <v>122.3197860717773</v>
+        <v>120.7334136962891</v>
       </c>
       <c r="C5">
-        <v>88.48660278320312</v>
+        <v>304.9952087402344</v>
       </c>
       <c r="D5">
-        <v>11.18993377685547</v>
+        <v>4.998919010162354</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>3.361401796340942</v>
+        <v>5.316944122314453</v>
       </c>
       <c r="B6">
-        <v>122.3218460083008</v>
+        <v>120.7280960083008</v>
       </c>
       <c r="C6">
-        <v>88.49309539794922</v>
+        <v>304.9952087402344</v>
       </c>
       <c r="D6">
-        <v>11.19018936157227</v>
+        <v>4.998916625976562</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>3.360553503036499</v>
+        <v>5.320564746856689</v>
       </c>
       <c r="B7">
-        <v>122.3238830566406</v>
+        <v>120.7227783203125</v>
       </c>
       <c r="C7">
-        <v>88.49954223632812</v>
+        <v>304.9951782226562</v>
       </c>
       <c r="D7">
-        <v>11.19044494628906</v>
+        <v>4.998914241790771</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>3.359709501266479</v>
+        <v>5.324172019958496</v>
       </c>
       <c r="B8">
-        <v>122.3258895874023</v>
+        <v>120.7174835205078</v>
       </c>
       <c r="C8">
-        <v>88.50601196289062</v>
+        <v>304.9951782226562</v>
       </c>
       <c r="D8">
-        <v>11.19070148468018</v>
+        <v>4.99891185760498</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>3.358869314193726</v>
+        <v>5.327779293060303</v>
       </c>
       <c r="B9">
-        <v>122.327880859375</v>
+        <v>120.7121810913086</v>
       </c>
       <c r="C9">
-        <v>88.51242828369141</v>
+        <v>304.9951477050781</v>
       </c>
       <c r="D9">
-        <v>11.19095802307129</v>
+        <v>4.998908996582031</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>3.358033180236816</v>
+        <v>5.331379890441895</v>
       </c>
       <c r="B10">
-        <v>122.3298492431641</v>
+        <v>120.7068939208984</v>
       </c>
       <c r="C10">
-        <v>88.51887512207031</v>
+        <v>304.9951171875</v>
       </c>
       <c r="D10">
-        <v>11.19121551513672</v>
+        <v>4.998906135559082</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>3.357200860977173</v>
+        <v>5.334967613220215</v>
       </c>
       <c r="B11">
-        <v>122.3317947387695</v>
+        <v>120.7016296386719</v>
       </c>
       <c r="C11">
-        <v>88.52527618408203</v>
+        <v>304.9951171875</v>
       </c>
       <c r="D11">
-        <v>11.19147205352783</v>
+        <v>4.998903274536133</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>3.356373071670532</v>
+        <v>5.338551998138428</v>
       </c>
       <c r="B12">
-        <v>122.3337173461914</v>
+        <v>120.6963577270508</v>
       </c>
       <c r="C12">
-        <v>88.53169250488281</v>
+        <v>304.9950866699219</v>
       </c>
       <c r="D12">
-        <v>11.19172954559326</v>
+        <v>4.998900413513184</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>3.35554838180542</v>
+        <v>5.342134952545166</v>
       </c>
       <c r="B13">
-        <v>122.3356246948242</v>
+        <v>120.6910934448242</v>
       </c>
       <c r="C13">
-        <v>88.5380859375</v>
+        <v>304.9950866699219</v>
       </c>
       <c r="D13">
-        <v>11.19198608398438</v>
+        <v>4.998897075653076</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>3.354728221893311</v>
+        <v>5.345703125</v>
       </c>
       <c r="B14">
-        <v>122.3375091552734</v>
+        <v>120.6858596801758</v>
       </c>
       <c r="C14">
-        <v>88.54449462890625</v>
+        <v>304.9950561523438</v>
       </c>
       <c r="D14">
-        <v>11.19224548339844</v>
+        <v>4.998893737792969</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>3.353911876678467</v>
+        <v>5.349269866943359</v>
       </c>
       <c r="B15">
-        <v>122.3393707275391</v>
+        <v>120.6806106567383</v>
       </c>
       <c r="C15">
-        <v>88.55088806152344</v>
+        <v>304.9950256347656</v>
       </c>
       <c r="D15">
-        <v>11.19250392913818</v>
+        <v>4.998890399932861</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>3.353099822998047</v>
+        <v>5.35283088684082</v>
       </c>
       <c r="B16">
-        <v>122.3412094116211</v>
+        <v>120.6753921508789</v>
       </c>
       <c r="C16">
-        <v>88.55728149414062</v>
+        <v>304.9950256347656</v>
       </c>
       <c r="D16">
-        <v>11.19276237487793</v>
+        <v>4.998887062072754</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>3.352290868759155</v>
+        <v>5.356383800506592</v>
       </c>
       <c r="B17">
-        <v>122.3430328369141</v>
+        <v>120.6701736450195</v>
       </c>
       <c r="C17">
-        <v>88.56365203857422</v>
+        <v>304.9949951171875</v>
       </c>
       <c r="D17">
-        <v>11.19302082061768</v>
+        <v>4.998883724212646</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>3.351486444473267</v>
+        <v>5.359923839569092</v>
       </c>
       <c r="B18">
-        <v>122.3448333740234</v>
+        <v>120.6649627685547</v>
       </c>
       <c r="C18">
-        <v>88.57006072998047</v>
+        <v>304.9949951171875</v>
       </c>
       <c r="D18">
-        <v>11.19328022003174</v>
+        <v>4.998879909515381</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>3.350685596466064</v>
+        <v>5.363463878631592</v>
       </c>
       <c r="B19">
-        <v>122.3466110229492</v>
+        <v>120.6597595214844</v>
       </c>
       <c r="C19">
-        <v>88.57643127441406</v>
+        <v>304.9949645996094</v>
       </c>
       <c r="D19">
-        <v>11.1935396194458</v>
+        <v>4.998876571655273</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>3.349888801574707</v>
+        <v>5.366996765136719</v>
       </c>
       <c r="B20">
-        <v>122.3483810424805</v>
+        <v>120.6545715332031</v>
       </c>
       <c r="C20">
-        <v>88.58282470703125</v>
+        <v>304.9949340820312</v>
       </c>
       <c r="D20">
-        <v>11.19379901885986</v>
+        <v>4.998872756958008</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>3.349095344543457</v>
+        <v>5.370516777038574</v>
       </c>
       <c r="B21">
-        <v>122.3501205444336</v>
+        <v>120.6493911743164</v>
       </c>
       <c r="C21">
-        <v>88.58920288085938</v>
+        <v>304.9949340820312</v>
       </c>
       <c r="D21">
-        <v>11.19405841827393</v>
+        <v>4.998868465423584</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>3.348306179046631</v>
+        <v>5.374035358428955</v>
       </c>
       <c r="B22">
-        <v>122.3518447875977</v>
+        <v>120.6442260742188</v>
       </c>
       <c r="C22">
-        <v>88.59559631347656</v>
+        <v>304.9949035644531</v>
       </c>
       <c r="D22">
-        <v>11.19431972503662</v>
+        <v>4.998864650726318</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>3.347520589828491</v>
+        <v>5.377545833587646</v>
       </c>
       <c r="B23">
-        <v>122.3535537719727</v>
+        <v>120.6390609741211</v>
       </c>
       <c r="C23">
-        <v>88.60196685791016</v>
+        <v>304.9949035644531</v>
       </c>
       <c r="D23">
-        <v>11.19457912445068</v>
+        <v>4.998860359191895</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>3.346739292144775</v>
+        <v>5.381046772003174</v>
       </c>
       <c r="B24">
-        <v>122.3552474975586</v>
+        <v>120.633918762207</v>
       </c>
       <c r="C24">
-        <v>88.60838317871094</v>
+        <v>304.994873046875</v>
       </c>
       <c r="D24">
-        <v>11.19483947753906</v>
+        <v>4.998856067657471</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>3.345961093902588</v>
+        <v>5.384546279907227</v>
       </c>
       <c r="B25">
-        <v>122.3569183349609</v>
+        <v>120.628776550293</v>
       </c>
       <c r="C25">
-        <v>88.61475372314453</v>
+        <v>304.9948425292969</v>
       </c>
       <c r="D25">
-        <v>11.19509983062744</v>
+        <v>4.998851776123047</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>3.345186948776245</v>
+        <v>5.388039588928223</v>
       </c>
       <c r="B26">
-        <v>122.3585739135742</v>
+        <v>120.6236343383789</v>
       </c>
       <c r="C26">
-        <v>88.62117004394531</v>
+        <v>304.9948425292969</v>
       </c>
       <c r="D26">
-        <v>11.19536209106445</v>
+        <v>4.998847484588623</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>3.344416618347168</v>
+        <v>5.391524314880371</v>
       </c>
       <c r="B27">
-        <v>122.3602142333984</v>
+        <v>120.6185073852539</v>
       </c>
       <c r="C27">
-        <v>88.6275634765625</v>
+        <v>304.9948120117188</v>
       </c>
       <c r="D27">
-        <v>11.19562244415283</v>
+        <v>4.998842716217041</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>3.343649864196777</v>
+        <v>5.394995212554932</v>
       </c>
       <c r="B28">
-        <v>122.3618316650391</v>
+        <v>120.613410949707</v>
       </c>
       <c r="C28">
-        <v>88.63401794433594</v>
+        <v>304.9948120117188</v>
       </c>
       <c r="D28">
-        <v>11.19588375091553</v>
+        <v>4.998838424682617</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>3.342886686325073</v>
+        <v>5.39846658706665</v>
       </c>
       <c r="B29">
-        <v>122.3634338378906</v>
+        <v>120.6083068847656</v>
       </c>
       <c r="C29">
-        <v>88.64041900634766</v>
+        <v>304.9947814941406</v>
       </c>
       <c r="D29">
-        <v>11.19614505767822</v>
+        <v>4.998833656311035</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>3.342127323150635</v>
+        <v>5.401931285858154</v>
       </c>
       <c r="B30">
-        <v>122.3650283813477</v>
+        <v>120.6032028198242</v>
       </c>
       <c r="C30">
-        <v>88.64686584472656</v>
+        <v>304.9947509765625</v>
       </c>
       <c r="D30">
-        <v>11.19640731811523</v>
+        <v>4.998828887939453</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>3.341371774673462</v>
+        <v>5.405382633209229</v>
       </c>
       <c r="B31">
-        <v>122.3666000366211</v>
+        <v>120.5981292724609</v>
       </c>
       <c r="C31">
-        <v>88.6533203125</v>
+        <v>304.9947509765625</v>
       </c>
       <c r="D31">
-        <v>11.19666767120361</v>
+        <v>4.998823642730713</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>3.340620040893555</v>
+        <v>5.408832550048828</v>
       </c>
       <c r="B32">
-        <v>122.3681640625</v>
+        <v>120.5930557250977</v>
       </c>
       <c r="C32">
-        <v>88.65978240966797</v>
+        <v>304.9947204589844</v>
       </c>
       <c r="D32">
-        <v>11.19692993164062</v>
+        <v>4.998818874359131</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>3.339871406555176</v>
+        <v>5.412276744842529</v>
       </c>
       <c r="B33">
-        <v>122.3696975708008</v>
+        <v>120.5879821777344</v>
       </c>
       <c r="C33">
-        <v>88.66623687744141</v>
+        <v>304.9947204589844</v>
       </c>
       <c r="D33">
-        <v>11.19719219207764</v>
+        <v>4.998813629150391</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>3.339126825332642</v>
+        <v>5.415707111358643</v>
       </c>
       <c r="B34">
-        <v>122.3712310791016</v>
+        <v>120.5829391479492</v>
       </c>
       <c r="C34">
-        <v>88.67271423339844</v>
+        <v>304.9946899414062</v>
       </c>
       <c r="D34">
-        <v>11.19745445251465</v>
+        <v>4.99880838394165</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>3.338385820388794</v>
+        <v>5.419133186340332</v>
       </c>
       <c r="B35">
-        <v>122.3727416992188</v>
+        <v>120.5779037475586</v>
       </c>
       <c r="C35">
-        <v>88.67921447753906</v>
+        <v>304.9946594238281</v>
       </c>
       <c r="D35">
-        <v>11.19771766662598</v>
+        <v>4.99880313873291</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>3.337648391723633</v>
+        <v>5.422558784484863</v>
       </c>
       <c r="B36">
-        <v>122.3742370605469</v>
+        <v>120.5728530883789</v>
       </c>
       <c r="C36">
-        <v>88.68571472167969</v>
+        <v>304.9946594238281</v>
       </c>
       <c r="D36">
-        <v>11.19797897338867</v>
+        <v>4.998797416687012</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>3.336914539337158</v>
+        <v>5.425975799560547</v>
       </c>
       <c r="B37">
-        <v>122.3757247924805</v>
+        <v>120.5678329467773</v>
       </c>
       <c r="C37">
-        <v>88.69223785400391</v>
+        <v>304.99462890625</v>
       </c>
       <c r="D37">
-        <v>11.19824123382568</v>
+        <v>4.998792171478271</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>3.33618426322937</v>
+        <v>5.429378032684326</v>
       </c>
       <c r="B38">
-        <v>122.3771896362305</v>
+        <v>120.5628280639648</v>
       </c>
       <c r="C38">
-        <v>88.69878387451172</v>
+        <v>304.9945983886719</v>
       </c>
       <c r="D38">
-        <v>11.19850444793701</v>
+        <v>4.998786449432373</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>3.335457801818848</v>
+        <v>5.432780265808105</v>
       </c>
       <c r="B39">
-        <v>122.3786468505859</v>
+        <v>120.5578231811523</v>
       </c>
       <c r="C39">
-        <v>88.70535278320312</v>
+        <v>304.9945983886719</v>
       </c>
       <c r="D39">
-        <v>11.19876670837402</v>
+        <v>4.998780727386475</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>3.334734678268433</v>
+        <v>5.436175346374512</v>
       </c>
       <c r="B40">
-        <v>122.3800888061523</v>
+        <v>120.5528106689453</v>
       </c>
       <c r="C40">
-        <v>88.71192932128906</v>
+        <v>304.9945678710938</v>
       </c>
       <c r="D40">
-        <v>11.19902992248535</v>
+        <v>4.998775005340576</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>3.334014892578125</v>
+        <v>5.439557552337646</v>
       </c>
       <c r="B41">
-        <v>122.3815231323242</v>
+        <v>120.5478439331055</v>
       </c>
       <c r="C41">
-        <v>88.71851348876953</v>
+        <v>304.9945678710938</v>
       </c>
       <c r="D41">
-        <v>11.19929313659668</v>
+        <v>4.99876880645752</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>3.333298683166504</v>
+        <v>5.442938327789307</v>
       </c>
       <c r="B42">
-        <v>122.3829345703125</v>
+        <v>120.5428619384766</v>
       </c>
       <c r="C42">
-        <v>88.72512817382812</v>
+        <v>304.9945373535156</v>
       </c>
       <c r="D42">
-        <v>11.19955635070801</v>
+        <v>4.998763084411621</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>3.332586526870728</v>
+        <v>5.44631290435791</v>
       </c>
       <c r="B43">
-        <v>122.3843307495117</v>
+        <v>120.5378952026367</v>
       </c>
       <c r="C43">
-        <v>88.73175811767578</v>
+        <v>304.9945068359375</v>
       </c>
       <c r="D43">
-        <v>11.19981861114502</v>
+        <v>4.998756885528564</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>3.3318772315979</v>
+        <v>5.449674606323242</v>
       </c>
       <c r="B44">
-        <v>122.3857269287109</v>
+        <v>120.5329437255859</v>
       </c>
       <c r="C44">
-        <v>88.73841857910156</v>
+        <v>304.9945068359375</v>
       </c>
       <c r="D44">
-        <v>11.20008182525635</v>
+        <v>4.998750686645508</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>3.331171751022339</v>
+        <v>5.4530348777771</v>
       </c>
       <c r="B45">
-        <v>122.3871078491211</v>
+        <v>120.5279922485352</v>
       </c>
       <c r="C45">
-        <v>88.74510192871094</v>
+        <v>304.9944763183594</v>
       </c>
       <c r="D45">
-        <v>11.20034503936768</v>
+        <v>4.998744010925293</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>3.330469369888306</v>
+        <v>5.456388473510742</v>
       </c>
       <c r="B46">
-        <v>122.3884735107422</v>
+        <v>120.5230484008789</v>
       </c>
       <c r="C46">
-        <v>88.75177764892578</v>
+        <v>304.9944458007812</v>
       </c>
       <c r="D46">
-        <v>11.200608253479</v>
+        <v>4.998737812042236</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>3.329771041870117</v>
+        <v>5.459731101989746</v>
       </c>
       <c r="B47">
-        <v>122.3898239135742</v>
+        <v>120.5181350708008</v>
       </c>
       <c r="C47">
-        <v>88.75851440429688</v>
+        <v>304.9944458007812</v>
       </c>
       <c r="D47">
-        <v>11.20087146759033</v>
+        <v>4.998731136322021</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>3.329075813293457</v>
+        <v>5.463065624237061</v>
       </c>
       <c r="B48">
-        <v>122.3911666870117</v>
+        <v>120.5132217407227</v>
       </c>
       <c r="C48">
-        <v>88.76525115966797</v>
+        <v>304.9944152832031</v>
       </c>
       <c r="D48">
-        <v>11.20113563537598</v>
+        <v>4.998724460601807</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>3.328383684158325</v>
+        <v>5.466399669647217</v>
       </c>
       <c r="B49">
-        <v>122.3924942016602</v>
+        <v>120.5083084106445</v>
       </c>
       <c r="C49">
-        <v>88.77201080322266</v>
+        <v>304.9944152832031</v>
       </c>
       <c r="D49">
-        <v>11.20139980316162</v>
+        <v>4.998717784881592</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>3.32769513130188</v>
+        <v>5.469726085662842</v>
       </c>
       <c r="B50">
-        <v>122.3938140869141</v>
+        <v>120.5034103393555</v>
       </c>
       <c r="C50">
-        <v>88.77880096435547</v>
+        <v>304.994384765625</v>
       </c>
       <c r="D50">
-        <v>11.20166301727295</v>
+        <v>4.998711109161377</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>3.327010631561279</v>
+        <v>5.473038196563721</v>
       </c>
       <c r="B51">
-        <v>122.395133972168</v>
+        <v>120.49853515625</v>
       </c>
       <c r="C51">
-        <v>88.78561401367188</v>
+        <v>304.9943542480469</v>
       </c>
       <c r="D51">
-        <v>11.20192623138428</v>
+        <v>4.998704433441162</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>3.326328754425049</v>
+        <v>5.476349830627441</v>
       </c>
       <c r="B52">
-        <v>122.3964309692383</v>
+        <v>120.4936447143555</v>
       </c>
       <c r="C52">
-        <v>88.79244995117188</v>
+        <v>304.9943542480469</v>
       </c>
       <c r="D52">
-        <v>11.20218944549561</v>
+        <v>4.998697280883789</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>3.325650691986084</v>
+        <v>5.479655265808105</v>
       </c>
       <c r="B53">
-        <v>122.3977127075195</v>
+        <v>120.48876953125</v>
       </c>
       <c r="C53">
-        <v>88.79931640625</v>
+        <v>304.9943237304688</v>
       </c>
       <c r="D53">
-        <v>11.20245361328125</v>
+        <v>4.998690128326416</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>3.324975728988647</v>
+        <v>5.482946395874023</v>
       </c>
       <c r="B54">
-        <v>122.3989868164062</v>
+        <v>120.4839248657227</v>
       </c>
       <c r="C54">
-        <v>88.80621337890625</v>
+        <v>304.9942932128906</v>
       </c>
       <c r="D54">
-        <v>11.20271682739258</v>
+        <v>4.998682975769043</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>3.324304103851318</v>
+        <v>5.486237049102783</v>
       </c>
       <c r="B55">
-        <v>122.400260925293</v>
+        <v>120.4790802001953</v>
       </c>
       <c r="C55">
-        <v>88.81313323974609</v>
+        <v>304.9942932128906</v>
       </c>
       <c r="D55">
-        <v>11.20298099517822</v>
+        <v>4.99867582321167</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>3.323635578155518</v>
+        <v>5.489521503448486</v>
       </c>
       <c r="B56">
-        <v>122.4015121459961</v>
+        <v>120.4742279052734</v>
       </c>
       <c r="C56">
-        <v>88.82007598876953</v>
+        <v>304.9942626953125</v>
       </c>
       <c r="D56">
-        <v>11.20324420928955</v>
+        <v>4.998668193817139</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>3.322970867156982</v>
+        <v>5.4927978515625</v>
       </c>
       <c r="B57">
-        <v>122.4027557373047</v>
+        <v>120.4694137573242</v>
       </c>
       <c r="C57">
-        <v>88.82705688476562</v>
+        <v>304.9942321777344</v>
       </c>
       <c r="D57">
-        <v>11.20350742340088</v>
+        <v>4.998661041259766</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>3.322309017181396</v>
+        <v>5.496057987213135</v>
       </c>
       <c r="B58">
-        <v>122.4039993286133</v>
+        <v>120.464599609375</v>
       </c>
       <c r="C58">
-        <v>88.83404541015625</v>
+        <v>304.9942321777344</v>
       </c>
       <c r="D58">
-        <v>11.20377159118652</v>
+        <v>4.998653411865234</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>3.321650743484497</v>
+        <v>5.499322414398193</v>
       </c>
       <c r="B59">
-        <v>122.4052276611328</v>
+        <v>120.4597854614258</v>
       </c>
       <c r="C59">
-        <v>88.84107971191406</v>
+        <v>304.9942016601562</v>
       </c>
       <c r="D59">
-        <v>11.20403480529785</v>
+        <v>4.998645782470703</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>3.320995569229126</v>
+        <v>5.502580165863037</v>
       </c>
       <c r="B60">
-        <v>122.4064407348633</v>
+        <v>120.4549789428711</v>
       </c>
       <c r="C60">
-        <v>88.84814453125</v>
+        <v>304.9941711425781</v>
       </c>
       <c r="D60">
-        <v>11.2042989730835</v>
+        <v>4.998638153076172</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>3.320343971252441</v>
+        <v>5.505823135375977</v>
       </c>
       <c r="B61">
-        <v>122.4076461791992</v>
+        <v>120.4501953125</v>
       </c>
       <c r="C61">
-        <v>88.85524749755859</v>
+        <v>304.9941711425781</v>
       </c>
       <c r="D61">
-        <v>11.20456218719482</v>
+        <v>4.998630046844482</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>3.319695234298706</v>
+        <v>5.5090651512146</v>
       </c>
       <c r="B62">
-        <v>122.4088516235352</v>
+        <v>120.4454116821289</v>
       </c>
       <c r="C62">
-        <v>88.86235809326172</v>
+        <v>304.994140625</v>
       </c>
       <c r="D62">
-        <v>11.20482540130615</v>
+        <v>4.998622417449951</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>3.319049835205078</v>
+        <v>5.512301445007324</v>
       </c>
       <c r="B63">
-        <v>122.410041809082</v>
+        <v>120.4406509399414</v>
       </c>
       <c r="C63">
-        <v>88.86953735351562</v>
+        <v>304.994140625</v>
       </c>
       <c r="D63">
-        <v>11.20508861541748</v>
+        <v>4.998614311218262</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>3.318407773971558</v>
+        <v>5.515522956848145</v>
       </c>
       <c r="B64">
-        <v>122.4112167358398</v>
+        <v>120.4358978271484</v>
       </c>
       <c r="C64">
-        <v>88.87670135498047</v>
+        <v>304.9941101074219</v>
       </c>
       <c r="D64">
-        <v>11.20535278320312</v>
+        <v>4.998606204986572</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>3.317768812179565</v>
+        <v>5.518744468688965</v>
       </c>
       <c r="B65">
-        <v>122.4123992919922</v>
+        <v>120.4311370849609</v>
       </c>
       <c r="C65">
-        <v>88.88394165039062</v>
+        <v>304.9940795898438</v>
       </c>
       <c r="D65">
-        <v>11.20561599731445</v>
+        <v>4.998598098754883</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>3.317132949829102</v>
+        <v>5.521959781646729</v>
       </c>
       <c r="B66">
-        <v>122.4135589599609</v>
+        <v>120.426399230957</v>
       </c>
       <c r="C66">
-        <v>88.89117431640625</v>
+        <v>304.9940795898438</v>
       </c>
       <c r="D66">
-        <v>11.20587921142578</v>
+        <v>4.998589515686035</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>3.316500425338745</v>
+        <v>5.525166988372803</v>
       </c>
       <c r="B67">
-        <v>122.4147186279297</v>
+        <v>120.4216613769531</v>
       </c>
       <c r="C67">
-        <v>88.89846801757812</v>
+        <v>304.9940490722656</v>
       </c>
       <c r="D67">
-        <v>11.20614242553711</v>
+        <v>4.998581409454346</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>3.315870761871338</v>
+        <v>5.528360843658447</v>
       </c>
       <c r="B68">
-        <v>122.4158706665039</v>
+        <v>120.4169464111328</v>
       </c>
       <c r="C68">
-        <v>88.90577697753906</v>
+        <v>304.9940185546875</v>
       </c>
       <c r="D68">
-        <v>11.20640563964844</v>
+        <v>4.998572826385498</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>3.315244436264038</v>
+        <v>5.531554698944092</v>
       </c>
       <c r="B69">
-        <v>122.4170074462891</v>
+        <v>120.4122314453125</v>
       </c>
       <c r="C69">
-        <v>88.91312408447266</v>
+        <v>304.9940185546875</v>
       </c>
       <c r="D69">
-        <v>11.20666885375977</v>
+        <v>4.99856424331665</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>3.314621210098267</v>
+        <v>5.534737586975098</v>
       </c>
       <c r="B70">
-        <v>122.4181442260742</v>
+        <v>120.4075469970703</v>
       </c>
       <c r="C70">
-        <v>88.92050933837891</v>
+        <v>304.9939880371094</v>
       </c>
       <c r="D70">
-        <v>11.20693206787109</v>
+        <v>4.998555660247803</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>3.314001083374023</v>
+        <v>5.537912845611572</v>
       </c>
       <c r="B71">
-        <v>122.4192657470703</v>
+        <v>120.4028625488281</v>
       </c>
       <c r="C71">
-        <v>88.92791748046875</v>
+        <v>304.9939575195312</v>
       </c>
       <c r="D71">
-        <v>11.20719528198242</v>
+        <v>4.998546600341797</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>3.313384532928467</v>
+        <v>5.54108715057373</v>
       </c>
       <c r="B72">
-        <v>122.4203872680664</v>
+        <v>120.3981704711914</v>
       </c>
       <c r="C72">
-        <v>88.93538665771484</v>
+        <v>304.9939575195312</v>
       </c>
       <c r="D72">
-        <v>11.20745849609375</v>
+        <v>4.998538017272949</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>3.312770366668701</v>
+        <v>5.544254302978516</v>
       </c>
       <c r="B73">
-        <v>122.421501159668</v>
+        <v>120.3934860229492</v>
       </c>
       <c r="C73">
-        <v>88.94285583496094</v>
+        <v>304.9939270019531</v>
       </c>
       <c r="D73">
-        <v>11.20772266387939</v>
+        <v>4.998528957366943</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>3.312159776687622</v>
+        <v>5.547407150268555</v>
       </c>
       <c r="B74">
-        <v>122.4225997924805</v>
+        <v>120.3888397216797</v>
       </c>
       <c r="C74">
-        <v>88.95040893554688</v>
+        <v>304.993896484375</v>
       </c>
       <c r="D74">
-        <v>11.20798397064209</v>
+        <v>4.998519897460938</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>3.311552047729492</v>
+        <v>5.550559520721436</v>
       </c>
       <c r="B75">
-        <v>122.4236907958984</v>
+        <v>120.3841781616211</v>
       </c>
       <c r="C75">
-        <v>88.95793914794922</v>
+        <v>304.993896484375</v>
       </c>
       <c r="D75">
-        <v>11.20824718475342</v>
+        <v>4.998510837554932</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>3.310947418212891</v>
+        <v>5.55370569229126</v>
       </c>
       <c r="B76">
-        <v>122.4247894287109</v>
+        <v>120.3795318603516</v>
       </c>
       <c r="C76">
-        <v>88.96556091308594</v>
+        <v>304.9938659667969</v>
       </c>
       <c r="D76">
-        <v>11.20851135253906</v>
+        <v>4.998501777648926</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>3.31034517288208</v>
+        <v>5.556844711303711</v>
       </c>
       <c r="B77">
-        <v>122.4258728027344</v>
+        <v>120.3749008178711</v>
       </c>
       <c r="C77">
-        <v>88.97316741943359</v>
+        <v>304.9938354492188</v>
       </c>
       <c r="D77">
-        <v>11.20877265930176</v>
+        <v>4.99849271774292</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>3.309746980667114</v>
+        <v>5.559969425201416</v>
       </c>
       <c r="B78">
-        <v>122.4269485473633</v>
+        <v>120.3702926635742</v>
       </c>
       <c r="C78">
-        <v>88.9808349609375</v>
+        <v>304.9938354492188</v>
       </c>
       <c r="D78">
-        <v>11.20903587341309</v>
+        <v>4.998483180999756</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>3.309151172637939</v>
+        <v>5.563094139099121</v>
       </c>
       <c r="B79">
-        <v>122.4280166625977</v>
+        <v>120.3656692504883</v>
       </c>
       <c r="C79">
-        <v>88.988525390625</v>
+        <v>304.9938049316406</v>
       </c>
       <c r="D79">
-        <v>11.2092981338501</v>
+        <v>4.998473644256592</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>3.308558702468872</v>
+        <v>5.56621265411377</v>
       </c>
       <c r="B80">
-        <v>122.429084777832</v>
+        <v>120.3610610961914</v>
       </c>
       <c r="C80">
-        <v>88.99628448486328</v>
+        <v>304.9937744140625</v>
       </c>
       <c r="D80">
-        <v>11.20956039428711</v>
+        <v>4.998464107513428</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>3.307969093322754</v>
+        <v>5.569318294525146</v>
       </c>
       <c r="B81">
-        <v>122.4301452636719</v>
+        <v>120.3564682006836</v>
       </c>
       <c r="C81">
-        <v>89.00405120849609</v>
+        <v>304.9937744140625</v>
       </c>
       <c r="D81">
-        <v>11.20982360839844</v>
+        <v>4.998454570770264</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>3.307382345199585</v>
+        <v>5.572417736053467</v>
       </c>
       <c r="B82">
-        <v>122.4311904907227</v>
+        <v>120.3518905639648</v>
       </c>
       <c r="C82">
-        <v>89.01186370849609</v>
+        <v>304.9937438964844</v>
       </c>
       <c r="D82">
-        <v>11.21008586883545</v>
+        <v>4.9984450340271</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>3.306798458099365</v>
+        <v>5.575517654418945</v>
       </c>
       <c r="B83">
-        <v>122.4322357177734</v>
+        <v>120.3473129272461</v>
       </c>
       <c r="C83">
-        <v>89.01970672607422</v>
+        <v>304.9937133789062</v>
       </c>
       <c r="D83">
-        <v>11.21034717559814</v>
+        <v>4.998435020446777</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>3.306218147277832</v>
+        <v>5.57860279083252</v>
       </c>
       <c r="B84">
-        <v>122.4332809448242</v>
+        <v>120.3427581787109</v>
       </c>
       <c r="C84">
-        <v>89.02761077880859</v>
+        <v>304.9937133789062</v>
       </c>
       <c r="D84">
-        <v>11.21060943603516</v>
+        <v>4.998425483703613</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>3.30564022064209</v>
+        <v>5.581687450408936</v>
       </c>
       <c r="B85">
-        <v>122.4343109130859</v>
+        <v>120.3382034301758</v>
       </c>
       <c r="C85">
-        <v>89.03553009033203</v>
+        <v>304.9936828613281</v>
       </c>
       <c r="D85">
-        <v>11.21087169647217</v>
+        <v>4.998415470123291</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>3.305065393447876</v>
+        <v>5.584765434265137</v>
       </c>
       <c r="B86">
-        <v>122.4353408813477</v>
+        <v>120.3336486816406</v>
       </c>
       <c r="C86">
-        <v>89.04350280761719</v>
+        <v>304.99365234375</v>
       </c>
       <c r="D86">
-        <v>11.21113395690918</v>
+        <v>4.998405456542969</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>3.304493188858032</v>
+        <v>5.587835788726807</v>
       </c>
       <c r="B87">
-        <v>122.4363632202148</v>
+        <v>120.3291091918945</v>
       </c>
       <c r="C87">
-        <v>89.05149841308594</v>
+        <v>304.99365234375</v>
       </c>
       <c r="D87">
-        <v>11.21139526367188</v>
+        <v>4.998395442962646</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>3.303924322128296</v>
+        <v>5.590892791748047</v>
       </c>
       <c r="B88">
-        <v>122.4373779296875</v>
+        <v>120.3246002197266</v>
       </c>
       <c r="C88">
-        <v>89.05953979492188</v>
+        <v>304.9936218261719</v>
       </c>
       <c r="D88">
-        <v>11.21165657043457</v>
+        <v>4.998385429382324</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>3.30335807800293</v>
+        <v>5.593949317932129</v>
       </c>
       <c r="B89">
-        <v>122.4383926391602</v>
+        <v>120.320068359375</v>
       </c>
       <c r="C89">
-        <v>89.06761932373047</v>
+        <v>304.9935913085938</v>
       </c>
       <c r="D89">
-        <v>11.21191787719727</v>
+        <v>4.998374938964844</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>3.302794694900513</v>
+        <v>5.597000122070312</v>
       </c>
       <c r="B90">
-        <v>122.4393997192383</v>
+        <v>120.315559387207</v>
       </c>
       <c r="C90">
-        <v>89.07575225830078</v>
+        <v>304.9935913085938</v>
       </c>
       <c r="D90">
-        <v>11.21218013763428</v>
+        <v>4.998364448547363</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>3.302233934402466</v>
+        <v>5.60003662109375</v>
       </c>
       <c r="B91">
-        <v>122.4403991699219</v>
+        <v>120.3110733032227</v>
       </c>
       <c r="C91">
-        <v>89.08388519287109</v>
+        <v>304.9935607910156</v>
       </c>
       <c r="D91">
-        <v>11.21244049072266</v>
+        <v>4.998354434967041</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>3.301676750183105</v>
+        <v>5.603074073791504</v>
       </c>
       <c r="B92">
-        <v>122.4413986206055</v>
+        <v>120.3065872192383</v>
       </c>
       <c r="C92">
-        <v>89.09210205078125</v>
+        <v>304.9935302734375</v>
       </c>
       <c r="D92">
-        <v>11.21270179748535</v>
+        <v>4.998343944549561</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>3.301121473312378</v>
+        <v>5.606099128723145</v>
       </c>
       <c r="B93">
-        <v>122.4423904418945</v>
+        <v>120.3021087646484</v>
       </c>
       <c r="C93">
-        <v>89.10032653808594</v>
+        <v>304.9935302734375</v>
       </c>
       <c r="D93">
-        <v>11.21296215057373</v>
+        <v>4.998332977294922</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>3.300570011138916</v>
+        <v>5.60911750793457</v>
       </c>
       <c r="B94">
-        <v>122.4433746337891</v>
+        <v>120.2976379394531</v>
       </c>
       <c r="C94">
-        <v>89.10863494873047</v>
+        <v>304.9934997558594</v>
       </c>
       <c r="D94">
-        <v>11.21322441101074</v>
+        <v>4.998322486877441</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>3.300020456314087</v>
+        <v>5.612134456634521</v>
       </c>
       <c r="B95">
-        <v>122.4443588256836</v>
+        <v>120.2931747436523</v>
       </c>
       <c r="C95">
-        <v>89.11691284179688</v>
+        <v>304.9934692382812</v>
       </c>
       <c r="D95">
-        <v>11.21348476409912</v>
+        <v>4.998311519622803</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>3.299474477767944</v>
+        <v>5.615145206451416</v>
       </c>
       <c r="B96">
-        <v>122.4453277587891</v>
+        <v>120.2887344360352</v>
       </c>
       <c r="C96">
-        <v>89.12527465820312</v>
+        <v>304.9934692382812</v>
       </c>
       <c r="D96">
-        <v>11.2137451171875</v>
+        <v>4.998301029205322</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>3.298930644989014</v>
+        <v>5.618147850036621</v>
       </c>
       <c r="B97">
-        <v>122.4463043212891</v>
+        <v>120.2842864990234</v>
       </c>
       <c r="C97">
-        <v>89.13365936279297</v>
+        <v>304.9934387207031</v>
       </c>
       <c r="D97">
-        <v>11.21400451660156</v>
+        <v>4.998290061950684</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>3.298389911651611</v>
+        <v>5.621137619018555</v>
       </c>
       <c r="B98">
-        <v>122.4472732543945</v>
+        <v>120.2798690795898</v>
       </c>
       <c r="C98">
-        <v>89.14211273193359</v>
+        <v>304.993408203125</v>
       </c>
       <c r="D98">
-        <v>11.21426582336426</v>
+        <v>4.998279094696045</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>3.297851800918579</v>
+        <v>5.624127388000488</v>
       </c>
       <c r="B99">
-        <v>122.4482345581055</v>
+        <v>120.2754287719727</v>
       </c>
       <c r="C99">
-        <v>89.15057373046875</v>
+        <v>304.993408203125</v>
       </c>
       <c r="D99">
-        <v>11.21452617645264</v>
+        <v>4.998268127441406</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>3.297316551208496</v>
+        <v>5.627110481262207</v>
       </c>
       <c r="B100">
-        <v>122.4491958618164</v>
+        <v>120.2710266113281</v>
       </c>
       <c r="C100">
-        <v>89.15909576416016</v>
+        <v>304.9933776855469</v>
       </c>
       <c r="D100">
-        <v>11.2147855758667</v>
+        <v>4.998257160186768</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>3.296784400939941</v>
+        <v>5.630080223083496</v>
       </c>
       <c r="B101">
-        <v>122.4501495361328</v>
+        <v>120.2666320800781</v>
       </c>
       <c r="C101">
-        <v>89.16765594482422</v>
+        <v>304.9933471679688</v>
       </c>
       <c r="D101">
-        <v>11.21504497528076</v>
+        <v>4.998245716094971</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>3.296254396438599</v>
+        <v>5.633049488067627</v>
       </c>
       <c r="B102">
-        <v>122.4511032104492</v>
+        <v>120.2622375488281</v>
       </c>
       <c r="C102">
-        <v>89.17623901367188</v>
+        <v>304.9933471679688</v>
       </c>
       <c r="D102">
-        <v>11.21530532836914</v>
+        <v>4.998234748840332</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>3.295727252960205</v>
+        <v>5.636013031005859</v>
       </c>
       <c r="B103">
-        <v>122.4520492553711</v>
+        <v>120.2578430175781</v>
       </c>
       <c r="C103">
-        <v>89.18489074707031</v>
+        <v>304.9933166503906</v>
       </c>
       <c r="D103">
-        <v>11.2155647277832</v>
+        <v>4.998223304748535</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>3.295202493667603</v>
+        <v>5.638962745666504</v>
       </c>
       <c r="B104">
-        <v>122.452995300293</v>
+        <v>120.2534790039062</v>
       </c>
       <c r="C104">
-        <v>89.19354248046875</v>
+        <v>304.9932861328125</v>
       </c>
       <c r="D104">
-        <v>11.21582412719727</v>
+        <v>4.998211860656738</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>3.294681310653687</v>
+        <v>5.641907691955566</v>
       </c>
       <c r="B105">
-        <v>122.4539337158203</v>
+        <v>120.2491302490234</v>
       </c>
       <c r="C105">
-        <v>89.20227813720703</v>
+        <v>304.9932556152344</v>
       </c>
       <c r="D105">
-        <v>11.21608352661133</v>
+        <v>4.998200416564941</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>3.294162034988403</v>
+        <v>5.644852161407471</v>
       </c>
       <c r="B106">
-        <v>122.4548645019531</v>
+        <v>120.244758605957</v>
       </c>
       <c r="C106">
-        <v>89.21102142333984</v>
+        <v>304.9932556152344</v>
       </c>
       <c r="D106">
-        <v>11.21634197235107</v>
+        <v>4.998188972473145</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>3.293645620346069</v>
+        <v>5.64778995513916</v>
       </c>
       <c r="B107">
-        <v>122.4557952880859</v>
+        <v>120.2404098510742</v>
       </c>
       <c r="C107">
-        <v>89.21981811523438</v>
+        <v>304.9932250976562</v>
       </c>
       <c r="D107">
-        <v>11.21660137176514</v>
+        <v>4.998177051544189</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>3.293131828308105</v>
+        <v>5.650712966918945</v>
       </c>
       <c r="B108">
-        <v>122.4567337036133</v>
+        <v>120.236083984375</v>
       </c>
       <c r="C108">
-        <v>89.22865295410156</v>
+        <v>304.9931945800781</v>
       </c>
       <c r="D108">
-        <v>11.2168607711792</v>
+        <v>4.998165607452393</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>3.29262113571167</v>
+        <v>5.65363597869873</v>
       </c>
       <c r="B109">
-        <v>122.4576568603516</v>
+        <v>120.2317581176758</v>
       </c>
       <c r="C109">
-        <v>89.23753356933594</v>
+        <v>304.9931945800781</v>
       </c>
       <c r="D109">
-        <v>11.21711826324463</v>
+        <v>4.998153686523438</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>3.292112350463867</v>
+        <v>5.656553268432617</v>
       </c>
       <c r="B110">
-        <v>122.4585723876953</v>
+        <v>120.227424621582</v>
       </c>
       <c r="C110">
-        <v>89.24643707275391</v>
+        <v>304.9931640625</v>
       </c>
       <c r="D110">
-        <v>11.21737670898438</v>
+        <v>4.998141765594482</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>3.291606664657593</v>
+        <v>5.659456729888916</v>
       </c>
       <c r="B111">
-        <v>122.4594955444336</v>
+        <v>120.2231292724609</v>
       </c>
       <c r="C111">
-        <v>89.25540924072266</v>
+        <v>304.9931335449219</v>
       </c>
       <c r="D111">
-        <v>11.2176342010498</v>
+        <v>4.998130321502686</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>3.291103601455688</v>
+        <v>5.662360191345215</v>
       </c>
       <c r="B112">
-        <v>122.4604034423828</v>
+        <v>120.2188262939453</v>
       </c>
       <c r="C112">
-        <v>89.26439666748047</v>
+        <v>304.9931335449219</v>
       </c>
       <c r="D112">
-        <v>11.21789264678955</v>
+        <v>4.998117923736572</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>3.290603160858154</v>
+        <v>5.665256977081299</v>
       </c>
       <c r="B113">
-        <v>122.461311340332</v>
+        <v>120.2145462036133</v>
       </c>
       <c r="C113">
-        <v>89.27345275878906</v>
+        <v>304.9931030273438</v>
       </c>
       <c r="D113">
-        <v>11.21815013885498</v>
+        <v>4.998106002807617</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>3.290105104446411</v>
+        <v>5.66814136505127</v>
       </c>
       <c r="B114">
-        <v>122.4622192382812</v>
+        <v>120.2102661132812</v>
       </c>
       <c r="C114">
-        <v>89.28253173828125</v>
+        <v>304.9930725097656</v>
       </c>
       <c r="D114">
-        <v>11.21840858459473</v>
+        <v>4.998094081878662</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>3.289609670639038</v>
+        <v>5.671024322509766</v>
       </c>
       <c r="B115">
-        <v>122.4631271362305</v>
+        <v>120.2059936523438</v>
       </c>
       <c r="C115">
-        <v>89.29164886474609</v>
+        <v>304.9930725097656</v>
       </c>
       <c r="D115">
-        <v>11.21866512298584</v>
+        <v>4.998081684112549</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>3.289116859436035</v>
+        <v>5.67390251159668</v>
       </c>
       <c r="B116">
-        <v>122.4640274047852</v>
+        <v>120.2017211914062</v>
       </c>
       <c r="C116">
-        <v>89.30080413818359</v>
+        <v>304.9930419921875</v>
       </c>
       <c r="D116">
-        <v>11.21892356872559</v>
+        <v>4.998069763183594</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>3.288626670837402</v>
+        <v>5.676767826080322</v>
       </c>
       <c r="B117">
-        <v>122.4649276733398</v>
+        <v>120.1974792480469</v>
       </c>
       <c r="C117">
-        <v>89.31002807617188</v>
+        <v>304.9930114746094</v>
       </c>
       <c r="D117">
-        <v>11.2191801071167</v>
+        <v>4.99805736541748</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>3.288138866424561</v>
+        <v>5.67962646484375</v>
       </c>
       <c r="B118">
-        <v>122.4658126831055</v>
+        <v>120.193244934082</v>
       </c>
       <c r="C118">
-        <v>89.31924438476562</v>
+        <v>304.9930114746094</v>
       </c>
       <c r="D118">
-        <v>11.21943664550781</v>
+        <v>4.998044967651367</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>3.287653684616089</v>
+        <v>5.68248462677002</v>
       </c>
       <c r="B119">
-        <v>122.4667129516602</v>
+        <v>120.1890106201172</v>
       </c>
       <c r="C119">
-        <v>89.32854461669922</v>
+        <v>304.9929809570312</v>
       </c>
       <c r="D119">
-        <v>11.21969318389893</v>
+        <v>4.998032569885254</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>3.287171125411987</v>
+        <v>5.685337066650391</v>
       </c>
       <c r="B120">
-        <v>122.4676055908203</v>
+        <v>120.1847763061523</v>
       </c>
       <c r="C120">
-        <v>89.33786010742188</v>
+        <v>304.9929504394531</v>
       </c>
       <c r="D120">
-        <v>11.21994972229004</v>
+        <v>4.998020172119141</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>3.286690950393677</v>
+        <v>5.688175201416016</v>
       </c>
       <c r="B121">
-        <v>122.4684829711914</v>
+        <v>120.1805725097656</v>
       </c>
       <c r="C121">
-        <v>89.34723663330078</v>
+        <v>304.992919921875</v>
       </c>
       <c r="D121">
-        <v>11.22020721435547</v>
+        <v>4.998007774353027</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>3.286213159561157</v>
+        <v>5.691013813018799</v>
       </c>
       <c r="B122">
-        <v>122.469367980957</v>
+        <v>120.1763687133789</v>
       </c>
       <c r="C122">
-        <v>89.35661315917969</v>
+        <v>304.992919921875</v>
       </c>
       <c r="D122">
-        <v>11.22046375274658</v>
+        <v>4.997994899749756</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>3.285738229751587</v>
+        <v>5.693845272064209</v>
       </c>
       <c r="B123">
-        <v>122.4702453613281</v>
+        <v>120.1721572875977</v>
       </c>
       <c r="C123">
-        <v>89.36607360839844</v>
+        <v>304.9928894042969</v>
       </c>
       <c r="D123">
-        <v>11.22071933746338</v>
+        <v>4.997982501983643</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>3.285265445709229</v>
+        <v>5.696664333343506</v>
       </c>
       <c r="B124">
-        <v>122.4711303710938</v>
+        <v>120.1679840087891</v>
       </c>
       <c r="C124">
-        <v>89.37555694580078</v>
+        <v>304.9928588867188</v>
       </c>
       <c r="D124">
-        <v>11.22097396850586</v>
+        <v>4.997969627380371</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>3.28479528427124</v>
+        <v>5.699483871459961</v>
       </c>
       <c r="B125">
-        <v>122.4720001220703</v>
+        <v>120.1638031005859</v>
       </c>
       <c r="C125">
-        <v>89.38510131835938</v>
+        <v>304.9928588867188</v>
       </c>
       <c r="D125">
-        <v>11.22123146057129</v>
+        <v>4.9979567527771</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>3.284327507019043</v>
+        <v>5.702296257019043</v>
       </c>
       <c r="B126">
-        <v>122.4728775024414</v>
+        <v>120.1596374511719</v>
       </c>
       <c r="C126">
-        <v>89.39466094970703</v>
+        <v>304.9928283691406</v>
       </c>
       <c r="D126">
-        <v>11.22148609161377</v>
+        <v>4.997943878173828</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>3.283862352371216</v>
+        <v>5.705102443695068</v>
       </c>
       <c r="B127">
-        <v>122.473747253418</v>
+        <v>120.1554718017578</v>
       </c>
       <c r="C127">
-        <v>89.40425872802734</v>
+        <v>304.9927978515625</v>
       </c>
       <c r="D127">
-        <v>11.22174072265625</v>
+        <v>4.997931003570557</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>3.28339958190918</v>
+        <v>5.707889556884766</v>
       </c>
       <c r="B128">
-        <v>122.474609375</v>
+        <v>120.1513290405273</v>
       </c>
       <c r="C128">
-        <v>89.41391754150391</v>
+        <v>304.9927978515625</v>
       </c>
       <c r="D128">
-        <v>11.22199630737305</v>
+        <v>4.997918128967285</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>3.282939434051514</v>
+        <v>5.710684776306152</v>
       </c>
       <c r="B129">
-        <v>122.4754791259766</v>
+        <v>120.1471939086914</v>
       </c>
       <c r="C129">
-        <v>89.42362213134766</v>
+        <v>304.9927673339844</v>
       </c>
       <c r="D129">
-        <v>11.22225093841553</v>
+        <v>4.997904777526855</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>3.28248143196106</v>
+        <v>5.71347188949585</v>
       </c>
       <c r="B130">
-        <v>122.4763412475586</v>
+        <v>120.1430511474609</v>
       </c>
       <c r="C130">
-        <v>89.43333435058594</v>
+        <v>304.9927368164062</v>
       </c>
       <c r="D130">
-        <v>11.22250556945801</v>
+        <v>4.997891902923584</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>3.282025814056396</v>
+        <v>5.71624755859375</v>
       </c>
       <c r="B131">
-        <v>122.4771957397461</v>
+        <v>120.1389389038086</v>
       </c>
       <c r="C131">
-        <v>89.44313049316406</v>
+        <v>304.9927062988281</v>
       </c>
       <c r="D131">
-        <v>11.22275924682617</v>
+        <v>4.997879028320312</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>3.281572580337524</v>
+        <v>5.719020843505859</v>
       </c>
       <c r="B132">
-        <v>122.4780654907227</v>
+        <v>120.1348266601562</v>
       </c>
       <c r="C132">
-        <v>89.45292663574219</v>
+        <v>304.9927062988281</v>
       </c>
       <c r="D132">
-        <v>11.22301387786865</v>
+        <v>4.997865676879883</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>3.281121969223022</v>
+        <v>5.721789360046387</v>
       </c>
       <c r="B133">
-        <v>122.4789199829102</v>
+        <v>120.1307144165039</v>
       </c>
       <c r="C133">
-        <v>89.46276092529297</v>
+        <v>304.99267578125</v>
       </c>
       <c r="D133">
-        <v>11.22326755523682</v>
+        <v>4.997852325439453</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>3.280673742294312</v>
+        <v>5.724544048309326</v>
       </c>
       <c r="B134">
-        <v>122.4797668457031</v>
+        <v>120.1266250610352</v>
       </c>
       <c r="C134">
-        <v>89.47266387939453</v>
+        <v>304.9926452636719</v>
       </c>
       <c r="D134">
-        <v>11.22352123260498</v>
+        <v>4.997838973999023</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>3.280227422714233</v>
+        <v>5.727299213409424</v>
       </c>
       <c r="B135">
-        <v>122.4806213378906</v>
+        <v>120.1225433349609</v>
       </c>
       <c r="C135">
-        <v>89.48258972167969</v>
+        <v>304.9926452636719</v>
       </c>
       <c r="D135">
-        <v>11.22377586364746</v>
+        <v>4.997825622558594</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>3.279784202575684</v>
+        <v>5.730047702789307</v>
       </c>
       <c r="B136">
-        <v>122.4814682006836</v>
+        <v>120.1184539794922</v>
       </c>
       <c r="C136">
-        <v>89.49256896972656</v>
+        <v>304.9926147460938</v>
       </c>
       <c r="D136">
-        <v>11.22402858734131</v>
+        <v>4.997812271118164</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>3.279342651367188</v>
+        <v>5.732790470123291</v>
       </c>
       <c r="B137">
-        <v>122.4823150634766</v>
+        <v>120.1143798828125</v>
       </c>
       <c r="C137">
-        <v>89.50257873535156</v>
+        <v>304.9925842285156</v>
       </c>
       <c r="D137">
-        <v>11.22428131103516</v>
+        <v>4.997798919677734</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>3.278903961181641</v>
+        <v>5.735519886016846</v>
       </c>
       <c r="B138">
-        <v>122.483154296875</v>
+        <v>120.1103363037109</v>
       </c>
       <c r="C138">
-        <v>89.51263427734375</v>
+        <v>304.9925842285156</v>
       </c>
       <c r="D138">
-        <v>11.224534034729</v>
+        <v>4.997785568237305</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>3.278467416763306</v>
+        <v>5.738249778747559</v>
       </c>
       <c r="B139">
-        <v>122.484001159668</v>
+        <v>120.1062774658203</v>
       </c>
       <c r="C139">
-        <v>89.52272033691406</v>
+        <v>304.9925537109375</v>
       </c>
       <c r="D139">
-        <v>11.22478675842285</v>
+        <v>4.997771739959717</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>3.278033256530762</v>
+        <v>5.740968704223633</v>
       </c>
       <c r="B140">
-        <v>122.4848403930664</v>
+        <v>120.1022415161133</v>
       </c>
       <c r="C140">
-        <v>89.53286743164062</v>
+        <v>304.9925231933594</v>
       </c>
       <c r="D140">
-        <v>11.2250394821167</v>
+        <v>4.997758388519287</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>3.27760124206543</v>
+        <v>5.743679523468018</v>
       </c>
       <c r="B141">
-        <v>122.4856796264648</v>
+        <v>120.0982131958008</v>
       </c>
       <c r="C141">
-        <v>89.54303741455078</v>
+        <v>304.9925231933594</v>
       </c>
       <c r="D141">
-        <v>11.22529220581055</v>
+        <v>4.997744560241699</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>3.277171611785889</v>
+        <v>5.746391773223877</v>
       </c>
       <c r="B142">
-        <v>122.4865188598633</v>
+        <v>120.0941925048828</v>
       </c>
       <c r="C142">
-        <v>89.55325317382812</v>
+        <v>304.9924926757812</v>
       </c>
       <c r="D142">
-        <v>11.22554302215576</v>
+        <v>4.997730731964111</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>3.27674412727356</v>
+        <v>5.749096870422363</v>
       </c>
       <c r="B143">
-        <v>122.4873504638672</v>
+        <v>120.0901718139648</v>
       </c>
       <c r="C143">
-        <v>89.56349945068359</v>
+        <v>304.9924621582031</v>
       </c>
       <c r="D143">
-        <v>11.22579479217529</v>
+        <v>4.997716903686523</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>3.276319265365601</v>
+        <v>5.751789093017578</v>
       </c>
       <c r="B144">
-        <v>122.4881896972656</v>
+        <v>120.0861663818359</v>
       </c>
       <c r="C144">
-        <v>89.57379913330078</v>
+        <v>304.992431640625</v>
       </c>
       <c r="D144">
-        <v>11.22604656219482</v>
+        <v>4.997703075408936</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>3.275896549224854</v>
+        <v>5.754481792449951</v>
       </c>
       <c r="B145">
-        <v>122.4890213012695</v>
+        <v>120.0821762084961</v>
       </c>
       <c r="C145">
-        <v>89.58412170410156</v>
+        <v>304.992431640625</v>
       </c>
       <c r="D145">
-        <v>11.22629737854004</v>
+        <v>4.997689247131348</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>3.275476217269897</v>
+        <v>5.757167816162109</v>
       </c>
       <c r="B146">
-        <v>122.4898529052734</v>
+        <v>120.0781860351562</v>
       </c>
       <c r="C146">
-        <v>89.59449005126953</v>
+        <v>304.9924011230469</v>
       </c>
       <c r="D146">
-        <v>11.22654914855957</v>
+        <v>4.99767541885376</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>3.275058031082153</v>
+        <v>5.759847640991211</v>
       </c>
       <c r="B147">
-        <v>122.4906768798828</v>
+        <v>120.0742034912109</v>
       </c>
       <c r="C147">
-        <v>89.60489654541016</v>
+        <v>304.9923706054688</v>
       </c>
       <c r="D147">
-        <v>11.2268009185791</v>
+        <v>4.997661590576172</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>3.274641990661621</v>
+        <v>5.762514591217041</v>
       </c>
       <c r="B148">
-        <v>122.4915008544922</v>
+        <v>120.0702362060547</v>
       </c>
       <c r="C148">
-        <v>89.61534881591797</v>
+        <v>304.9923706054688</v>
       </c>
       <c r="D148">
-        <v>11.22705078125</v>
+        <v>4.997647762298584</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>3.27422833442688</v>
+        <v>5.765182018280029</v>
       </c>
       <c r="B149">
-        <v>122.4923248291016</v>
+        <v>120.0662689208984</v>
       </c>
       <c r="C149">
-        <v>89.62583923339844</v>
+        <v>304.9923400878906</v>
       </c>
       <c r="D149">
-        <v>11.2273006439209</v>
+        <v>4.997633457183838</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>3.27381706237793</v>
+        <v>5.767843723297119</v>
       </c>
       <c r="B150">
-        <v>122.4931488037109</v>
+        <v>120.0623168945312</v>
       </c>
       <c r="C150">
-        <v>89.63636779785156</v>
+        <v>304.9923095703125</v>
       </c>
       <c r="D150">
-        <v>11.2275505065918</v>
+        <v>4.99761962890625</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>3.273407697677612</v>
+        <v>5.770492076873779</v>
       </c>
       <c r="B151">
-        <v>122.4939727783203</v>
+        <v>120.0583801269531</v>
       </c>
       <c r="C151">
-        <v>89.64693450927734</v>
+        <v>304.9923095703125</v>
       </c>
       <c r="D151">
-        <v>11.22780132293701</v>
+        <v>4.997605323791504</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>3.273000955581665</v>
+        <v>5.773135185241699</v>
       </c>
       <c r="B152">
-        <v>122.4947891235352</v>
+        <v>120.0544509887695</v>
       </c>
       <c r="C152">
-        <v>89.65755462646484</v>
+        <v>304.9922790527344</v>
       </c>
       <c r="D152">
-        <v>11.22805118560791</v>
+        <v>4.997591018676758</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>3.272596120834351</v>
+        <v>5.775779724121094</v>
       </c>
       <c r="B153">
-        <v>122.4956130981445</v>
+        <v>120.0505294799805</v>
       </c>
       <c r="C153">
-        <v>89.66819000244141</v>
+        <v>304.9922485351562</v>
       </c>
       <c r="D153">
-        <v>11.22830104827881</v>
+        <v>4.99757719039917</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>3.272193908691406</v>
+        <v>5.778409957885742</v>
       </c>
       <c r="B154">
-        <v>122.4964294433594</v>
+        <v>120.0466156005859</v>
       </c>
       <c r="C154">
-        <v>89.67888641357422</v>
+        <v>304.9922180175781</v>
       </c>
       <c r="D154">
-        <v>11.22854995727539</v>
+        <v>4.997562885284424</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>3.271792888641357</v>
+        <v>5.781041145324707</v>
       </c>
       <c r="B155">
-        <v>122.4972381591797</v>
+        <v>120.0427017211914</v>
       </c>
       <c r="C155">
-        <v>89.68960571289062</v>
+        <v>304.9922180175781</v>
       </c>
       <c r="D155">
-        <v>11.22879886627197</v>
+        <v>4.997548580169678</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>3.271394968032837</v>
+        <v>5.783666133880615</v>
       </c>
       <c r="B156">
-        <v>122.4980545043945</v>
+        <v>120.0388031005859</v>
       </c>
       <c r="C156">
-        <v>89.70036315917969</v>
+        <v>304.9921875</v>
       </c>
       <c r="D156">
-        <v>11.22904777526855</v>
+        <v>4.997534275054932</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>3.270999193191528</v>
+        <v>5.786284923553467</v>
       </c>
       <c r="B157">
-        <v>122.4988708496094</v>
+        <v>120.0349044799805</v>
       </c>
       <c r="C157">
-        <v>89.71115875244141</v>
+        <v>304.9921569824219</v>
       </c>
       <c r="D157">
-        <v>11.22929573059082</v>
+        <v>4.997519969940186</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>3.270605325698853</v>
+        <v>5.788889408111572</v>
       </c>
       <c r="B158">
-        <v>122.4996795654297</v>
+        <v>120.0310363769531</v>
       </c>
       <c r="C158">
-        <v>89.72201538085938</v>
+        <v>304.9921569824219</v>
       </c>
       <c r="D158">
-        <v>11.2295446395874</v>
+        <v>4.997505664825439</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>3.270213603973389</v>
+        <v>5.791495800018311</v>
       </c>
       <c r="B159">
-        <v>122.50048828125</v>
+        <v>120.0271606445312</v>
       </c>
       <c r="C159">
-        <v>89.73287200927734</v>
+        <v>304.9921264648438</v>
       </c>
       <c r="D159">
-        <v>11.22979259490967</v>
+        <v>4.997490882873535</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>3.269824028015137</v>
+        <v>5.794095993041992</v>
       </c>
       <c r="B160">
-        <v>122.5013046264648</v>
+        <v>120.0233001708984</v>
       </c>
       <c r="C160">
-        <v>89.74380493164062</v>
+        <v>304.9920959472656</v>
       </c>
       <c r="D160">
-        <v>11.23003959655762</v>
+        <v>4.997476577758789</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>3.269436836242676</v>
+        <v>5.796682834625244</v>
       </c>
       <c r="B161">
-        <v>122.5021057128906</v>
+        <v>120.0194549560547</v>
       </c>
       <c r="C161">
-        <v>89.75476837158203</v>
+        <v>304.9920959472656</v>
       </c>
       <c r="D161">
-        <v>11.23028755187988</v>
+        <v>4.997462272644043</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>3.269051551818848</v>
+        <v>5.799271106719971</v>
       </c>
       <c r="B162">
-        <v>122.5029144287109</v>
+        <v>120.0155944824219</v>
       </c>
       <c r="C162">
-        <v>89.76575469970703</v>
+        <v>304.9920654296875</v>
       </c>
       <c r="D162">
-        <v>11.23053455352783</v>
+        <v>4.997447490692139</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>3.268668413162231</v>
+        <v>5.801846504211426</v>
       </c>
       <c r="B163">
-        <v>122.5037155151367</v>
+        <v>120.0117645263672</v>
       </c>
       <c r="C163">
-        <v>89.77677917480469</v>
+        <v>304.9920349121094</v>
       </c>
       <c r="D163">
-        <v>11.2307825088501</v>
+        <v>4.997433185577393</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>3.268287181854248</v>
+        <v>5.804417133331299</v>
       </c>
       <c r="B164">
-        <v>122.5045166015625</v>
+        <v>120.0079498291016</v>
       </c>
       <c r="C164">
-        <v>89.78785705566406</v>
+        <v>304.9920043945312</v>
       </c>
       <c r="D164">
-        <v>11.23102951049805</v>
+        <v>4.997418403625488</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>3.267908811569214</v>
+        <v>5.806987762451172</v>
       </c>
       <c r="B165">
-        <v>122.5053176879883</v>
+        <v>120.0041275024414</v>
       </c>
       <c r="C165">
-        <v>89.79896545410156</v>
+        <v>304.9920043945312</v>
       </c>
       <c r="D165">
-        <v>11.23127555847168</v>
+        <v>4.997403621673584</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>3.267531633377075</v>
+        <v>5.809552192687988</v>
       </c>
       <c r="B166">
-        <v>122.5061187744141</v>
+        <v>120.0003051757812</v>
       </c>
       <c r="C166">
-        <v>89.81013488769531</v>
+        <v>304.9919738769531</v>
       </c>
       <c r="D166">
-        <v>11.23152160644531</v>
+        <v>4.99738883972168</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>3.267157077789307</v>
+        <v>5.81210994720459</v>
       </c>
       <c r="B167">
-        <v>122.5069198608398</v>
+        <v>119.9965057373047</v>
       </c>
       <c r="C167">
-        <v>89.82130432128906</v>
+        <v>304.991943359375</v>
       </c>
       <c r="D167">
-        <v>11.23176765441895</v>
+        <v>4.997374534606934</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>3.266784429550171</v>
+        <v>5.814654350280762</v>
       </c>
       <c r="B168">
-        <v>122.5077209472656</v>
+        <v>119.9927139282227</v>
       </c>
       <c r="C168">
-        <v>89.83251953125</v>
+        <v>304.991943359375</v>
       </c>
       <c r="D168">
-        <v>11.23201370239258</v>
+        <v>4.997359752655029</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>3.266414165496826</v>
+        <v>5.817200183868408</v>
       </c>
       <c r="B169">
-        <v>122.5085144042969</v>
+        <v>119.9889297485352</v>
       </c>
       <c r="C169">
-        <v>89.84381103515625</v>
+        <v>304.9919128417969</v>
       </c>
       <c r="D169">
-        <v>11.23225975036621</v>
+        <v>4.997344970703125</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>3.266045570373535</v>
+        <v>5.819740772247314</v>
       </c>
       <c r="B170">
-        <v>122.5093078613281</v>
+        <v>119.9851531982422</v>
       </c>
       <c r="C170">
-        <v>89.85508728027344</v>
+        <v>304.9918823242188</v>
       </c>
       <c r="D170">
-        <v>11.23250484466553</v>
+        <v>4.997330188751221</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>3.265679359436035</v>
+        <v>5.822267532348633</v>
       </c>
       <c r="B171">
-        <v>122.5101013183594</v>
+        <v>119.9813842773438</v>
       </c>
       <c r="C171">
-        <v>89.86643981933594</v>
+        <v>304.9918823242188</v>
       </c>
       <c r="D171">
-        <v>11.23274993896484</v>
+        <v>4.997315406799316</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>3.265315055847168</v>
+        <v>5.824794769287109</v>
       </c>
       <c r="B172">
-        <v>122.5108947753906</v>
+        <v>119.9776382446289</v>
       </c>
       <c r="C172">
-        <v>89.87778472900391</v>
+        <v>304.9918518066406</v>
       </c>
       <c r="D172">
-        <v>11.23299407958984</v>
+        <v>4.997300624847412</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>3.264952898025513</v>
+        <v>5.827317237854004</v>
       </c>
       <c r="B173">
-        <v>122.5116806030273</v>
+        <v>119.9738693237305</v>
       </c>
       <c r="C173">
-        <v>89.88921356201172</v>
+        <v>304.9918212890625</v>
       </c>
       <c r="D173">
-        <v>11.23323917388916</v>
+        <v>4.99728536605835</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>3.26459264755249</v>
+        <v>5.829825878143311</v>
       </c>
       <c r="B174">
-        <v>122.5124816894531</v>
+        <v>119.9701461791992</v>
       </c>
       <c r="C174">
-        <v>89.90066528320312</v>
+        <v>304.9917907714844</v>
       </c>
       <c r="D174">
-        <v>11.23348426818848</v>
+        <v>4.997270584106445</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>3.264234304428101</v>
+        <v>5.832329750061035</v>
       </c>
       <c r="B175">
-        <v>122.5132675170898</v>
+        <v>119.9664154052734</v>
       </c>
       <c r="C175">
-        <v>89.91215515136719</v>
+        <v>304.9917907714844</v>
       </c>
       <c r="D175">
-        <v>11.23372745513916</v>
+        <v>4.997255802154541</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>3.263878107070923</v>
+        <v>5.834834575653076</v>
       </c>
       <c r="B176">
-        <v>122.5140533447266</v>
+        <v>119.9626770019531</v>
       </c>
       <c r="C176">
-        <v>89.92366790771484</v>
+        <v>304.9917602539062</v>
       </c>
       <c r="D176">
-        <v>11.23397064208984</v>
+        <v>4.997240543365479</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>3.263524055480957</v>
+        <v>5.837333679199219</v>
       </c>
       <c r="B177">
-        <v>122.5148468017578</v>
+        <v>119.9589691162109</v>
       </c>
       <c r="C177">
-        <v>89.93524932861328</v>
+        <v>304.9917297363281</v>
       </c>
       <c r="D177">
-        <v>11.23421573638916</v>
+        <v>4.997225761413574</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>3.263172149658203</v>
+        <v>5.839818954467773</v>
       </c>
       <c r="B178">
-        <v>122.5156326293945</v>
+        <v>119.9552688598633</v>
       </c>
       <c r="C178">
-        <v>89.94683837890625</v>
+        <v>304.9917297363281</v>
       </c>
       <c r="D178">
-        <v>11.23445796966553</v>
+        <v>4.99721097946167</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>3.262821912765503</v>
+        <v>5.842305660247803</v>
       </c>
       <c r="B179">
-        <v>122.5164184570312</v>
+        <v>119.9515686035156</v>
       </c>
       <c r="C179">
-        <v>89.95846557617188</v>
+        <v>304.99169921875</v>
       </c>
       <c r="D179">
-        <v>11.23470115661621</v>
+        <v>4.997195720672607</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>3.262473821640015</v>
+        <v>5.844785690307617</v>
       </c>
       <c r="B180">
-        <v>122.517204284668</v>
+        <v>119.947868347168</v>
       </c>
       <c r="C180">
-        <v>89.97013092041016</v>
+        <v>304.9916687011719</v>
       </c>
       <c r="D180">
-        <v>11.23494529724121</v>
+        <v>4.997180938720703</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>3.262128114700317</v>
+        <v>5.847253799438477</v>
       </c>
       <c r="B181">
-        <v>122.5179901123047</v>
+        <v>119.9441986083984</v>
       </c>
       <c r="C181">
-        <v>89.98186492919922</v>
+        <v>304.9916687011719</v>
       </c>
       <c r="D181">
-        <v>11.23518753051758</v>
+        <v>4.997165679931641</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>3.261783838272095</v>
+        <v>5.849721908569336</v>
       </c>
       <c r="B182">
-        <v>122.5187759399414</v>
+        <v>119.9405288696289</v>
       </c>
       <c r="C182">
-        <v>89.99359130859375</v>
+        <v>304.9916381835938</v>
       </c>
       <c r="D182">
-        <v>11.23542881011963</v>
+        <v>4.997150421142578</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>3.261441707611084</v>
+        <v>5.852184772491455</v>
       </c>
       <c r="B183">
-        <v>122.5195541381836</v>
+        <v>119.9368591308594</v>
       </c>
       <c r="C183">
-        <v>90.00538635253906</v>
+        <v>304.9916076660156</v>
       </c>
       <c r="D183">
-        <v>11.235671043396</v>
+        <v>4.997135639190674</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>3.261101484298706</v>
+        <v>5.854634761810303</v>
       </c>
       <c r="B184">
-        <v>122.5203399658203</v>
+        <v>119.9332122802734</v>
       </c>
       <c r="C184">
-        <v>90.01718902587891</v>
+        <v>304.9915771484375</v>
       </c>
       <c r="D184">
-        <v>11.23591327667236</v>
+        <v>4.997120380401611</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>3.260763168334961</v>
+        <v>5.857085704803467</v>
       </c>
       <c r="B185">
-        <v>122.5211181640625</v>
+        <v>119.9295501708984</v>
       </c>
       <c r="C185">
-        <v>90.02906799316406</v>
+        <v>304.9915771484375</v>
       </c>
       <c r="D185">
-        <v>11.23615455627441</v>
+        <v>4.997105121612549</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>3.260426759719849</v>
+        <v>5.859531402587891</v>
       </c>
       <c r="B186">
-        <v>122.5218963623047</v>
+        <v>119.9259185791016</v>
       </c>
       <c r="C186">
-        <v>90.04093933105469</v>
+        <v>304.9915466308594</v>
       </c>
       <c r="D186">
-        <v>11.23639678955078</v>
+        <v>4.997090339660645</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>3.260092973709106</v>
+        <v>5.861964225769043</v>
       </c>
       <c r="B187">
-        <v>122.5226745605469</v>
+        <v>119.9222869873047</v>
       </c>
       <c r="C187">
-        <v>90.05287933349609</v>
+        <v>304.9915161132812</v>
       </c>
       <c r="D187">
-        <v>11.23663711547852</v>
+        <v>4.997075080871582</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>3.25976037979126</v>
+        <v>5.864391803741455</v>
       </c>
       <c r="B188">
-        <v>122.5234527587891</v>
+        <v>119.9186706542969</v>
       </c>
       <c r="C188">
-        <v>90.06484222412109</v>
+        <v>304.9915161132812</v>
       </c>
       <c r="D188">
-        <v>11.23687839508057</v>
+        <v>4.99705982208252</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>3.259429931640625</v>
+        <v>5.866819858551025</v>
       </c>
       <c r="B189">
-        <v>122.5242385864258</v>
+        <v>119.9150466918945</v>
       </c>
       <c r="C189">
-        <v>90.07685089111328</v>
+        <v>304.9914855957031</v>
       </c>
       <c r="D189">
-        <v>11.23711776733398</v>
+        <v>4.997044563293457</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>3.259101629257202</v>
+        <v>5.869242668151855</v>
       </c>
       <c r="B190">
-        <v>122.5250091552734</v>
+        <v>119.9114456176758</v>
       </c>
       <c r="C190">
-        <v>90.0888671875</v>
+        <v>304.991455078125</v>
       </c>
       <c r="D190">
-        <v>11.23735809326172</v>
+        <v>4.997029304504395</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>3.258774995803833</v>
+        <v>5.871651649475098</v>
       </c>
       <c r="B191">
-        <v>122.5257873535156</v>
+        <v>119.9078521728516</v>
       </c>
       <c r="C191">
-        <v>90.10095977783203</v>
+        <v>304.991455078125</v>
       </c>
       <c r="D191">
-        <v>11.23759841918945</v>
+        <v>4.997014045715332</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>3.258450031280518</v>
+        <v>5.874061584472656</v>
       </c>
       <c r="B192">
-        <v>122.5265579223633</v>
+        <v>119.9042587280273</v>
       </c>
       <c r="C192">
-        <v>90.11305999755859</v>
+        <v>304.9914245605469</v>
       </c>
       <c r="D192">
-        <v>11.23783779144287</v>
+        <v>4.99699878692627</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>3.258127450942993</v>
+        <v>5.876466751098633</v>
       </c>
       <c r="B193">
-        <v>122.5273361206055</v>
+        <v>119.9006805419922</v>
       </c>
       <c r="C193">
-        <v>90.12520599365234</v>
+        <v>304.9913940429688</v>
       </c>
       <c r="D193">
-        <v>11.23807716369629</v>
+        <v>4.996983528137207</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>3.257806777954102</v>
+        <v>5.878858089447021</v>
       </c>
       <c r="B194">
-        <v>122.5281066894531</v>
+        <v>119.8971176147461</v>
       </c>
       <c r="C194">
-        <v>90.13737487792969</v>
+        <v>304.9913940429688</v>
       </c>
       <c r="D194">
-        <v>11.23831653594971</v>
+        <v>4.996968269348145</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>3.257487535476685</v>
+        <v>5.881251335144043</v>
       </c>
       <c r="B195">
-        <v>122.5288772583008</v>
+        <v>119.8935546875</v>
       </c>
       <c r="C195">
-        <v>90.14958953857422</v>
+        <v>304.9913635253906</v>
       </c>
       <c r="D195">
-        <v>11.23855590820312</v>
+        <v>4.996953010559082</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>3.257170438766479</v>
+        <v>5.883638858795166</v>
       </c>
       <c r="B196">
-        <v>122.5296478271484</v>
+        <v>119.8899993896484</v>
       </c>
       <c r="C196">
-        <v>90.16185760498047</v>
+        <v>304.9913330078125</v>
       </c>
       <c r="D196">
-        <v>11.23879432678223</v>
+        <v>4.99693775177002</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>3.256855487823486</v>
+        <v>5.886020183563232</v>
       </c>
       <c r="B197">
-        <v>122.5304260253906</v>
+        <v>119.8864517211914</v>
       </c>
       <c r="C197">
-        <v>90.17414855957031</v>
+        <v>304.9913330078125</v>
       </c>
       <c r="D197">
-        <v>11.23903274536133</v>
+        <v>4.996922492980957</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>3.256541967391968</v>
+        <v>5.888382434844971</v>
       </c>
       <c r="B198">
-        <v>122.5311965942383</v>
+        <v>119.8829193115234</v>
       </c>
       <c r="C198">
-        <v>90.18647766113281</v>
+        <v>304.9913024902344</v>
       </c>
       <c r="D198">
-        <v>11.23927021026611</v>
+        <v>4.996907234191895</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>3.256230592727661</v>
+        <v>5.890752792358398</v>
       </c>
       <c r="B199">
-        <v>122.5319671630859</v>
+        <v>119.87939453125</v>
       </c>
       <c r="C199">
-        <v>90.19881439208984</v>
+        <v>304.9912719726562</v>
       </c>
       <c r="D199">
-        <v>11.23950862884521</v>
+        <v>4.996891975402832</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>3.255920886993408</v>
+        <v>5.893118381500244</v>
       </c>
       <c r="B200">
-        <v>122.5327377319336</v>
+        <v>119.8758697509766</v>
       </c>
       <c r="C200">
-        <v>90.21121978759766</v>
+        <v>304.9912414550781</v>
       </c>
       <c r="D200">
-        <v>11.23974514007568</v>
+        <v>4.996876239776611</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>3.255613088607788</v>
+        <v>5.895470142364502</v>
       </c>
       <c r="B201">
-        <v>122.5335083007812</v>
+        <v>119.8723602294922</v>
       </c>
       <c r="C201">
-        <v>90.22364044189453</v>
+        <v>304.9912414550781</v>
       </c>
       <c r="D201">
-        <v>11.23998355865479</v>
+        <v>4.996860980987549</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>3.25530743598938</v>
+        <v>5.897822380065918</v>
       </c>
       <c r="B202">
-        <v>122.5342712402344</v>
+        <v>119.8688659667969</v>
       </c>
       <c r="C202">
-        <v>90.23612213134766</v>
+        <v>304.9912109375</v>
       </c>
       <c r="D202">
-        <v>11.24022102355957</v>
+        <v>4.996845722198486</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>3.255003452301025</v>
+        <v>5.900169849395752</v>
       </c>
       <c r="B203">
-        <v>122.535041809082</v>
+        <v>119.865364074707</v>
       </c>
       <c r="C203">
-        <v>90.24861145019531</v>
+        <v>304.9911804199219</v>
       </c>
       <c r="D203">
-        <v>11.24045753479004</v>
+        <v>4.996830463409424</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>3.254701375961304</v>
+        <v>5.902504444122314</v>
       </c>
       <c r="B204">
-        <v>122.5358047485352</v>
+        <v>119.8618774414062</v>
       </c>
       <c r="C204">
-        <v>90.26115417480469</v>
+        <v>304.9911804199219</v>
       </c>
       <c r="D204">
-        <v>11.24069309234619</v>
+        <v>4.996815204620361</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>3.254400491714478</v>
+        <v>5.904839992523193</v>
       </c>
       <c r="B205">
-        <v>122.5365753173828</v>
+        <v>119.8583908081055</v>
       </c>
       <c r="C205">
-        <v>90.27370452880859</v>
+        <v>304.9911499023438</v>
       </c>
       <c r="D205">
-        <v>11.24092960357666</v>
+        <v>4.996799945831299</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>3.254102468490601</v>
+        <v>5.907170295715332</v>
       </c>
       <c r="B206">
-        <v>122.5373382568359</v>
+        <v>119.8549194335938</v>
       </c>
       <c r="C206">
-        <v>90.28632354736328</v>
+        <v>304.9911193847656</v>
       </c>
       <c r="D206">
-        <v>11.24116516113281</v>
+        <v>4.996784210205078</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>3.25380539894104</v>
+        <v>5.909494876861572</v>
       </c>
       <c r="B207">
-        <v>122.5381011962891</v>
+        <v>119.8514633178711</v>
       </c>
       <c r="C207">
-        <v>90.2989501953125</v>
+        <v>304.9911193847656</v>
       </c>
       <c r="D207">
-        <v>11.24140071868896</v>
+        <v>4.996768951416016</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>3.253510713577271</v>
+        <v>5.911806583404541</v>
       </c>
       <c r="B208">
-        <v>122.5388717651367</v>
+        <v>119.848014831543</v>
       </c>
       <c r="C208">
-        <v>90.31163787841797</v>
+        <v>304.9910888671875</v>
       </c>
       <c r="D208">
-        <v>11.24163627624512</v>
+        <v>4.996753692626953</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>3.253217458724976</v>
+        <v>5.914119243621826</v>
       </c>
       <c r="B209">
-        <v>122.5396347045898</v>
+        <v>119.8445587158203</v>
       </c>
       <c r="C209">
-        <v>90.32431030273438</v>
+        <v>304.9910583496094</v>
       </c>
       <c r="D209">
-        <v>11.24187183380127</v>
+        <v>4.996738433837891</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>3.252926349639893</v>
+        <v>5.916420459747314</v>
       </c>
       <c r="B210">
-        <v>122.540397644043</v>
+        <v>119.8411254882812</v>
       </c>
       <c r="C210">
-        <v>90.33708953857422</v>
+        <v>304.9910583496094</v>
       </c>
       <c r="D210">
-        <v>11.24210643768311</v>
+        <v>4.996723175048828</v>
       </c>
     </row>
   </sheetData>

--- a/sub2/hasil prediktor.xlsx
+++ b/sub2/hasil prediktor.xlsx
@@ -348,2942 +348,2942 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>5.298746109008789</v>
+        <v>1.430303335189819</v>
       </c>
       <c r="B1">
-        <v>120.7547988891602</v>
+        <v>120.9279708862305</v>
       </c>
       <c r="C1">
-        <v>304.9953002929688</v>
+        <v>232.9939117431641</v>
       </c>
       <c r="D1">
-        <v>4.998927593231201</v>
+        <v>11.09993934631348</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>5.302401065826416</v>
+        <v>1.418273210525513</v>
       </c>
       <c r="B2">
-        <v>120.7494354248047</v>
+        <v>120.9120025634766</v>
       </c>
       <c r="C2">
-        <v>304.9952697753906</v>
+        <v>232.9938354492188</v>
       </c>
       <c r="D2">
-        <v>4.998925685882568</v>
+        <v>11.09993934631348</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>5.30604887008667</v>
+        <v>1.406211376190186</v>
       </c>
       <c r="B3">
-        <v>120.7440795898438</v>
+        <v>120.8959884643555</v>
       </c>
       <c r="C3">
-        <v>304.9952392578125</v>
+        <v>232.9937591552734</v>
       </c>
       <c r="D3">
-        <v>4.998923778533936</v>
+        <v>11.09994029998779</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>5.309683322906494</v>
+        <v>1.394110560417175</v>
       </c>
       <c r="B4">
-        <v>120.7387542724609</v>
+        <v>120.8799133300781</v>
       </c>
       <c r="C4">
-        <v>304.9952392578125</v>
+        <v>232.9936828613281</v>
       </c>
       <c r="D4">
-        <v>4.998921394348145</v>
+        <v>11.09994125366211</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>5.313316822052002</v>
+        <v>1.381976962089539</v>
       </c>
       <c r="B5">
-        <v>120.7334136962891</v>
+        <v>120.8638000488281</v>
       </c>
       <c r="C5">
-        <v>304.9952087402344</v>
+        <v>232.9936065673828</v>
       </c>
       <c r="D5">
-        <v>4.998919010162354</v>
+        <v>11.09994316101074</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5.316944122314453</v>
+        <v>1.36980938911438</v>
       </c>
       <c r="B6">
-        <v>120.7280960083008</v>
+        <v>120.8476257324219</v>
       </c>
       <c r="C6">
-        <v>304.9952087402344</v>
+        <v>232.9935302734375</v>
       </c>
       <c r="D6">
-        <v>4.998916625976562</v>
+        <v>11.09994411468506</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>5.320564746856689</v>
+        <v>1.357596755027771</v>
       </c>
       <c r="B7">
-        <v>120.7227783203125</v>
+        <v>120.8313903808594</v>
       </c>
       <c r="C7">
-        <v>304.9951782226562</v>
+        <v>232.9934539794922</v>
       </c>
       <c r="D7">
-        <v>4.998914241790771</v>
+        <v>11.09994316101074</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>5.324172019958496</v>
+        <v>1.345347881317139</v>
       </c>
       <c r="B8">
-        <v>120.7174835205078</v>
+        <v>120.8151016235352</v>
       </c>
       <c r="C8">
-        <v>304.9951782226562</v>
+        <v>232.9933624267578</v>
       </c>
       <c r="D8">
-        <v>4.99891185760498</v>
+        <v>11.09994506835938</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>5.327779293060303</v>
+        <v>1.333064317703247</v>
       </c>
       <c r="B9">
-        <v>120.7121810913086</v>
+        <v>120.7987670898438</v>
       </c>
       <c r="C9">
-        <v>304.9951477050781</v>
+        <v>232.9932861328125</v>
       </c>
       <c r="D9">
-        <v>4.998908996582031</v>
+        <v>11.09994602203369</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>5.331379890441895</v>
+        <v>1.320734977722168</v>
       </c>
       <c r="B10">
-        <v>120.7068939208984</v>
+        <v>120.782356262207</v>
       </c>
       <c r="C10">
-        <v>304.9951171875</v>
+        <v>232.9932098388672</v>
       </c>
       <c r="D10">
-        <v>4.998906135559082</v>
+        <v>11.09994697570801</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>5.334967613220215</v>
+        <v>1.308366537094116</v>
       </c>
       <c r="B11">
-        <v>120.7016296386719</v>
+        <v>120.7658920288086</v>
       </c>
       <c r="C11">
-        <v>304.9951171875</v>
+        <v>232.9931335449219</v>
       </c>
       <c r="D11">
-        <v>4.998903274536133</v>
+        <v>11.09994602203369</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>5.338551998138428</v>
+        <v>1.295952320098877</v>
       </c>
       <c r="B12">
-        <v>120.6963577270508</v>
+        <v>120.7493591308594</v>
       </c>
       <c r="C12">
-        <v>304.9950866699219</v>
+        <v>232.9930572509766</v>
       </c>
       <c r="D12">
-        <v>4.998900413513184</v>
+        <v>11.09994792938232</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>5.342134952545166</v>
+        <v>1.283500552177429</v>
       </c>
       <c r="B13">
-        <v>120.6910934448242</v>
+        <v>120.7327728271484</v>
       </c>
       <c r="C13">
-        <v>304.9950866699219</v>
+        <v>232.9929656982422</v>
       </c>
       <c r="D13">
-        <v>4.998897075653076</v>
+        <v>11.09994983673096</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>5.345703125</v>
+        <v>1.27100396156311</v>
       </c>
       <c r="B14">
-        <v>120.6858596801758</v>
+        <v>120.7161178588867</v>
       </c>
       <c r="C14">
-        <v>304.9950561523438</v>
+        <v>232.9928894042969</v>
       </c>
       <c r="D14">
-        <v>4.998893737792969</v>
+        <v>11.09994888305664</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>5.349269866943359</v>
+        <v>1.258470296859741</v>
       </c>
       <c r="B15">
-        <v>120.6806106567383</v>
+        <v>120.6994094848633</v>
       </c>
       <c r="C15">
-        <v>304.9950256347656</v>
+        <v>232.9928131103516</v>
       </c>
       <c r="D15">
-        <v>4.998890399932861</v>
+        <v>11.09995174407959</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>5.35283088684082</v>
+        <v>1.245884299278259</v>
       </c>
       <c r="B16">
-        <v>120.6753921508789</v>
+        <v>120.6826171875</v>
       </c>
       <c r="C16">
-        <v>304.9950256347656</v>
+        <v>232.9927368164062</v>
       </c>
       <c r="D16">
-        <v>4.998887062072754</v>
+        <v>11.09995079040527</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>5.356383800506592</v>
+        <v>1.233256459236145</v>
       </c>
       <c r="B17">
-        <v>120.6701736450195</v>
+        <v>120.665771484375</v>
       </c>
       <c r="C17">
-        <v>304.9949951171875</v>
+        <v>232.9926605224609</v>
       </c>
       <c r="D17">
-        <v>4.998883724212646</v>
+        <v>11.09995269775391</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>5.359923839569092</v>
+        <v>1.220587730407715</v>
       </c>
       <c r="B18">
-        <v>120.6649627685547</v>
+        <v>120.6488647460938</v>
       </c>
       <c r="C18">
-        <v>304.9949951171875</v>
+        <v>232.9925689697266</v>
       </c>
       <c r="D18">
-        <v>4.998879909515381</v>
+        <v>11.09995269775391</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>5.363463878631592</v>
+        <v>1.207865834236145</v>
       </c>
       <c r="B19">
-        <v>120.6597595214844</v>
+        <v>120.6318740844727</v>
       </c>
       <c r="C19">
-        <v>304.9949645996094</v>
+        <v>232.9924926757812</v>
       </c>
       <c r="D19">
-        <v>4.998876571655273</v>
+        <v>11.09995269775391</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>5.366996765136719</v>
+        <v>1.195097923278809</v>
       </c>
       <c r="B20">
-        <v>120.6545715332031</v>
+        <v>120.6148300170898</v>
       </c>
       <c r="C20">
-        <v>304.9949340820312</v>
+        <v>232.9924163818359</v>
       </c>
       <c r="D20">
-        <v>4.998872756958008</v>
+        <v>11.09995460510254</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>5.370516777038574</v>
+        <v>1.182285308837891</v>
       </c>
       <c r="B21">
-        <v>120.6493911743164</v>
+        <v>120.5977020263672</v>
       </c>
       <c r="C21">
-        <v>304.9949340820312</v>
+        <v>232.9923400878906</v>
       </c>
       <c r="D21">
-        <v>4.998868465423584</v>
+        <v>11.09995460510254</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>5.374035358428955</v>
+        <v>1.169424295425415</v>
       </c>
       <c r="B22">
-        <v>120.6442260742188</v>
+        <v>120.5805130004883</v>
       </c>
       <c r="C22">
-        <v>304.9949035644531</v>
+        <v>232.9922485351562</v>
       </c>
       <c r="D22">
-        <v>4.998864650726318</v>
+        <v>11.09995651245117</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>5.377545833587646</v>
+        <v>1.156520962715149</v>
       </c>
       <c r="B23">
-        <v>120.6390609741211</v>
+        <v>120.5632553100586</v>
       </c>
       <c r="C23">
-        <v>304.9949035644531</v>
+        <v>232.9921722412109</v>
       </c>
       <c r="D23">
-        <v>4.998860359191895</v>
+        <v>11.09995460510254</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>5.381046772003174</v>
+        <v>1.14356005191803</v>
       </c>
       <c r="B24">
-        <v>120.633918762207</v>
+        <v>120.5459136962891</v>
       </c>
       <c r="C24">
-        <v>304.994873046875</v>
+        <v>232.9920959472656</v>
       </c>
       <c r="D24">
-        <v>4.998856067657471</v>
+        <v>11.0999584197998</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>5.384546279907227</v>
+        <v>1.130553364753723</v>
       </c>
       <c r="B25">
-        <v>120.628776550293</v>
+        <v>120.5285034179688</v>
       </c>
       <c r="C25">
-        <v>304.9948425292969</v>
+        <v>232.9920196533203</v>
       </c>
       <c r="D25">
-        <v>4.998851776123047</v>
+        <v>11.09995651245117</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>5.388039588928223</v>
+        <v>1.117501854896545</v>
       </c>
       <c r="B26">
-        <v>120.6236343383789</v>
+        <v>120.5110244750977</v>
       </c>
       <c r="C26">
-        <v>304.9948425292969</v>
+        <v>232.9919281005859</v>
       </c>
       <c r="D26">
-        <v>4.998847484588623</v>
+        <v>11.09995746612549</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>5.391524314880371</v>
+        <v>1.104393362998962</v>
       </c>
       <c r="B27">
-        <v>120.6185073852539</v>
+        <v>120.4934692382812</v>
       </c>
       <c r="C27">
-        <v>304.9948120117188</v>
+        <v>232.9918518066406</v>
       </c>
       <c r="D27">
-        <v>4.998842716217041</v>
+        <v>11.09995746612549</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>5.394995212554932</v>
+        <v>1.091236591339111</v>
       </c>
       <c r="B28">
-        <v>120.613410949707</v>
+        <v>120.4758377075195</v>
       </c>
       <c r="C28">
-        <v>304.9948120117188</v>
+        <v>232.9917755126953</v>
       </c>
       <c r="D28">
-        <v>4.998838424682617</v>
+        <v>11.09995937347412</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>5.39846658706665</v>
+        <v>1.078027129173279</v>
       </c>
       <c r="B29">
-        <v>120.6083068847656</v>
+        <v>120.4581298828125</v>
       </c>
       <c r="C29">
-        <v>304.9947814941406</v>
+        <v>232.9916839599609</v>
       </c>
       <c r="D29">
-        <v>4.998833656311035</v>
+        <v>11.0999584197998</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>5.401931285858154</v>
+        <v>1.064769506454468</v>
       </c>
       <c r="B30">
-        <v>120.6032028198242</v>
+        <v>120.4403457641602</v>
       </c>
       <c r="C30">
-        <v>304.9947509765625</v>
+        <v>232.9916076660156</v>
       </c>
       <c r="D30">
-        <v>4.998828887939453</v>
+        <v>11.09995937347412</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>5.405382633209229</v>
+        <v>1.051464796066284</v>
       </c>
       <c r="B31">
-        <v>120.5981292724609</v>
+        <v>120.422492980957</v>
       </c>
       <c r="C31">
-        <v>304.9947509765625</v>
+        <v>232.9915313720703</v>
       </c>
       <c r="D31">
-        <v>4.998823642730713</v>
+        <v>11.09996032714844</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>5.408832550048828</v>
+        <v>1.038100242614746</v>
       </c>
       <c r="B32">
-        <v>120.5930557250977</v>
+        <v>120.4045639038086</v>
       </c>
       <c r="C32">
-        <v>304.9947204589844</v>
+        <v>232.991455078125</v>
       </c>
       <c r="D32">
-        <v>4.998818874359131</v>
+        <v>11.09996032714844</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>5.412276744842529</v>
+        <v>1.02468729019165</v>
       </c>
       <c r="B33">
-        <v>120.5879821777344</v>
+        <v>120.3865509033203</v>
       </c>
       <c r="C33">
-        <v>304.9947204589844</v>
+        <v>232.9913635253906</v>
       </c>
       <c r="D33">
-        <v>4.998813629150391</v>
+        <v>11.09996128082275</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>5.415707111358643</v>
+        <v>1.011226773262024</v>
       </c>
       <c r="B34">
-        <v>120.5829391479492</v>
+        <v>120.3684539794922</v>
       </c>
       <c r="C34">
-        <v>304.9946899414062</v>
+        <v>232.9912872314453</v>
       </c>
       <c r="D34">
-        <v>4.99880838394165</v>
+        <v>11.09996128082275</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>5.419133186340332</v>
+        <v>0.9977076649665833</v>
       </c>
       <c r="B35">
-        <v>120.5779037475586</v>
+        <v>120.3502960205078</v>
       </c>
       <c r="C35">
-        <v>304.9946594238281</v>
+        <v>232.9912109375</v>
       </c>
       <c r="D35">
-        <v>4.99880313873291</v>
+        <v>11.09996223449707</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>5.422558784484863</v>
+        <v>0.9841382503509521</v>
       </c>
       <c r="B36">
-        <v>120.5728530883789</v>
+        <v>120.3320388793945</v>
       </c>
       <c r="C36">
-        <v>304.9946594238281</v>
+        <v>232.9911193847656</v>
       </c>
       <c r="D36">
-        <v>4.998797416687012</v>
+        <v>11.09996128082275</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>5.425975799560547</v>
+        <v>0.9705137014389038</v>
       </c>
       <c r="B37">
-        <v>120.5678329467773</v>
+        <v>120.3137130737305</v>
       </c>
       <c r="C37">
-        <v>304.99462890625</v>
+        <v>232.9910430908203</v>
       </c>
       <c r="D37">
-        <v>4.998792171478271</v>
+        <v>11.0999641418457</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>5.429378032684326</v>
+        <v>0.9568400382995605</v>
       </c>
       <c r="B38">
-        <v>120.5628280639648</v>
+        <v>120.2953109741211</v>
       </c>
       <c r="C38">
-        <v>304.9945983886719</v>
+        <v>232.990966796875</v>
       </c>
       <c r="D38">
-        <v>4.998786449432373</v>
+        <v>11.09996318817139</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>5.432780265808105</v>
+        <v>0.9431129097938538</v>
       </c>
       <c r="B39">
-        <v>120.5578231811523</v>
+        <v>120.2768402099609</v>
       </c>
       <c r="C39">
-        <v>304.9945983886719</v>
+        <v>232.9908905029297</v>
       </c>
       <c r="D39">
-        <v>4.998780727386475</v>
+        <v>11.09996318817139</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>5.436175346374512</v>
+        <v>0.9293404221534729</v>
       </c>
       <c r="B40">
-        <v>120.5528106689453</v>
+        <v>120.2582931518555</v>
       </c>
       <c r="C40">
-        <v>304.9945678710938</v>
+        <v>232.9907989501953</v>
       </c>
       <c r="D40">
-        <v>4.998775005340576</v>
+        <v>11.0999641418457</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>5.439557552337646</v>
+        <v>0.9155054688453674</v>
       </c>
       <c r="B41">
-        <v>120.5478439331055</v>
+        <v>120.2396469116211</v>
       </c>
       <c r="C41">
-        <v>304.9945678710938</v>
+        <v>232.99072265625</v>
       </c>
       <c r="D41">
-        <v>4.99876880645752</v>
+        <v>11.09996509552002</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>5.442938327789307</v>
+        <v>0.9016234874725342</v>
       </c>
       <c r="B42">
-        <v>120.5428619384766</v>
+        <v>120.2209320068359</v>
       </c>
       <c r="C42">
-        <v>304.9945373535156</v>
+        <v>232.9906463623047</v>
       </c>
       <c r="D42">
-        <v>4.998763084411621</v>
+        <v>11.09996604919434</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>5.44631290435791</v>
+        <v>0.8876935243606567</v>
       </c>
       <c r="B43">
-        <v>120.5378952026367</v>
+        <v>120.2021560668945</v>
       </c>
       <c r="C43">
-        <v>304.9945068359375</v>
+        <v>232.9905548095703</v>
       </c>
       <c r="D43">
-        <v>4.998756885528564</v>
+        <v>11.09996604919434</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>5.449674606323242</v>
+        <v>0.8737053871154785</v>
       </c>
       <c r="B44">
-        <v>120.5329437255859</v>
+        <v>120.1832809448242</v>
       </c>
       <c r="C44">
-        <v>304.9945068359375</v>
+        <v>232.990478515625</v>
       </c>
       <c r="D44">
-        <v>4.998750686645508</v>
+        <v>11.09996795654297</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>5.4530348777771</v>
+        <v>0.8596665263175964</v>
       </c>
       <c r="B45">
-        <v>120.5279922485352</v>
+        <v>120.1643371582031</v>
       </c>
       <c r="C45">
-        <v>304.9944763183594</v>
+        <v>232.9904022216797</v>
       </c>
       <c r="D45">
-        <v>4.998744010925293</v>
+        <v>11.09996795654297</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>5.456388473510742</v>
+        <v>0.8455798029899597</v>
       </c>
       <c r="B46">
-        <v>120.5230484008789</v>
+        <v>120.1453170776367</v>
       </c>
       <c r="C46">
-        <v>304.9944458007812</v>
+        <v>232.9903106689453</v>
       </c>
       <c r="D46">
-        <v>4.998737812042236</v>
+        <v>11.09996795654297</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>5.459731101989746</v>
+        <v>0.8314417004585266</v>
       </c>
       <c r="B47">
-        <v>120.5181350708008</v>
+        <v>120.1262283325195</v>
       </c>
       <c r="C47">
-        <v>304.9944458007812</v>
+        <v>232.990234375</v>
       </c>
       <c r="D47">
-        <v>4.998731136322021</v>
+        <v>11.09996795654297</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>5.463065624237061</v>
+        <v>0.8172591924667358</v>
       </c>
       <c r="B48">
-        <v>120.5132217407227</v>
+        <v>120.1070556640625</v>
       </c>
       <c r="C48">
-        <v>304.9944152832031</v>
+        <v>232.9901580810547</v>
       </c>
       <c r="D48">
-        <v>4.998724460601807</v>
+        <v>11.0999698638916</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>5.466399669647217</v>
+        <v>0.8030186295509338</v>
       </c>
       <c r="B49">
-        <v>120.5083084106445</v>
+        <v>120.0878067016602</v>
       </c>
       <c r="C49">
-        <v>304.9944152832031</v>
+        <v>232.9900665283203</v>
       </c>
       <c r="D49">
-        <v>4.998717784881592</v>
+        <v>11.09997081756592</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>5.469726085662842</v>
+        <v>0.7887338399887085</v>
       </c>
       <c r="B50">
-        <v>120.5034103393555</v>
+        <v>120.0684967041016</v>
       </c>
       <c r="C50">
-        <v>304.994384765625</v>
+        <v>232.989990234375</v>
       </c>
       <c r="D50">
-        <v>4.998711109161377</v>
+        <v>11.0999698638916</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>5.473038196563721</v>
+        <v>0.7744056582450867</v>
       </c>
       <c r="B51">
-        <v>120.49853515625</v>
+        <v>120.0491180419922</v>
       </c>
       <c r="C51">
-        <v>304.9943542480469</v>
+        <v>232.9899139404297</v>
       </c>
       <c r="D51">
-        <v>4.998704433441162</v>
+        <v>11.0999698638916</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>5.476349830627441</v>
+        <v>0.7600225806236267</v>
       </c>
       <c r="B52">
-        <v>120.4936447143555</v>
+        <v>120.0296478271484</v>
       </c>
       <c r="C52">
-        <v>304.9943542480469</v>
+        <v>232.9898223876953</v>
       </c>
       <c r="D52">
-        <v>4.998697280883789</v>
+        <v>11.09997177124023</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>5.479655265808105</v>
+        <v>0.745596170425415</v>
       </c>
       <c r="B53">
-        <v>120.48876953125</v>
+        <v>120.0101165771484</v>
       </c>
       <c r="C53">
-        <v>304.9943237304688</v>
+        <v>232.98974609375</v>
       </c>
       <c r="D53">
-        <v>4.998690128326416</v>
+        <v>11.09997177124023</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>5.482946395874023</v>
+        <v>0.7311204075813293</v>
       </c>
       <c r="B54">
-        <v>120.4839248657227</v>
+        <v>119.9905166625977</v>
       </c>
       <c r="C54">
-        <v>304.9942932128906</v>
+        <v>232.9896697998047</v>
       </c>
       <c r="D54">
-        <v>4.998682975769043</v>
+        <v>11.09997177124023</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>5.486237049102783</v>
+        <v>0.7166045308113098</v>
       </c>
       <c r="B55">
-        <v>120.4790802001953</v>
+        <v>119.9708480834961</v>
       </c>
       <c r="C55">
-        <v>304.9942932128906</v>
+        <v>232.9895782470703</v>
       </c>
       <c r="D55">
-        <v>4.99867582321167</v>
+        <v>11.09997272491455</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>5.489521503448486</v>
+        <v>0.7020483016967773</v>
       </c>
       <c r="B56">
-        <v>120.4742279052734</v>
+        <v>119.9511260986328</v>
       </c>
       <c r="C56">
-        <v>304.9942626953125</v>
+        <v>232.989501953125</v>
       </c>
       <c r="D56">
-        <v>4.998668193817139</v>
+        <v>11.09997272491455</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>5.4927978515625</v>
+        <v>0.6874415874481201</v>
       </c>
       <c r="B57">
-        <v>120.4694137573242</v>
+        <v>119.9313201904297</v>
       </c>
       <c r="C57">
-        <v>304.9942321777344</v>
+        <v>232.9894256591797</v>
       </c>
       <c r="D57">
-        <v>4.998661041259766</v>
+        <v>11.09997367858887</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>5.496057987213135</v>
+        <v>0.6727970242500305</v>
       </c>
       <c r="B58">
-        <v>120.464599609375</v>
+        <v>119.9114685058594</v>
       </c>
       <c r="C58">
-        <v>304.9942321777344</v>
+        <v>232.9893341064453</v>
       </c>
       <c r="D58">
-        <v>4.998653411865234</v>
+        <v>11.09997463226318</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>5.499322414398193</v>
+        <v>0.6581157445907593</v>
       </c>
       <c r="B59">
-        <v>120.4597854614258</v>
+        <v>119.8915405273438</v>
       </c>
       <c r="C59">
-        <v>304.9942016601562</v>
+        <v>232.9892578125</v>
       </c>
       <c r="D59">
-        <v>4.998645782470703</v>
+        <v>11.0999755859375</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>5.502580165863037</v>
+        <v>0.643388569355011</v>
       </c>
       <c r="B60">
-        <v>120.4549789428711</v>
+        <v>119.8715667724609</v>
       </c>
       <c r="C60">
-        <v>304.9941711425781</v>
+        <v>232.9891662597656</v>
       </c>
       <c r="D60">
-        <v>4.998638153076172</v>
+        <v>11.09997463226318</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>5.505823135375977</v>
+        <v>0.6286264657974243</v>
       </c>
       <c r="B61">
-        <v>120.4501953125</v>
+        <v>119.8515243530273</v>
       </c>
       <c r="C61">
-        <v>304.9941711425781</v>
+        <v>232.9890899658203</v>
       </c>
       <c r="D61">
-        <v>4.998630046844482</v>
+        <v>11.09997463226318</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>5.5090651512146</v>
+        <v>0.6138235926628113</v>
       </c>
       <c r="B62">
-        <v>120.4454116821289</v>
+        <v>119.8314208984375</v>
       </c>
       <c r="C62">
-        <v>304.994140625</v>
+        <v>232.989013671875</v>
       </c>
       <c r="D62">
-        <v>4.998622417449951</v>
+        <v>11.09997463226318</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>5.512301445007324</v>
+        <v>0.5989911556243896</v>
       </c>
       <c r="B63">
-        <v>120.4406509399414</v>
+        <v>119.8112716674805</v>
       </c>
       <c r="C63">
-        <v>304.994140625</v>
+        <v>232.9889221191406</v>
       </c>
       <c r="D63">
-        <v>4.998614311218262</v>
+        <v>11.09997653961182</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>5.515522956848145</v>
+        <v>0.5841212272644043</v>
       </c>
       <c r="B64">
-        <v>120.4358978271484</v>
+        <v>119.7910614013672</v>
       </c>
       <c r="C64">
-        <v>304.9941101074219</v>
+        <v>232.9888458251953</v>
       </c>
       <c r="D64">
-        <v>4.998606204986572</v>
+        <v>11.09997653961182</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>5.518744468688965</v>
+        <v>0.5692262053489685</v>
       </c>
       <c r="B65">
-        <v>120.4311370849609</v>
+        <v>119.7708206176758</v>
       </c>
       <c r="C65">
-        <v>304.9940795898438</v>
+        <v>232.9887542724609</v>
       </c>
       <c r="D65">
-        <v>4.998598098754883</v>
+        <v>11.09997653961182</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>5.521959781646729</v>
+        <v>0.5542911887168884</v>
       </c>
       <c r="B66">
-        <v>120.426399230957</v>
+        <v>119.7505035400391</v>
       </c>
       <c r="C66">
-        <v>304.9940795898438</v>
+        <v>232.9886779785156</v>
       </c>
       <c r="D66">
-        <v>4.998589515686035</v>
+        <v>11.09997463226318</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>5.525166988372803</v>
+        <v>0.5393311977386475</v>
       </c>
       <c r="B67">
-        <v>120.4216613769531</v>
+        <v>119.7301635742188</v>
       </c>
       <c r="C67">
-        <v>304.9940490722656</v>
+        <v>232.9885864257812</v>
       </c>
       <c r="D67">
-        <v>4.998581409454346</v>
+        <v>11.09997940063477</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>5.528360843658447</v>
+        <v>0.5243490934371948</v>
       </c>
       <c r="B68">
-        <v>120.4169464111328</v>
+        <v>119.7097854614258</v>
       </c>
       <c r="C68">
-        <v>304.9940185546875</v>
+        <v>232.9885101318359</v>
       </c>
       <c r="D68">
-        <v>4.998572826385498</v>
+        <v>11.09997844696045</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>5.531554698944092</v>
+        <v>0.5093323588371277</v>
       </c>
       <c r="B69">
-        <v>120.4122314453125</v>
+        <v>119.6893310546875</v>
       </c>
       <c r="C69">
-        <v>304.9940185546875</v>
+        <v>232.9884185791016</v>
       </c>
       <c r="D69">
-        <v>4.99856424331665</v>
+        <v>11.09997844696045</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>5.534737586975098</v>
+        <v>0.4942924678325653</v>
       </c>
       <c r="B70">
-        <v>120.4075469970703</v>
+        <v>119.6688766479492</v>
       </c>
       <c r="C70">
-        <v>304.9939880371094</v>
+        <v>232.9883422851562</v>
       </c>
       <c r="D70">
-        <v>4.998555660247803</v>
+        <v>11.09997844696045</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>5.537912845611572</v>
+        <v>0.4792332053184509</v>
       </c>
       <c r="B71">
-        <v>120.4028625488281</v>
+        <v>119.6483612060547</v>
       </c>
       <c r="C71">
-        <v>304.9939575195312</v>
+        <v>232.9882507324219</v>
       </c>
       <c r="D71">
-        <v>4.998546600341797</v>
+        <v>11.09997940063477</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>5.54108715057373</v>
+        <v>0.4641533493995667</v>
       </c>
       <c r="B72">
-        <v>120.3981704711914</v>
+        <v>119.627815246582</v>
       </c>
       <c r="C72">
-        <v>304.9939575195312</v>
+        <v>232.9881744384766</v>
       </c>
       <c r="D72">
-        <v>4.998538017272949</v>
+        <v>11.09997844696045</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>5.544254302978516</v>
+        <v>0.4490594863891602</v>
       </c>
       <c r="B73">
-        <v>120.3934860229492</v>
+        <v>119.6072616577148</v>
       </c>
       <c r="C73">
-        <v>304.9939270019531</v>
+        <v>232.9880828857422</v>
       </c>
       <c r="D73">
-        <v>4.998528957366943</v>
+        <v>11.09998035430908</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>5.547407150268555</v>
+        <v>0.4339401125907898</v>
       </c>
       <c r="B74">
-        <v>120.3888397216797</v>
+        <v>119.5866470336914</v>
       </c>
       <c r="C74">
-        <v>304.993896484375</v>
+        <v>232.9879913330078</v>
       </c>
       <c r="D74">
-        <v>4.998519897460938</v>
+        <v>11.09998035430908</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>5.550559520721436</v>
+        <v>0.418811023235321</v>
       </c>
       <c r="B75">
-        <v>120.3841781616211</v>
+        <v>119.5660247802734</v>
       </c>
       <c r="C75">
-        <v>304.993896484375</v>
+        <v>232.9879150390625</v>
       </c>
       <c r="D75">
-        <v>4.998510837554932</v>
+        <v>11.0999813079834</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>5.55370569229126</v>
+        <v>0.4036729633808136</v>
       </c>
       <c r="B76">
-        <v>120.3795318603516</v>
+        <v>119.5453796386719</v>
       </c>
       <c r="C76">
-        <v>304.9938659667969</v>
+        <v>232.9878234863281</v>
       </c>
       <c r="D76">
-        <v>4.998501777648926</v>
+        <v>11.09998035430908</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>5.556844711303711</v>
+        <v>0.3885162770748138</v>
       </c>
       <c r="B77">
-        <v>120.3749008178711</v>
+        <v>119.5247116088867</v>
       </c>
       <c r="C77">
-        <v>304.9938354492188</v>
+        <v>232.9877319335938</v>
       </c>
       <c r="D77">
-        <v>4.99849271774292</v>
+        <v>11.09998035430908</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>5.559969425201416</v>
+        <v>0.3733546733856201</v>
       </c>
       <c r="B78">
-        <v>120.3702926635742</v>
+        <v>119.504020690918</v>
       </c>
       <c r="C78">
-        <v>304.9938354492188</v>
+        <v>232.9876556396484</v>
       </c>
       <c r="D78">
-        <v>4.998483180999756</v>
+        <v>11.09998321533203</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>5.563094139099121</v>
+        <v>0.3581817448139191</v>
       </c>
       <c r="B79">
-        <v>120.3656692504883</v>
+        <v>119.4833221435547</v>
       </c>
       <c r="C79">
-        <v>304.9938049316406</v>
+        <v>232.9875640869141</v>
       </c>
       <c r="D79">
-        <v>4.998473644256592</v>
+        <v>11.09998321533203</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>5.56621265411377</v>
+        <v>0.3430109322071075</v>
       </c>
       <c r="B80">
-        <v>120.3610610961914</v>
+        <v>119.4626159667969</v>
       </c>
       <c r="C80">
-        <v>304.9937744140625</v>
+        <v>232.9874725341797</v>
       </c>
       <c r="D80">
-        <v>4.998464107513428</v>
+        <v>11.09998226165771</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>5.569318294525146</v>
+        <v>0.3278398811817169</v>
       </c>
       <c r="B81">
-        <v>120.3564682006836</v>
+        <v>119.4419021606445</v>
       </c>
       <c r="C81">
-        <v>304.9937744140625</v>
+        <v>232.9873809814453</v>
       </c>
       <c r="D81">
-        <v>4.998454570770264</v>
+        <v>11.09998321533203</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>5.572417736053467</v>
+        <v>0.3126595616340637</v>
       </c>
       <c r="B82">
-        <v>120.3518905639648</v>
+        <v>119.4211807250977</v>
       </c>
       <c r="C82">
-        <v>304.9937438964844</v>
+        <v>232.9873046875</v>
       </c>
       <c r="D82">
-        <v>4.9984450340271</v>
+        <v>11.09998321533203</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>5.575517654418945</v>
+        <v>0.2974852621555328</v>
       </c>
       <c r="B83">
-        <v>120.3473129272461</v>
+        <v>119.4004516601562</v>
       </c>
       <c r="C83">
-        <v>304.9937133789062</v>
+        <v>232.9872131347656</v>
       </c>
       <c r="D83">
-        <v>4.998435020446777</v>
+        <v>11.09998321533203</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>5.57860279083252</v>
+        <v>0.2823205292224884</v>
       </c>
       <c r="B84">
-        <v>120.3427581787109</v>
+        <v>119.3797302246094</v>
       </c>
       <c r="C84">
-        <v>304.9937133789062</v>
+        <v>232.9871215820312</v>
       </c>
       <c r="D84">
-        <v>4.998425483703613</v>
+        <v>11.09998321533203</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>5.581687450408936</v>
+        <v>0.2671525776386261</v>
       </c>
       <c r="B85">
-        <v>120.3382034301758</v>
+        <v>119.359001159668</v>
       </c>
       <c r="C85">
-        <v>304.9936828613281</v>
+        <v>232.9870300292969</v>
       </c>
       <c r="D85">
-        <v>4.998415470123291</v>
+        <v>11.09998321533203</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>5.584765434265137</v>
+        <v>0.2519972920417786</v>
       </c>
       <c r="B86">
-        <v>120.3336486816406</v>
+        <v>119.3383026123047</v>
       </c>
       <c r="C86">
-        <v>304.99365234375</v>
+        <v>232.9869384765625</v>
       </c>
       <c r="D86">
-        <v>4.998405456542969</v>
+        <v>11.09998512268066</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>5.587835788726807</v>
+        <v>0.2368472516536713</v>
       </c>
       <c r="B87">
-        <v>120.3291091918945</v>
+        <v>119.3175811767578</v>
       </c>
       <c r="C87">
-        <v>304.99365234375</v>
+        <v>232.9868469238281</v>
       </c>
       <c r="D87">
-        <v>4.998395442962646</v>
+        <v>11.09998512268066</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>5.590892791748047</v>
+        <v>0.2217162251472473</v>
       </c>
       <c r="B88">
-        <v>120.3246002197266</v>
+        <v>119.2968902587891</v>
       </c>
       <c r="C88">
-        <v>304.9936218261719</v>
+        <v>232.9867553710938</v>
       </c>
       <c r="D88">
-        <v>4.998385429382324</v>
+        <v>11.09998512268066</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>5.593949317932129</v>
+        <v>0.2065958678722382</v>
       </c>
       <c r="B89">
-        <v>120.320068359375</v>
+        <v>119.2762145996094</v>
       </c>
       <c r="C89">
-        <v>304.9935913085938</v>
+        <v>232.9866638183594</v>
       </c>
       <c r="D89">
-        <v>4.998374938964844</v>
+        <v>11.09998607635498</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>5.597000122070312</v>
+        <v>0.1914999186992645</v>
       </c>
       <c r="B90">
-        <v>120.315559387207</v>
+        <v>119.2555618286133</v>
       </c>
       <c r="C90">
-        <v>304.9935913085938</v>
+        <v>232.986572265625</v>
       </c>
       <c r="D90">
-        <v>4.998364448547363</v>
+        <v>11.0999870300293</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>5.60003662109375</v>
+        <v>0.1764115542173386</v>
       </c>
       <c r="B91">
-        <v>120.3110733032227</v>
+        <v>119.2349243164062</v>
       </c>
       <c r="C91">
-        <v>304.9935607910156</v>
+        <v>232.9864807128906</v>
       </c>
       <c r="D91">
-        <v>4.998354434967041</v>
+        <v>11.0999870300293</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>5.603074073791504</v>
+        <v>0.1613502204418182</v>
       </c>
       <c r="B92">
-        <v>120.3065872192383</v>
+        <v>119.2143173217773</v>
       </c>
       <c r="C92">
-        <v>304.9935302734375</v>
+        <v>232.9863891601562</v>
       </c>
       <c r="D92">
-        <v>4.998343944549561</v>
+        <v>11.09998798370361</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>5.606099128723145</v>
+        <v>0.1463165581226349</v>
       </c>
       <c r="B93">
-        <v>120.3021087646484</v>
+        <v>119.1937484741211</v>
       </c>
       <c r="C93">
-        <v>304.9935302734375</v>
+        <v>232.9862976074219</v>
       </c>
       <c r="D93">
-        <v>4.998332977294922</v>
+        <v>11.09998798370361</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>5.60911750793457</v>
+        <v>0.1312995851039886</v>
       </c>
       <c r="B94">
-        <v>120.2976379394531</v>
+        <v>119.1731948852539</v>
       </c>
       <c r="C94">
-        <v>304.9934997558594</v>
+        <v>232.9862060546875</v>
       </c>
       <c r="D94">
-        <v>4.998322486877441</v>
+        <v>11.09998798370361</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>5.612134456634521</v>
+        <v>0.1163110435009003</v>
       </c>
       <c r="B95">
-        <v>120.2931747436523</v>
+        <v>119.1526641845703</v>
       </c>
       <c r="C95">
-        <v>304.9934692382812</v>
+        <v>232.9861145019531</v>
       </c>
       <c r="D95">
-        <v>4.998311519622803</v>
+        <v>11.09998798370361</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>5.615145206451416</v>
+        <v>0.1013535633683205</v>
       </c>
       <c r="B96">
-        <v>120.2887344360352</v>
+        <v>119.1321868896484</v>
       </c>
       <c r="C96">
-        <v>304.9934692382812</v>
+        <v>232.9860076904297</v>
       </c>
       <c r="D96">
-        <v>4.998301029205322</v>
+        <v>11.09998893737793</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>5.618147850036621</v>
+        <v>0.0864269956946373</v>
       </c>
       <c r="B97">
-        <v>120.2842864990234</v>
+        <v>119.1117401123047</v>
       </c>
       <c r="C97">
-        <v>304.9934387207031</v>
+        <v>232.9859161376953</v>
       </c>
       <c r="D97">
-        <v>4.998290061950684</v>
+        <v>11.09998893737793</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>5.621137619018555</v>
+        <v>0.07154015451669693</v>
       </c>
       <c r="B98">
-        <v>120.2798690795898</v>
+        <v>119.0913619995117</v>
       </c>
       <c r="C98">
-        <v>304.993408203125</v>
+        <v>232.9858245849609</v>
       </c>
       <c r="D98">
-        <v>4.998279094696045</v>
+        <v>11.09998893737793</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>5.624127388000488</v>
+        <v>0.05667833983898163</v>
       </c>
       <c r="B99">
-        <v>120.2754287719727</v>
+        <v>119.0709915161133</v>
       </c>
       <c r="C99">
-        <v>304.993408203125</v>
+        <v>232.9857177734375</v>
       </c>
       <c r="D99">
-        <v>4.998268127441406</v>
+        <v>11.09999084472656</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>5.627110481262207</v>
+        <v>0.04185794293880463</v>
       </c>
       <c r="B100">
-        <v>120.2710266113281</v>
+        <v>119.0506896972656</v>
       </c>
       <c r="C100">
-        <v>304.9933776855469</v>
+        <v>232.9856262207031</v>
       </c>
       <c r="D100">
-        <v>4.998257160186768</v>
+        <v>11.09999084472656</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>5.630080223083496</v>
+        <v>0.02708251401782036</v>
       </c>
       <c r="B101">
-        <v>120.2666320800781</v>
+        <v>119.0304489135742</v>
       </c>
       <c r="C101">
-        <v>304.9933471679688</v>
+        <v>232.9855346679688</v>
       </c>
       <c r="D101">
-        <v>4.998245716094971</v>
+        <v>11.09999084472656</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>5.633049488067627</v>
+        <v>0.01233923248946667</v>
       </c>
       <c r="B102">
-        <v>120.2622375488281</v>
+        <v>119.0102386474609</v>
       </c>
       <c r="C102">
-        <v>304.9933471679688</v>
+        <v>232.9854278564453</v>
       </c>
       <c r="D102">
-        <v>4.998234748840332</v>
+        <v>11.09999084472656</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>5.636013031005859</v>
+        <v>-0.002358304336667061</v>
       </c>
       <c r="B103">
-        <v>120.2578430175781</v>
+        <v>118.9900894165039</v>
       </c>
       <c r="C103">
-        <v>304.9933166503906</v>
+        <v>232.9853363037109</v>
       </c>
       <c r="D103">
-        <v>4.998223304748535</v>
+        <v>11.09998893737793</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>5.638962745666504</v>
+        <v>-0.01701550558209419</v>
       </c>
       <c r="B104">
-        <v>120.2534790039062</v>
+        <v>118.9699859619141</v>
       </c>
       <c r="C104">
-        <v>304.9932861328125</v>
+        <v>232.9852294921875</v>
       </c>
       <c r="D104">
-        <v>4.998211860656738</v>
+        <v>11.09999084472656</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>5.641907691955566</v>
+        <v>-0.03161861747503281</v>
       </c>
       <c r="B105">
-        <v>120.2491302490234</v>
+        <v>118.9499740600586</v>
       </c>
       <c r="C105">
-        <v>304.9932556152344</v>
+        <v>232.9851379394531</v>
       </c>
       <c r="D105">
-        <v>4.998200416564941</v>
+        <v>11.09999084472656</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>5.644852161407471</v>
+        <v>-0.04617258161306381</v>
       </c>
       <c r="B106">
-        <v>120.244758605957</v>
+        <v>118.9300079345703</v>
       </c>
       <c r="C106">
-        <v>304.9932556152344</v>
+        <v>232.9850311279297</v>
       </c>
       <c r="D106">
-        <v>4.998188972473145</v>
+        <v>11.09998989105225</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>5.64778995513916</v>
+        <v>-0.06068436056375504</v>
       </c>
       <c r="B107">
-        <v>120.2404098510742</v>
+        <v>118.9101104736328</v>
       </c>
       <c r="C107">
-        <v>304.9932250976562</v>
+        <v>232.9849243164062</v>
       </c>
       <c r="D107">
-        <v>4.998177051544189</v>
+        <v>11.09999084472656</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>5.650712966918945</v>
+        <v>-0.07514142990112305</v>
       </c>
       <c r="B108">
-        <v>120.236083984375</v>
+        <v>118.8902816772461</v>
       </c>
       <c r="C108">
-        <v>304.9931945800781</v>
+        <v>232.9848327636719</v>
       </c>
       <c r="D108">
-        <v>4.998165607452393</v>
+        <v>11.09999179840088</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>5.65363597869873</v>
+        <v>-0.0895393118262291</v>
       </c>
       <c r="B109">
-        <v>120.2317581176758</v>
+        <v>118.8705215454102</v>
       </c>
       <c r="C109">
-        <v>304.9931945800781</v>
+        <v>232.9847259521484</v>
       </c>
       <c r="D109">
-        <v>4.998153686523438</v>
+        <v>11.09998989105225</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>5.656553268432617</v>
+        <v>-0.1038912981748581</v>
       </c>
       <c r="B110">
-        <v>120.227424621582</v>
+        <v>118.8508377075195</v>
       </c>
       <c r="C110">
-        <v>304.9931640625</v>
+        <v>232.984619140625</v>
       </c>
       <c r="D110">
-        <v>4.998141765594482</v>
+        <v>11.09999179840088</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>5.659456729888916</v>
+        <v>-0.1181837767362595</v>
       </c>
       <c r="B111">
-        <v>120.2231292724609</v>
+        <v>118.8312225341797</v>
       </c>
       <c r="C111">
-        <v>304.9931335449219</v>
+        <v>232.9845123291016</v>
       </c>
       <c r="D111">
-        <v>4.998130321502686</v>
+        <v>11.09999179840088</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>5.662360191345215</v>
+        <v>-0.1324217021465302</v>
       </c>
       <c r="B112">
-        <v>120.2188262939453</v>
+        <v>118.8116760253906</v>
       </c>
       <c r="C112">
-        <v>304.9931335449219</v>
+        <v>232.9844055175781</v>
       </c>
       <c r="D112">
-        <v>4.998117923736572</v>
+        <v>11.09999179840088</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>5.665256977081299</v>
+        <v>-0.1465955078601837</v>
       </c>
       <c r="B113">
-        <v>120.2145462036133</v>
+        <v>118.7922286987305</v>
       </c>
       <c r="C113">
-        <v>304.9931030273438</v>
+        <v>232.9843139648438</v>
       </c>
       <c r="D113">
-        <v>4.998106002807617</v>
+        <v>11.09999370574951</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>5.66814136505127</v>
+        <v>-0.1607113480567932</v>
       </c>
       <c r="B114">
-        <v>120.2102661132812</v>
+        <v>118.7728424072266</v>
       </c>
       <c r="C114">
-        <v>304.9930725097656</v>
+        <v>232.9842071533203</v>
       </c>
       <c r="D114">
-        <v>4.998094081878662</v>
+        <v>11.0999927520752</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>5.671024322509766</v>
+        <v>-0.17475825548172</v>
       </c>
       <c r="B115">
-        <v>120.2059936523438</v>
+        <v>118.7535629272461</v>
       </c>
       <c r="C115">
-        <v>304.9930725097656</v>
+        <v>232.9841003417969</v>
       </c>
       <c r="D115">
-        <v>4.998081684112549</v>
+        <v>11.09999370574951</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>5.67390251159668</v>
+        <v>-0.1887509375810623</v>
       </c>
       <c r="B116">
-        <v>120.2017211914062</v>
+        <v>118.7343368530273</v>
       </c>
       <c r="C116">
-        <v>304.9930419921875</v>
+        <v>232.9839935302734</v>
       </c>
       <c r="D116">
-        <v>4.998069763183594</v>
+        <v>11.0999927520752</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>5.676767826080322</v>
+        <v>-0.2026749849319458</v>
       </c>
       <c r="B117">
-        <v>120.1974792480469</v>
+        <v>118.7152252197266</v>
       </c>
       <c r="C117">
-        <v>304.9930114746094</v>
+        <v>232.98388671875</v>
       </c>
       <c r="D117">
-        <v>4.99805736541748</v>
+        <v>11.09999370574951</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>5.67962646484375</v>
+        <v>-0.2165279537439346</v>
       </c>
       <c r="B118">
-        <v>120.193244934082</v>
+        <v>118.6961975097656</v>
       </c>
       <c r="C118">
-        <v>304.9930114746094</v>
+        <v>232.9837646484375</v>
       </c>
       <c r="D118">
-        <v>4.998044967651367</v>
+        <v>11.09999370574951</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>5.68248462677002</v>
+        <v>-0.2303215712308884</v>
       </c>
       <c r="B119">
-        <v>120.1890106201172</v>
+        <v>118.67724609375</v>
       </c>
       <c r="C119">
-        <v>304.9929809570312</v>
+        <v>232.9836578369141</v>
       </c>
       <c r="D119">
-        <v>4.998032569885254</v>
+        <v>11.0999927520752</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>5.685337066650391</v>
+        <v>-0.2440465837717056</v>
       </c>
       <c r="B120">
-        <v>120.1847763061523</v>
+        <v>118.6583938598633</v>
       </c>
       <c r="C120">
-        <v>304.9929504394531</v>
+        <v>232.9835510253906</v>
       </c>
       <c r="D120">
-        <v>4.998020172119141</v>
+        <v>11.0999927520752</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>5.688175201416016</v>
+        <v>-0.257698655128479</v>
       </c>
       <c r="B121">
-        <v>120.1805725097656</v>
+        <v>118.6396331787109</v>
       </c>
       <c r="C121">
-        <v>304.992919921875</v>
+        <v>232.9834442138672</v>
       </c>
       <c r="D121">
-        <v>4.998007774353027</v>
+        <v>11.09999370574951</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>5.691013813018799</v>
+        <v>-0.2712807059288025</v>
       </c>
       <c r="B122">
-        <v>120.1763687133789</v>
+        <v>118.6209716796875</v>
       </c>
       <c r="C122">
-        <v>304.992919921875</v>
+        <v>232.9833374023438</v>
       </c>
       <c r="D122">
-        <v>4.997994899749756</v>
+        <v>11.09999465942383</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>5.693845272064209</v>
+        <v>-0.2847858071327209</v>
       </c>
       <c r="B123">
-        <v>120.1721572875977</v>
+        <v>118.602409362793</v>
       </c>
       <c r="C123">
-        <v>304.9928894042969</v>
+        <v>232.9832153320312</v>
       </c>
       <c r="D123">
-        <v>4.997982501983643</v>
+        <v>11.09999465942383</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>5.696664333343506</v>
+        <v>-0.2982268929481506</v>
       </c>
       <c r="B124">
-        <v>120.1679840087891</v>
+        <v>118.5839385986328</v>
       </c>
       <c r="C124">
-        <v>304.9928588867188</v>
+        <v>232.9831085205078</v>
       </c>
       <c r="D124">
-        <v>4.997969627380371</v>
+        <v>11.09999370574951</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>5.699483871459961</v>
+        <v>-0.3115898072719574</v>
       </c>
       <c r="B125">
-        <v>120.1638031005859</v>
+        <v>118.565559387207</v>
       </c>
       <c r="C125">
-        <v>304.9928588867188</v>
+        <v>232.9830017089844</v>
       </c>
       <c r="D125">
-        <v>4.9979567527771</v>
+        <v>11.09999370574951</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>5.702296257019043</v>
+        <v>-0.3248735964298248</v>
       </c>
       <c r="B126">
-        <v>120.1596374511719</v>
+        <v>118.5473022460938</v>
       </c>
       <c r="C126">
-        <v>304.9928283691406</v>
+        <v>232.9828796386719</v>
       </c>
       <c r="D126">
-        <v>4.997943878173828</v>
+        <v>11.09999465942383</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>5.705102443695068</v>
+        <v>-0.3380889296531677</v>
       </c>
       <c r="B127">
-        <v>120.1554718017578</v>
+        <v>118.5291290283203</v>
       </c>
       <c r="C127">
-        <v>304.9927978515625</v>
+        <v>232.9827728271484</v>
       </c>
       <c r="D127">
-        <v>4.997931003570557</v>
+        <v>11.09999561309814</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>5.707889556884766</v>
+        <v>-0.3512254357337952</v>
       </c>
       <c r="B128">
-        <v>120.1513290405273</v>
+        <v>118.5110626220703</v>
       </c>
       <c r="C128">
-        <v>304.9927978515625</v>
+        <v>232.9826507568359</v>
       </c>
       <c r="D128">
-        <v>4.997918128967285</v>
+        <v>11.09999465942383</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>5.710684776306152</v>
+        <v>-0.3642882406711578</v>
       </c>
       <c r="B129">
-        <v>120.1471939086914</v>
+        <v>118.4931030273438</v>
       </c>
       <c r="C129">
-        <v>304.9927673339844</v>
+        <v>232.9825439453125</v>
       </c>
       <c r="D129">
-        <v>4.997904777526855</v>
+        <v>11.09999561309814</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>5.71347188949585</v>
+        <v>-0.3772664964199066</v>
       </c>
       <c r="B130">
-        <v>120.1430511474609</v>
+        <v>118.4752502441406</v>
       </c>
       <c r="C130">
-        <v>304.9927368164062</v>
+        <v>232.982421875</v>
       </c>
       <c r="D130">
-        <v>4.997891902923584</v>
+        <v>11.09999465942383</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>5.71624755859375</v>
+        <v>-0.3901627063751221</v>
       </c>
       <c r="B131">
-        <v>120.1389389038086</v>
+        <v>118.4575042724609</v>
       </c>
       <c r="C131">
-        <v>304.9927062988281</v>
+        <v>232.9822998046875</v>
       </c>
       <c r="D131">
-        <v>4.997879028320312</v>
+        <v>11.09999561309814</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>5.719020843505859</v>
+        <v>-0.4029882848262787</v>
       </c>
       <c r="B132">
-        <v>120.1348266601562</v>
+        <v>118.4398574829102</v>
       </c>
       <c r="C132">
-        <v>304.9927062988281</v>
+        <v>232.9821929931641</v>
       </c>
       <c r="D132">
-        <v>4.997865676879883</v>
+        <v>11.09999656677246</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>5.721789360046387</v>
+        <v>-0.4157303869724274</v>
       </c>
       <c r="B133">
-        <v>120.1307144165039</v>
+        <v>118.4223251342773</v>
       </c>
       <c r="C133">
-        <v>304.99267578125</v>
+        <v>232.9820709228516</v>
       </c>
       <c r="D133">
-        <v>4.997852325439453</v>
+        <v>11.09999561309814</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>5.724544048309326</v>
+        <v>-0.4283839464187622</v>
       </c>
       <c r="B134">
-        <v>120.1266250610352</v>
+        <v>118.4049224853516</v>
       </c>
       <c r="C134">
-        <v>304.9926452636719</v>
+        <v>232.9819488525391</v>
       </c>
       <c r="D134">
-        <v>4.997838973999023</v>
+        <v>11.09999561309814</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>5.727299213409424</v>
+        <v>-0.4409656524658203</v>
       </c>
       <c r="B135">
-        <v>120.1225433349609</v>
+        <v>118.3875961303711</v>
       </c>
       <c r="C135">
-        <v>304.9926452636719</v>
+        <v>232.9818267822266</v>
       </c>
       <c r="D135">
-        <v>4.997825622558594</v>
+        <v>11.09999561309814</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>5.730047702789307</v>
+        <v>-0.4534614384174347</v>
       </c>
       <c r="B136">
-        <v>120.1184539794922</v>
+        <v>118.3703994750977</v>
       </c>
       <c r="C136">
-        <v>304.9926147460938</v>
+        <v>232.9817199707031</v>
       </c>
       <c r="D136">
-        <v>4.997812271118164</v>
+        <v>11.09999561309814</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>5.732790470123291</v>
+        <v>-0.4658787250518799</v>
       </c>
       <c r="B137">
-        <v>120.1143798828125</v>
+        <v>118.3533020019531</v>
       </c>
       <c r="C137">
-        <v>304.9925842285156</v>
+        <v>232.9815979003906</v>
       </c>
       <c r="D137">
-        <v>4.997798919677734</v>
+        <v>11.09999561309814</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>5.735519886016846</v>
+        <v>-0.4782054424285889</v>
       </c>
       <c r="B138">
-        <v>120.1103363037109</v>
+        <v>118.3363265991211</v>
       </c>
       <c r="C138">
-        <v>304.9925842285156</v>
+        <v>232.9814758300781</v>
       </c>
       <c r="D138">
-        <v>4.997785568237305</v>
+        <v>11.09999752044678</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>5.738249778747559</v>
+        <v>-0.4904514849185944</v>
       </c>
       <c r="B139">
-        <v>120.1062774658203</v>
+        <v>118.319465637207</v>
       </c>
       <c r="C139">
-        <v>304.9925537109375</v>
+        <v>232.9813537597656</v>
       </c>
       <c r="D139">
-        <v>4.997771739959717</v>
+        <v>11.09999656677246</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>5.740968704223633</v>
+        <v>-0.5026066303253174</v>
       </c>
       <c r="B140">
-        <v>120.1022415161133</v>
+        <v>118.3027191162109</v>
       </c>
       <c r="C140">
-        <v>304.9925231933594</v>
+        <v>232.9812316894531</v>
       </c>
       <c r="D140">
-        <v>4.997758388519287</v>
+        <v>11.09999561309814</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>5.743679523468018</v>
+        <v>-0.5146859288215637</v>
       </c>
       <c r="B141">
-        <v>120.0982131958008</v>
+        <v>118.2860946655273</v>
       </c>
       <c r="C141">
-        <v>304.9925231933594</v>
+        <v>232.9811096191406</v>
       </c>
       <c r="D141">
-        <v>4.997744560241699</v>
+        <v>11.09999561309814</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>5.746391773223877</v>
+        <v>-0.5266769528388977</v>
       </c>
       <c r="B142">
-        <v>120.0941925048828</v>
+        <v>118.2695693969727</v>
       </c>
       <c r="C142">
-        <v>304.9924926757812</v>
+        <v>232.9809875488281</v>
       </c>
       <c r="D142">
-        <v>4.997730731964111</v>
+        <v>11.09999752044678</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>5.749096870422363</v>
+        <v>-0.5385749936103821</v>
       </c>
       <c r="B143">
-        <v>120.0901718139648</v>
+        <v>118.253173828125</v>
       </c>
       <c r="C143">
-        <v>304.9924621582031</v>
+        <v>232.9808654785156</v>
       </c>
       <c r="D143">
-        <v>4.997716903686523</v>
+        <v>11.09999752044678</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>5.751789093017578</v>
+        <v>-0.5503971576690674</v>
       </c>
       <c r="B144">
-        <v>120.0861663818359</v>
+        <v>118.2368850708008</v>
       </c>
       <c r="C144">
-        <v>304.992431640625</v>
+        <v>232.9807281494141</v>
       </c>
       <c r="D144">
-        <v>4.997703075408936</v>
+        <v>11.09999656677246</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>5.754481792449951</v>
+        <v>-0.5621310472488403</v>
       </c>
       <c r="B145">
-        <v>120.0821762084961</v>
+        <v>118.2207107543945</v>
       </c>
       <c r="C145">
-        <v>304.992431640625</v>
+        <v>232.9806060791016</v>
       </c>
       <c r="D145">
-        <v>4.997689247131348</v>
+        <v>11.09999656677246</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>5.757167816162109</v>
+        <v>-0.5737746357917786</v>
       </c>
       <c r="B146">
-        <v>120.0781860351562</v>
+        <v>118.2046661376953</v>
       </c>
       <c r="C146">
-        <v>304.9924011230469</v>
+        <v>232.9804840087891</v>
       </c>
       <c r="D146">
-        <v>4.99767541885376</v>
+        <v>11.09999561309814</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>5.759847640991211</v>
+        <v>-0.5853332877159119</v>
       </c>
       <c r="B147">
-        <v>120.0742034912109</v>
+        <v>118.188720703125</v>
       </c>
       <c r="C147">
-        <v>304.9923706054688</v>
+        <v>232.9803619384766</v>
       </c>
       <c r="D147">
-        <v>4.997661590576172</v>
+        <v>11.09999656677246</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>5.762514591217041</v>
+        <v>-0.5967965722084045</v>
       </c>
       <c r="B148">
-        <v>120.0702362060547</v>
+        <v>118.1729125976562</v>
       </c>
       <c r="C148">
-        <v>304.9923706054688</v>
+        <v>232.980224609375</v>
       </c>
       <c r="D148">
-        <v>4.997647762298584</v>
+        <v>11.09999656677246</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>5.765182018280029</v>
+        <v>-0.6081823110580444</v>
       </c>
       <c r="B149">
-        <v>120.0662689208984</v>
+        <v>118.1572189331055</v>
       </c>
       <c r="C149">
-        <v>304.9923400878906</v>
+        <v>232.9801025390625</v>
       </c>
       <c r="D149">
-        <v>4.997633457183838</v>
+        <v>11.09999847412109</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>5.767843723297119</v>
+        <v>-0.6194769740104675</v>
       </c>
       <c r="B150">
-        <v>120.0623168945312</v>
+        <v>118.1416397094727</v>
       </c>
       <c r="C150">
-        <v>304.9923095703125</v>
+        <v>232.97998046875</v>
       </c>
       <c r="D150">
-        <v>4.99761962890625</v>
+        <v>11.09999847412109</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>5.770492076873779</v>
+        <v>-0.6306767463684082</v>
       </c>
       <c r="B151">
-        <v>120.0583801269531</v>
+        <v>118.1261901855469</v>
       </c>
       <c r="C151">
-        <v>304.9923095703125</v>
+        <v>232.9798431396484</v>
       </c>
       <c r="D151">
-        <v>4.997605323791504</v>
+        <v>11.09999561309814</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>5.773135185241699</v>
+        <v>-0.641798198223114</v>
       </c>
       <c r="B152">
-        <v>120.0544509887695</v>
+        <v>118.1108474731445</v>
       </c>
       <c r="C152">
-        <v>304.9922790527344</v>
+        <v>232.9797210693359</v>
       </c>
       <c r="D152">
-        <v>4.997591018676758</v>
+        <v>11.09999561309814</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>5.775779724121094</v>
+        <v>-0.6528273820877075</v>
       </c>
       <c r="B153">
-        <v>120.0505294799805</v>
+        <v>118.0956268310547</v>
       </c>
       <c r="C153">
-        <v>304.9922485351562</v>
+        <v>232.9795837402344</v>
       </c>
       <c r="D153">
-        <v>4.99757719039917</v>
+        <v>11.09999752044678</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>5.778409957885742</v>
+        <v>-0.6637706160545349</v>
       </c>
       <c r="B154">
-        <v>120.0466156005859</v>
+        <v>118.0805206298828</v>
       </c>
       <c r="C154">
-        <v>304.9922180175781</v>
+        <v>232.9794616699219</v>
       </c>
       <c r="D154">
-        <v>4.997562885284424</v>
+        <v>11.09999752044678</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>5.781041145324707</v>
+        <v>-0.6746203899383545</v>
       </c>
       <c r="B155">
-        <v>120.0427017211914</v>
+        <v>118.0655517578125</v>
       </c>
       <c r="C155">
-        <v>304.9922180175781</v>
+        <v>232.9793243408203</v>
       </c>
       <c r="D155">
-        <v>4.997548580169678</v>
+        <v>11.09999847412109</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>5.783666133880615</v>
+        <v>-0.6853769421577454</v>
       </c>
       <c r="B156">
-        <v>120.0388031005859</v>
+        <v>118.0507125854492</v>
       </c>
       <c r="C156">
-        <v>304.9921875</v>
+        <v>232.9792022705078</v>
       </c>
       <c r="D156">
-        <v>4.997534275054932</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>5.786284923553467</v>
+        <v>-0.6960538029670715</v>
       </c>
       <c r="B157">
-        <v>120.0349044799805</v>
+        <v>118.0359649658203</v>
       </c>
       <c r="C157">
-        <v>304.9921569824219</v>
+        <v>232.9790649414062</v>
       </c>
       <c r="D157">
-        <v>4.997519969940186</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>5.788889408111572</v>
+        <v>-0.7066380381584167</v>
       </c>
       <c r="B158">
-        <v>120.0310363769531</v>
+        <v>118.0213394165039</v>
       </c>
       <c r="C158">
-        <v>304.9921569824219</v>
+        <v>232.9789276123047</v>
       </c>
       <c r="D158">
-        <v>4.997505664825439</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>5.791495800018311</v>
+        <v>-0.7171275615692139</v>
       </c>
       <c r="B159">
-        <v>120.0271606445312</v>
+        <v>118.0068511962891</v>
       </c>
       <c r="C159">
-        <v>304.9921264648438</v>
+        <v>232.9788055419922</v>
       </c>
       <c r="D159">
-        <v>4.997490882873535</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>5.794095993041992</v>
+        <v>-0.7275370359420776</v>
       </c>
       <c r="B160">
-        <v>120.0233001708984</v>
+        <v>117.9924697875977</v>
       </c>
       <c r="C160">
-        <v>304.9920959472656</v>
+        <v>232.9786682128906</v>
       </c>
       <c r="D160">
-        <v>4.997476577758789</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>5.796682834625244</v>
+        <v>-0.7378531694412231</v>
       </c>
       <c r="B161">
-        <v>120.0194549560547</v>
+        <v>117.9782257080078</v>
       </c>
       <c r="C161">
-        <v>304.9920959472656</v>
+        <v>232.9785308837891</v>
       </c>
       <c r="D161">
-        <v>4.997462272644043</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>5.799271106719971</v>
+        <v>-0.7480844259262085</v>
       </c>
       <c r="B162">
-        <v>120.0155944824219</v>
+        <v>117.9640884399414</v>
       </c>
       <c r="C162">
-        <v>304.9920654296875</v>
+        <v>232.9783935546875</v>
       </c>
       <c r="D162">
-        <v>4.997447490692139</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>5.801846504211426</v>
+        <v>-0.7582208514213562</v>
       </c>
       <c r="B163">
-        <v>120.0117645263672</v>
+        <v>117.950080871582</v>
       </c>
       <c r="C163">
-        <v>304.9920349121094</v>
+        <v>232.9782562255859</v>
       </c>
       <c r="D163">
-        <v>4.997433185577393</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>5.804417133331299</v>
+        <v>-0.7682708501815796</v>
       </c>
       <c r="B164">
-        <v>120.0079498291016</v>
+        <v>117.9361877441406</v>
       </c>
       <c r="C164">
-        <v>304.9920043945312</v>
+        <v>232.9781188964844</v>
       </c>
       <c r="D164">
-        <v>4.997418403625488</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>5.806987762451172</v>
+        <v>-0.7782236337661743</v>
       </c>
       <c r="B165">
-        <v>120.0041275024414</v>
+        <v>117.9224243164062</v>
       </c>
       <c r="C165">
-        <v>304.9920043945312</v>
+        <v>232.9779815673828</v>
       </c>
       <c r="D165">
-        <v>4.997403621673584</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>5.809552192687988</v>
+        <v>-0.7880989909172058</v>
       </c>
       <c r="B166">
-        <v>120.0003051757812</v>
+        <v>117.9087677001953</v>
       </c>
       <c r="C166">
-        <v>304.9919738769531</v>
+        <v>232.9778442382812</v>
       </c>
       <c r="D166">
-        <v>4.99738883972168</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>5.81210994720459</v>
+        <v>-0.7978807091712952</v>
       </c>
       <c r="B167">
-        <v>119.9965057373047</v>
+        <v>117.8952484130859</v>
       </c>
       <c r="C167">
-        <v>304.991943359375</v>
+        <v>232.9777069091797</v>
       </c>
       <c r="D167">
-        <v>4.997374534606934</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>5.814654350280762</v>
+        <v>-0.8075666427612305</v>
       </c>
       <c r="B168">
-        <v>119.9927139282227</v>
+        <v>117.8818511962891</v>
       </c>
       <c r="C168">
-        <v>304.991943359375</v>
+        <v>232.9775695800781</v>
       </c>
       <c r="D168">
-        <v>4.997359752655029</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>5.817200183868408</v>
+        <v>-0.8171743154525757</v>
       </c>
       <c r="B169">
-        <v>119.9889297485352</v>
+        <v>117.8685607910156</v>
       </c>
       <c r="C169">
-        <v>304.9919128417969</v>
+        <v>232.9774322509766</v>
       </c>
       <c r="D169">
-        <v>4.997344970703125</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>5.819740772247314</v>
+        <v>-0.8266925811767578</v>
       </c>
       <c r="B170">
-        <v>119.9851531982422</v>
+        <v>117.8553924560547</v>
       </c>
       <c r="C170">
-        <v>304.9918823242188</v>
+        <v>232.977294921875</v>
       </c>
       <c r="D170">
-        <v>4.997330188751221</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>5.822267532348633</v>
+        <v>-0.8361180424690247</v>
       </c>
       <c r="B171">
-        <v>119.9813842773438</v>
+        <v>117.8423385620117</v>
       </c>
       <c r="C171">
-        <v>304.9918823242188</v>
+        <v>232.9771575927734</v>
       </c>
       <c r="D171">
-        <v>4.997315406799316</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>5.824794769287109</v>
+        <v>-0.8454570174217224</v>
       </c>
       <c r="B172">
-        <v>119.9776382446289</v>
+        <v>117.8294143676758</v>
       </c>
       <c r="C172">
-        <v>304.9918518066406</v>
+        <v>232.9770202636719</v>
       </c>
       <c r="D172">
-        <v>4.997300624847412</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>5.827317237854004</v>
+        <v>-0.8546998500823975</v>
       </c>
       <c r="B173">
-        <v>119.9738693237305</v>
+        <v>117.8166198730469</v>
       </c>
       <c r="C173">
-        <v>304.9918212890625</v>
+        <v>232.9768829345703</v>
       </c>
       <c r="D173">
-        <v>4.99728536605835</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>5.829825878143311</v>
+        <v>-0.8638653755187988</v>
       </c>
       <c r="B174">
-        <v>119.9701461791992</v>
+        <v>117.8039321899414</v>
       </c>
       <c r="C174">
-        <v>304.9917907714844</v>
+        <v>232.9767303466797</v>
       </c>
       <c r="D174">
-        <v>4.997270584106445</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>5.832329750061035</v>
+        <v>-0.8729401230812073</v>
       </c>
       <c r="B175">
-        <v>119.9664154052734</v>
+        <v>117.7913665771484</v>
       </c>
       <c r="C175">
-        <v>304.9917907714844</v>
+        <v>232.9765930175781</v>
       </c>
       <c r="D175">
-        <v>4.997255802154541</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>5.834834575653076</v>
+        <v>-0.8819208145141602</v>
       </c>
       <c r="B176">
-        <v>119.9626770019531</v>
+        <v>117.778923034668</v>
       </c>
       <c r="C176">
-        <v>304.9917602539062</v>
+        <v>232.9764556884766</v>
       </c>
       <c r="D176">
-        <v>4.997240543365479</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>5.837333679199219</v>
+        <v>-0.8908238410949707</v>
       </c>
       <c r="B177">
-        <v>119.9589691162109</v>
+        <v>117.7666015625</v>
       </c>
       <c r="C177">
-        <v>304.9917297363281</v>
+        <v>232.9763031005859</v>
       </c>
       <c r="D177">
-        <v>4.997225761413574</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>5.839818954467773</v>
+        <v>-0.8996353149414062</v>
       </c>
       <c r="B178">
-        <v>119.9552688598633</v>
+        <v>117.7543869018555</v>
       </c>
       <c r="C178">
-        <v>304.9917297363281</v>
+        <v>232.9761657714844</v>
       </c>
       <c r="D178">
-        <v>4.99721097946167</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>5.842305660247803</v>
+        <v>-0.9083639979362488</v>
       </c>
       <c r="B179">
-        <v>119.9515686035156</v>
+        <v>117.7422943115234</v>
       </c>
       <c r="C179">
-        <v>304.99169921875</v>
+        <v>232.9760284423828</v>
       </c>
       <c r="D179">
-        <v>4.997195720672607</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>5.844785690307617</v>
+        <v>-0.9170001149177551</v>
       </c>
       <c r="B180">
-        <v>119.947868347168</v>
+        <v>117.7303161621094</v>
       </c>
       <c r="C180">
-        <v>304.9916687011719</v>
+        <v>232.9758758544922</v>
       </c>
       <c r="D180">
-        <v>4.997180938720703</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>5.847253799438477</v>
+        <v>-0.925547182559967</v>
       </c>
       <c r="B181">
-        <v>119.9441986083984</v>
+        <v>117.7184829711914</v>
       </c>
       <c r="C181">
-        <v>304.9916687011719</v>
+        <v>232.9757385253906</v>
       </c>
       <c r="D181">
-        <v>4.997165679931641</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>5.849721908569336</v>
+        <v>-0.9340157508850098</v>
       </c>
       <c r="B182">
-        <v>119.9405288696289</v>
+        <v>117.7067337036133</v>
       </c>
       <c r="C182">
-        <v>304.9916381835938</v>
+        <v>232.9755859375</v>
       </c>
       <c r="D182">
-        <v>4.997150421142578</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>5.852184772491455</v>
+        <v>-0.9423948526382446</v>
       </c>
       <c r="B183">
-        <v>119.9368591308594</v>
+        <v>117.6951293945312</v>
       </c>
       <c r="C183">
-        <v>304.9916076660156</v>
+        <v>232.9754333496094</v>
       </c>
       <c r="D183">
-        <v>4.997135639190674</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>5.854634761810303</v>
+        <v>-0.9506843090057373</v>
       </c>
       <c r="B184">
-        <v>119.9332122802734</v>
+        <v>117.6836242675781</v>
       </c>
       <c r="C184">
-        <v>304.9915771484375</v>
+        <v>232.9752960205078</v>
       </c>
       <c r="D184">
-        <v>4.997120380401611</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>5.857085704803467</v>
+        <v>-0.9588959217071533</v>
       </c>
       <c r="B185">
-        <v>119.9295501708984</v>
+        <v>117.6722412109375</v>
       </c>
       <c r="C185">
-        <v>304.9915771484375</v>
+        <v>232.9751434326172</v>
       </c>
       <c r="D185">
-        <v>4.997105121612549</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>5.859531402587891</v>
+        <v>-0.9670201539993286</v>
       </c>
       <c r="B186">
-        <v>119.9259185791016</v>
+        <v>117.6609725952148</v>
       </c>
       <c r="C186">
-        <v>304.9915466308594</v>
+        <v>232.9749908447266</v>
       </c>
       <c r="D186">
-        <v>4.997090339660645</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>5.861964225769043</v>
+        <v>-0.9750627875328064</v>
       </c>
       <c r="B187">
-        <v>119.9222869873047</v>
+        <v>117.6498184204102</v>
       </c>
       <c r="C187">
-        <v>304.9915161132812</v>
+        <v>232.974853515625</v>
       </c>
       <c r="D187">
-        <v>4.997075080871582</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>5.864391803741455</v>
+        <v>-0.983018159866333</v>
       </c>
       <c r="B188">
-        <v>119.9186706542969</v>
+        <v>117.638786315918</v>
       </c>
       <c r="C188">
-        <v>304.9915161132812</v>
+        <v>232.9747009277344</v>
       </c>
       <c r="D188">
-        <v>4.99705982208252</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>5.866819858551025</v>
+        <v>-0.9908886551856995</v>
       </c>
       <c r="B189">
-        <v>119.9150466918945</v>
+        <v>117.6278610229492</v>
       </c>
       <c r="C189">
-        <v>304.9914855957031</v>
+        <v>232.9745483398438</v>
       </c>
       <c r="D189">
-        <v>4.997044563293457</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>5.869242668151855</v>
+        <v>-0.9986701607704163</v>
       </c>
       <c r="B190">
-        <v>119.9114456176758</v>
+        <v>117.617057800293</v>
       </c>
       <c r="C190">
-        <v>304.991455078125</v>
+        <v>232.9743957519531</v>
       </c>
       <c r="D190">
-        <v>4.997029304504395</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>5.871651649475098</v>
+        <v>-1.006379246711731</v>
       </c>
       <c r="B191">
-        <v>119.9078521728516</v>
+        <v>117.6063690185547</v>
       </c>
       <c r="C191">
-        <v>304.991455078125</v>
+        <v>232.9742584228516</v>
       </c>
       <c r="D191">
-        <v>4.997014045715332</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>5.874061584472656</v>
+        <v>-1.014002799987793</v>
       </c>
       <c r="B192">
-        <v>119.9042587280273</v>
+        <v>117.5957946777344</v>
       </c>
       <c r="C192">
-        <v>304.9914245605469</v>
+        <v>232.9741058349609</v>
       </c>
       <c r="D192">
-        <v>4.99699878692627</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>5.876466751098633</v>
+        <v>-1.021536469459534</v>
       </c>
       <c r="B193">
-        <v>119.9006805419922</v>
+        <v>117.5853271484375</v>
       </c>
       <c r="C193">
-        <v>304.9913940429688</v>
+        <v>232.9739532470703</v>
       </c>
       <c r="D193">
-        <v>4.996983528137207</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>5.878858089447021</v>
+        <v>-1.028998613357544</v>
       </c>
       <c r="B194">
-        <v>119.8971176147461</v>
+        <v>117.5749664306641</v>
       </c>
       <c r="C194">
-        <v>304.9913940429688</v>
+        <v>232.9738006591797</v>
       </c>
       <c r="D194">
-        <v>4.996968269348145</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>5.881251335144043</v>
+        <v>-1.036379933357239</v>
       </c>
       <c r="B195">
-        <v>119.8935546875</v>
+        <v>117.5647277832031</v>
       </c>
       <c r="C195">
-        <v>304.9913635253906</v>
+        <v>232.9736480712891</v>
       </c>
       <c r="D195">
-        <v>4.996953010559082</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>5.883638858795166</v>
+        <v>-1.043674826622009</v>
       </c>
       <c r="B196">
-        <v>119.8899993896484</v>
+        <v>117.5546035766602</v>
       </c>
       <c r="C196">
-        <v>304.9913330078125</v>
+        <v>232.9734954833984</v>
       </c>
       <c r="D196">
-        <v>4.99693775177002</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>5.886020183563232</v>
+        <v>-1.050891399383545</v>
       </c>
       <c r="B197">
-        <v>119.8864517211914</v>
+        <v>117.5445785522461</v>
       </c>
       <c r="C197">
-        <v>304.9913330078125</v>
+        <v>232.9733428955078</v>
       </c>
       <c r="D197">
-        <v>4.996922492980957</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>5.888382434844971</v>
+        <v>-1.058021306991577</v>
       </c>
       <c r="B198">
-        <v>119.8829193115234</v>
+        <v>117.5346755981445</v>
       </c>
       <c r="C198">
-        <v>304.9913024902344</v>
+        <v>232.9731750488281</v>
       </c>
       <c r="D198">
-        <v>4.996907234191895</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>5.890752792358398</v>
+        <v>-1.065081715583801</v>
       </c>
       <c r="B199">
-        <v>119.87939453125</v>
+        <v>117.5248794555664</v>
       </c>
       <c r="C199">
-        <v>304.9912719726562</v>
+        <v>232.9730224609375</v>
       </c>
       <c r="D199">
-        <v>4.996891975402832</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>5.893118381500244</v>
+        <v>-1.072061061859131</v>
       </c>
       <c r="B200">
-        <v>119.8758697509766</v>
+        <v>117.5151824951172</v>
       </c>
       <c r="C200">
-        <v>304.9912414550781</v>
+        <v>232.9728698730469</v>
       </c>
       <c r="D200">
-        <v>4.996876239776611</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>5.895470142364502</v>
+        <v>-1.078954935073853</v>
       </c>
       <c r="B201">
-        <v>119.8723602294922</v>
+        <v>117.505615234375</v>
       </c>
       <c r="C201">
-        <v>304.9912414550781</v>
+        <v>232.9727172851562</v>
       </c>
       <c r="D201">
-        <v>4.996860980987549</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>5.897822380065918</v>
+        <v>-1.085780024528503</v>
       </c>
       <c r="B202">
-        <v>119.8688659667969</v>
+        <v>117.4961318969727</v>
       </c>
       <c r="C202">
-        <v>304.9912109375</v>
+        <v>232.9725646972656</v>
       </c>
       <c r="D202">
-        <v>4.996845722198486</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>5.900169849395752</v>
+        <v>-1.092525482177734</v>
       </c>
       <c r="B203">
-        <v>119.865364074707</v>
+        <v>117.4867706298828</v>
       </c>
       <c r="C203">
-        <v>304.9911804199219</v>
+        <v>232.9723968505859</v>
       </c>
       <c r="D203">
-        <v>4.996830463409424</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>5.902504444122314</v>
+        <v>-1.09919798374176</v>
       </c>
       <c r="B204">
-        <v>119.8618774414062</v>
+        <v>117.4775009155273</v>
       </c>
       <c r="C204">
-        <v>304.9911804199219</v>
+        <v>232.9722442626953</v>
       </c>
       <c r="D204">
-        <v>4.996815204620361</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>5.904839992523193</v>
+        <v>-1.10578978061676</v>
       </c>
       <c r="B205">
-        <v>119.8583908081055</v>
+        <v>117.4683532714844</v>
       </c>
       <c r="C205">
-        <v>304.9911499023438</v>
+        <v>232.9720916748047</v>
       </c>
       <c r="D205">
-        <v>4.996799945831299</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>5.907170295715332</v>
+        <v>-1.112299680709839</v>
       </c>
       <c r="B206">
-        <v>119.8549194335938</v>
+        <v>117.4593124389648</v>
       </c>
       <c r="C206">
-        <v>304.9911193847656</v>
+        <v>232.971923828125</v>
       </c>
       <c r="D206">
-        <v>4.996784210205078</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>5.909494876861572</v>
+        <v>-1.118745923042297</v>
       </c>
       <c r="B207">
-        <v>119.8514633178711</v>
+        <v>117.4503707885742</v>
       </c>
       <c r="C207">
-        <v>304.9911193847656</v>
+        <v>232.9717712402344</v>
       </c>
       <c r="D207">
-        <v>4.996768951416016</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>5.911806583404541</v>
+        <v>-1.125114917755127</v>
       </c>
       <c r="B208">
-        <v>119.848014831543</v>
+        <v>117.4415283203125</v>
       </c>
       <c r="C208">
-        <v>304.9910888671875</v>
+        <v>232.9716033935547</v>
       </c>
       <c r="D208">
-        <v>4.996753692626953</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>5.914119243621826</v>
+        <v>-1.131405115127563</v>
       </c>
       <c r="B209">
-        <v>119.8445587158203</v>
+        <v>117.4328002929688</v>
       </c>
       <c r="C209">
-        <v>304.9910583496094</v>
+        <v>232.9714508056641</v>
       </c>
       <c r="D209">
-        <v>4.996738433837891</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>5.916420459747314</v>
+        <v>-1.137630105018616</v>
       </c>
       <c r="B210">
-        <v>119.8411254882812</v>
+        <v>117.4241485595703</v>
       </c>
       <c r="C210">
-        <v>304.9910583496094</v>
+        <v>232.9712829589844</v>
       </c>
       <c r="D210">
-        <v>4.996723175048828</v>
+        <v>11.10000038146973</v>
       </c>
     </row>
   </sheetData>

--- a/sub2/hasil prediktor.xlsx
+++ b/sub2/hasil prediktor.xlsx
@@ -348,2942 +348,2942 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>1.430303335189819</v>
+        <v>3.465209722518921</v>
       </c>
       <c r="B1">
-        <v>120.9279708862305</v>
+        <v>123.1943359375</v>
       </c>
       <c r="C1">
-        <v>232.9939117431641</v>
+        <v>126.0000076293945</v>
       </c>
       <c r="D1">
-        <v>11.09993934631348</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1.418273210525513</v>
+        <v>3.461016178131104</v>
       </c>
       <c r="B2">
-        <v>120.9120025634766</v>
+        <v>123.2001876831055</v>
       </c>
       <c r="C2">
-        <v>232.9938354492188</v>
+        <v>126.0000076293945</v>
       </c>
       <c r="D2">
-        <v>11.09993934631348</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1.406211376190186</v>
+        <v>3.456855773925781</v>
       </c>
       <c r="B3">
-        <v>120.8959884643555</v>
+        <v>123.2060012817383</v>
       </c>
       <c r="C3">
-        <v>232.9937591552734</v>
+        <v>126.0000076293945</v>
       </c>
       <c r="D3">
-        <v>11.09994029998779</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1.394110560417175</v>
+        <v>3.452728509902954</v>
       </c>
       <c r="B4">
-        <v>120.8799133300781</v>
+        <v>123.2117538452148</v>
       </c>
       <c r="C4">
-        <v>232.9936828613281</v>
+        <v>126.0000076293945</v>
       </c>
       <c r="D4">
-        <v>11.09994125366211</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1.381976962089539</v>
+        <v>3.448634624481201</v>
       </c>
       <c r="B5">
-        <v>120.8638000488281</v>
+        <v>123.2174835205078</v>
       </c>
       <c r="C5">
-        <v>232.9936065673828</v>
+        <v>126.0000076293945</v>
       </c>
       <c r="D5">
-        <v>11.09994316101074</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1.36980938911438</v>
+        <v>3.444572687149048</v>
       </c>
       <c r="B6">
-        <v>120.8476257324219</v>
+        <v>123.22314453125</v>
       </c>
       <c r="C6">
-        <v>232.9935302734375</v>
+        <v>126.0000076293945</v>
       </c>
       <c r="D6">
-        <v>11.09994411468506</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1.357596755027771</v>
+        <v>3.44054388999939</v>
       </c>
       <c r="B7">
-        <v>120.8313903808594</v>
+        <v>123.2287826538086</v>
       </c>
       <c r="C7">
-        <v>232.9934539794922</v>
+        <v>126.0000076293945</v>
       </c>
       <c r="D7">
-        <v>11.09994316101074</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1.345347881317139</v>
+        <v>3.436547756195068</v>
       </c>
       <c r="B8">
-        <v>120.8151016235352</v>
+        <v>123.2343673706055</v>
       </c>
       <c r="C8">
-        <v>232.9933624267578</v>
+        <v>126</v>
       </c>
       <c r="D8">
-        <v>11.09994506835938</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1.333064317703247</v>
+        <v>3.432583570480347</v>
       </c>
       <c r="B9">
-        <v>120.7987670898438</v>
+        <v>123.2399063110352</v>
       </c>
       <c r="C9">
-        <v>232.9932861328125</v>
+        <v>126</v>
       </c>
       <c r="D9">
-        <v>11.09994602203369</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1.320734977722168</v>
+        <v>3.428651809692383</v>
       </c>
       <c r="B10">
-        <v>120.782356262207</v>
+        <v>123.2453994750977</v>
       </c>
       <c r="C10">
-        <v>232.9932098388672</v>
+        <v>126</v>
       </c>
       <c r="D10">
-        <v>11.09994697570801</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>1.308366537094116</v>
+        <v>3.424751281738281</v>
       </c>
       <c r="B11">
-        <v>120.7658920288086</v>
+        <v>123.2508316040039</v>
       </c>
       <c r="C11">
-        <v>232.9931335449219</v>
+        <v>126</v>
       </c>
       <c r="D11">
-        <v>11.09994602203369</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1.295952320098877</v>
+        <v>3.420882701873779</v>
       </c>
       <c r="B12">
-        <v>120.7493591308594</v>
+        <v>123.2562408447266</v>
       </c>
       <c r="C12">
-        <v>232.9930572509766</v>
+        <v>126</v>
       </c>
       <c r="D12">
-        <v>11.09994792938232</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1.283500552177429</v>
+        <v>3.417045593261719</v>
       </c>
       <c r="B13">
-        <v>120.7327728271484</v>
+        <v>123.261604309082</v>
       </c>
       <c r="C13">
-        <v>232.9929656982422</v>
+        <v>126</v>
       </c>
       <c r="D13">
-        <v>11.09994983673096</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1.27100396156311</v>
+        <v>3.413239717483521</v>
       </c>
       <c r="B14">
-        <v>120.7161178588867</v>
+        <v>123.2669219970703</v>
       </c>
       <c r="C14">
-        <v>232.9928894042969</v>
+        <v>126</v>
       </c>
       <c r="D14">
-        <v>11.09994888305664</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>1.258470296859741</v>
+        <v>3.409465312957764</v>
       </c>
       <c r="B15">
-        <v>120.6994094848633</v>
+        <v>123.2721862792969</v>
       </c>
       <c r="C15">
-        <v>232.9928131103516</v>
+        <v>126</v>
       </c>
       <c r="D15">
-        <v>11.09995174407959</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>1.245884299278259</v>
+        <v>3.405721187591553</v>
       </c>
       <c r="B16">
-        <v>120.6826171875</v>
+        <v>123.2774124145508</v>
       </c>
       <c r="C16">
-        <v>232.9927368164062</v>
+        <v>126</v>
       </c>
       <c r="D16">
-        <v>11.09995079040527</v>
+        <v>11.10000419616699</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1.233256459236145</v>
+        <v>3.402008056640625</v>
       </c>
       <c r="B17">
-        <v>120.665771484375</v>
+        <v>123.2826080322266</v>
       </c>
       <c r="C17">
-        <v>232.9926605224609</v>
+        <v>126</v>
       </c>
       <c r="D17">
-        <v>11.09995269775391</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1.220587730407715</v>
+        <v>3.398325204849243</v>
       </c>
       <c r="B18">
-        <v>120.6488647460938</v>
+        <v>123.2877502441406</v>
       </c>
       <c r="C18">
-        <v>232.9925689697266</v>
+        <v>126</v>
       </c>
       <c r="D18">
-        <v>11.09995269775391</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>1.207865834236145</v>
+        <v>3.394672870635986</v>
       </c>
       <c r="B19">
-        <v>120.6318740844727</v>
+        <v>123.292854309082</v>
       </c>
       <c r="C19">
-        <v>232.9924926757812</v>
+        <v>126</v>
       </c>
       <c r="D19">
-        <v>11.09995269775391</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1.195097923278809</v>
+        <v>3.391050815582275</v>
       </c>
       <c r="B20">
-        <v>120.6148300170898</v>
+        <v>123.2979125976562</v>
       </c>
       <c r="C20">
-        <v>232.9924163818359</v>
+        <v>126</v>
       </c>
       <c r="D20">
-        <v>11.09995460510254</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>1.182285308837891</v>
+        <v>3.387458324432373</v>
       </c>
       <c r="B21">
-        <v>120.5977020263672</v>
+        <v>123.3029251098633</v>
       </c>
       <c r="C21">
-        <v>232.9923400878906</v>
+        <v>126</v>
       </c>
       <c r="D21">
-        <v>11.09995460510254</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>1.169424295425415</v>
+        <v>3.383896112442017</v>
       </c>
       <c r="B22">
-        <v>120.5805130004883</v>
+        <v>123.3078994750977</v>
       </c>
       <c r="C22">
-        <v>232.9922485351562</v>
+        <v>126</v>
       </c>
       <c r="D22">
-        <v>11.09995651245117</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>1.156520962715149</v>
+        <v>3.380362987518311</v>
       </c>
       <c r="B23">
-        <v>120.5632553100586</v>
+        <v>123.3128433227539</v>
       </c>
       <c r="C23">
-        <v>232.9921722412109</v>
+        <v>126</v>
       </c>
       <c r="D23">
-        <v>11.09995460510254</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>1.14356005191803</v>
+        <v>3.376859188079834</v>
       </c>
       <c r="B24">
-        <v>120.5459136962891</v>
+        <v>123.3177261352539</v>
       </c>
       <c r="C24">
-        <v>232.9920959472656</v>
+        <v>126</v>
       </c>
       <c r="D24">
-        <v>11.0999584197998</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>1.130553364753723</v>
+        <v>3.373384475708008</v>
       </c>
       <c r="B25">
-        <v>120.5285034179688</v>
+        <v>123.3225784301758</v>
       </c>
       <c r="C25">
-        <v>232.9920196533203</v>
+        <v>126</v>
       </c>
       <c r="D25">
-        <v>11.09995651245117</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>1.117501854896545</v>
+        <v>3.369938611984253</v>
       </c>
       <c r="B26">
-        <v>120.5110244750977</v>
+        <v>123.327392578125</v>
       </c>
       <c r="C26">
-        <v>232.9919281005859</v>
+        <v>126</v>
       </c>
       <c r="D26">
-        <v>11.09995746612549</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>1.104393362998962</v>
+        <v>3.366521596908569</v>
       </c>
       <c r="B27">
-        <v>120.4934692382812</v>
+        <v>123.332160949707</v>
       </c>
       <c r="C27">
-        <v>232.9918518066406</v>
+        <v>126</v>
       </c>
       <c r="D27">
-        <v>11.09995746612549</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>1.091236591339111</v>
+        <v>3.363133430480957</v>
       </c>
       <c r="B28">
-        <v>120.4758377075195</v>
+        <v>123.3368988037109</v>
       </c>
       <c r="C28">
-        <v>232.9917755126953</v>
+        <v>126</v>
       </c>
       <c r="D28">
-        <v>11.09995937347412</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>1.078027129173279</v>
+        <v>3.359773397445679</v>
       </c>
       <c r="B29">
-        <v>120.4581298828125</v>
+        <v>123.3415985107422</v>
       </c>
       <c r="C29">
-        <v>232.9916839599609</v>
+        <v>126</v>
       </c>
       <c r="D29">
-        <v>11.0999584197998</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>1.064769506454468</v>
+        <v>3.356441736221313</v>
       </c>
       <c r="B30">
-        <v>120.4403457641602</v>
+        <v>123.3462524414062</v>
       </c>
       <c r="C30">
-        <v>232.9916076660156</v>
+        <v>126</v>
       </c>
       <c r="D30">
-        <v>11.09995937347412</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>1.051464796066284</v>
+        <v>3.353137493133545</v>
       </c>
       <c r="B31">
-        <v>120.422492980957</v>
+        <v>123.3508605957031</v>
       </c>
       <c r="C31">
-        <v>232.9915313720703</v>
+        <v>126</v>
       </c>
       <c r="D31">
-        <v>11.09996032714844</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>1.038100242614746</v>
+        <v>3.349861145019531</v>
       </c>
       <c r="B32">
-        <v>120.4045639038086</v>
+        <v>123.3554382324219</v>
       </c>
       <c r="C32">
-        <v>232.991455078125</v>
+        <v>126</v>
       </c>
       <c r="D32">
-        <v>11.09996032714844</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>1.02468729019165</v>
+        <v>3.346612691879272</v>
       </c>
       <c r="B33">
-        <v>120.3865509033203</v>
+        <v>123.359977722168</v>
       </c>
       <c r="C33">
-        <v>232.9913635253906</v>
+        <v>126</v>
       </c>
       <c r="D33">
-        <v>11.09996128082275</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>1.011226773262024</v>
+        <v>3.343391180038452</v>
       </c>
       <c r="B34">
-        <v>120.3684539794922</v>
+        <v>123.3644714355469</v>
       </c>
       <c r="C34">
-        <v>232.9912872314453</v>
+        <v>126</v>
       </c>
       <c r="D34">
-        <v>11.09996128082275</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.9977076649665833</v>
+        <v>3.340197324752808</v>
       </c>
       <c r="B35">
-        <v>120.3502960205078</v>
+        <v>123.3689346313477</v>
       </c>
       <c r="C35">
-        <v>232.9912109375</v>
+        <v>126</v>
       </c>
       <c r="D35">
-        <v>11.09996223449707</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.9841382503509521</v>
+        <v>3.337029933929443</v>
       </c>
       <c r="B36">
-        <v>120.3320388793945</v>
+        <v>123.3733596801758</v>
       </c>
       <c r="C36">
-        <v>232.9911193847656</v>
+        <v>126</v>
       </c>
       <c r="D36">
-        <v>11.09996128082275</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.9705137014389038</v>
+        <v>3.333889722824097</v>
       </c>
       <c r="B37">
-        <v>120.3137130737305</v>
+        <v>123.3777465820312</v>
       </c>
       <c r="C37">
-        <v>232.9910430908203</v>
+        <v>126</v>
       </c>
       <c r="D37">
-        <v>11.0999641418457</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.9568400382995605</v>
+        <v>3.330776214599609</v>
       </c>
       <c r="B38">
-        <v>120.2953109741211</v>
+        <v>123.3820953369141</v>
       </c>
       <c r="C38">
-        <v>232.990966796875</v>
+        <v>126</v>
       </c>
       <c r="D38">
-        <v>11.09996318817139</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.9431129097938538</v>
+        <v>3.327688694000244</v>
       </c>
       <c r="B39">
-        <v>120.2768402099609</v>
+        <v>123.3863983154297</v>
       </c>
       <c r="C39">
-        <v>232.9908905029297</v>
+        <v>126</v>
       </c>
       <c r="D39">
-        <v>11.09996318817139</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.9293404221534729</v>
+        <v>3.32462739944458</v>
       </c>
       <c r="B40">
-        <v>120.2582931518555</v>
+        <v>123.3906784057617</v>
       </c>
       <c r="C40">
-        <v>232.9907989501953</v>
+        <v>126</v>
       </c>
       <c r="D40">
-        <v>11.0999641418457</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.9155054688453674</v>
+        <v>3.321592330932617</v>
       </c>
       <c r="B41">
-        <v>120.2396469116211</v>
+        <v>123.3949203491211</v>
       </c>
       <c r="C41">
-        <v>232.99072265625</v>
+        <v>126</v>
       </c>
       <c r="D41">
-        <v>11.09996509552002</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.9016234874725342</v>
+        <v>3.318583011627197</v>
       </c>
       <c r="B42">
-        <v>120.2209320068359</v>
+        <v>123.3991241455078</v>
       </c>
       <c r="C42">
-        <v>232.9906463623047</v>
+        <v>126</v>
       </c>
       <c r="D42">
-        <v>11.09996604919434</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.8876935243606567</v>
+        <v>3.315599203109741</v>
       </c>
       <c r="B43">
-        <v>120.2021560668945</v>
+        <v>123.4032897949219</v>
       </c>
       <c r="C43">
-        <v>232.9905548095703</v>
+        <v>126</v>
       </c>
       <c r="D43">
-        <v>11.09996604919434</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.8737053871154785</v>
+        <v>3.31264066696167</v>
       </c>
       <c r="B44">
-        <v>120.1832809448242</v>
+        <v>123.4074172973633</v>
       </c>
       <c r="C44">
-        <v>232.990478515625</v>
+        <v>126</v>
       </c>
       <c r="D44">
-        <v>11.09996795654297</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.8596665263175964</v>
+        <v>3.309707880020142</v>
       </c>
       <c r="B45">
-        <v>120.1643371582031</v>
+        <v>123.4115219116211</v>
       </c>
       <c r="C45">
-        <v>232.9904022216797</v>
+        <v>126</v>
       </c>
       <c r="D45">
-        <v>11.09996795654297</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.8455798029899597</v>
+        <v>3.306799650192261</v>
       </c>
       <c r="B46">
-        <v>120.1453170776367</v>
+        <v>123.4155807495117</v>
       </c>
       <c r="C46">
-        <v>232.9903106689453</v>
+        <v>126</v>
       </c>
       <c r="D46">
-        <v>11.09996795654297</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.8314417004585266</v>
+        <v>3.303916454315186</v>
       </c>
       <c r="B47">
-        <v>120.1262283325195</v>
+        <v>123.4196090698242</v>
       </c>
       <c r="C47">
-        <v>232.990234375</v>
+        <v>126</v>
       </c>
       <c r="D47">
-        <v>11.09996795654297</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.8172591924667358</v>
+        <v>3.301058292388916</v>
       </c>
       <c r="B48">
-        <v>120.1070556640625</v>
+        <v>123.4236068725586</v>
       </c>
       <c r="C48">
-        <v>232.9901580810547</v>
+        <v>126</v>
       </c>
       <c r="D48">
-        <v>11.0999698638916</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.8030186295509338</v>
+        <v>3.298223972320557</v>
       </c>
       <c r="B49">
-        <v>120.0878067016602</v>
+        <v>123.4275665283203</v>
       </c>
       <c r="C49">
-        <v>232.9900665283203</v>
+        <v>126</v>
       </c>
       <c r="D49">
-        <v>11.09997081756592</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.7887338399887085</v>
+        <v>3.295413970947266</v>
       </c>
       <c r="B50">
-        <v>120.0684967041016</v>
+        <v>123.4314804077148</v>
       </c>
       <c r="C50">
-        <v>232.989990234375</v>
+        <v>126</v>
       </c>
       <c r="D50">
-        <v>11.0999698638916</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.7744056582450867</v>
+        <v>3.292628049850464</v>
       </c>
       <c r="B51">
-        <v>120.0491180419922</v>
+        <v>123.4353790283203</v>
       </c>
       <c r="C51">
-        <v>232.9899139404297</v>
+        <v>126</v>
       </c>
       <c r="D51">
-        <v>11.0999698638916</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>0.7600225806236267</v>
+        <v>3.28986644744873</v>
       </c>
       <c r="B52">
-        <v>120.0296478271484</v>
+        <v>123.4392318725586</v>
       </c>
       <c r="C52">
-        <v>232.9898223876953</v>
+        <v>126</v>
       </c>
       <c r="D52">
-        <v>11.09997177124023</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>0.745596170425415</v>
+        <v>3.287128210067749</v>
       </c>
       <c r="B53">
-        <v>120.0101165771484</v>
+        <v>123.4430618286133</v>
       </c>
       <c r="C53">
-        <v>232.98974609375</v>
+        <v>126</v>
       </c>
       <c r="D53">
-        <v>11.09997177124023</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>0.7311204075813293</v>
+        <v>3.284413814544678</v>
       </c>
       <c r="B54">
-        <v>119.9905166625977</v>
+        <v>123.4468460083008</v>
       </c>
       <c r="C54">
-        <v>232.9896697998047</v>
+        <v>126</v>
       </c>
       <c r="D54">
-        <v>11.09997177124023</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>0.7166045308113098</v>
+        <v>3.281722545623779</v>
       </c>
       <c r="B55">
-        <v>119.9708480834961</v>
+        <v>123.4506149291992</v>
       </c>
       <c r="C55">
-        <v>232.9895782470703</v>
+        <v>126</v>
       </c>
       <c r="D55">
-        <v>11.09997272491455</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>0.7020483016967773</v>
+        <v>3.279054641723633</v>
       </c>
       <c r="B56">
-        <v>119.9511260986328</v>
+        <v>123.4543380737305</v>
       </c>
       <c r="C56">
-        <v>232.989501953125</v>
+        <v>126</v>
       </c>
       <c r="D56">
-        <v>11.09997272491455</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>0.6874415874481201</v>
+        <v>3.276409149169922</v>
       </c>
       <c r="B57">
-        <v>119.9313201904297</v>
+        <v>123.4580307006836</v>
       </c>
       <c r="C57">
-        <v>232.9894256591797</v>
+        <v>126</v>
       </c>
       <c r="D57">
-        <v>11.09997367858887</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>0.6727970242500305</v>
+        <v>3.273787021636963</v>
       </c>
       <c r="B58">
-        <v>119.9114685058594</v>
+        <v>123.4617004394531</v>
       </c>
       <c r="C58">
-        <v>232.9893341064453</v>
+        <v>126</v>
       </c>
       <c r="D58">
-        <v>11.09997463226318</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>0.6581157445907593</v>
+        <v>3.271187305450439</v>
       </c>
       <c r="B59">
-        <v>119.8915405273438</v>
+        <v>123.4653244018555</v>
       </c>
       <c r="C59">
-        <v>232.9892578125</v>
+        <v>126</v>
       </c>
       <c r="D59">
-        <v>11.0999755859375</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>0.643388569355011</v>
+        <v>3.268609762191772</v>
       </c>
       <c r="B60">
-        <v>119.8715667724609</v>
+        <v>123.4689178466797</v>
       </c>
       <c r="C60">
-        <v>232.9891662597656</v>
+        <v>126</v>
       </c>
       <c r="D60">
-        <v>11.09997463226318</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>0.6286264657974243</v>
+        <v>3.26605486869812</v>
       </c>
       <c r="B61">
-        <v>119.8515243530273</v>
+        <v>123.4724960327148</v>
       </c>
       <c r="C61">
-        <v>232.9890899658203</v>
+        <v>126</v>
       </c>
       <c r="D61">
-        <v>11.09997463226318</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>0.6138235926628113</v>
+        <v>3.263521671295166</v>
       </c>
       <c r="B62">
-        <v>119.8314208984375</v>
+        <v>123.4760360717773</v>
       </c>
       <c r="C62">
-        <v>232.989013671875</v>
+        <v>126</v>
       </c>
       <c r="D62">
-        <v>11.09997463226318</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>0.5989911556243896</v>
+        <v>3.261010646820068</v>
       </c>
       <c r="B63">
-        <v>119.8112716674805</v>
+        <v>123.4795455932617</v>
       </c>
       <c r="C63">
-        <v>232.9889221191406</v>
+        <v>126</v>
       </c>
       <c r="D63">
-        <v>11.09997653961182</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>0.5841212272644043</v>
+        <v>3.258520841598511</v>
       </c>
       <c r="B64">
-        <v>119.7910614013672</v>
+        <v>123.483024597168</v>
       </c>
       <c r="C64">
-        <v>232.9888458251953</v>
+        <v>126</v>
       </c>
       <c r="D64">
-        <v>11.09997653961182</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>0.5692262053489685</v>
+        <v>3.25605320930481</v>
       </c>
       <c r="B65">
-        <v>119.7708206176758</v>
+        <v>123.486457824707</v>
       </c>
       <c r="C65">
-        <v>232.9887542724609</v>
+        <v>126</v>
       </c>
       <c r="D65">
-        <v>11.09997653961182</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>0.5542911887168884</v>
+        <v>3.253606081008911</v>
       </c>
       <c r="B66">
-        <v>119.7505035400391</v>
+        <v>123.489875793457</v>
       </c>
       <c r="C66">
-        <v>232.9886779785156</v>
+        <v>126</v>
       </c>
       <c r="D66">
-        <v>11.09997463226318</v>
+        <v>11.10000324249268</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>0.5393311977386475</v>
+        <v>3.25118088722229</v>
       </c>
       <c r="B67">
-        <v>119.7301635742188</v>
+        <v>123.4932708740234</v>
       </c>
       <c r="C67">
-        <v>232.9885864257812</v>
+        <v>126</v>
       </c>
       <c r="D67">
-        <v>11.09997940063477</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>0.5243490934371948</v>
+        <v>3.248776435852051</v>
       </c>
       <c r="B68">
-        <v>119.7097854614258</v>
+        <v>123.4966354370117</v>
       </c>
       <c r="C68">
-        <v>232.9885101318359</v>
+        <v>126</v>
       </c>
       <c r="D68">
-        <v>11.09997844696045</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>0.5093323588371277</v>
+        <v>3.246392488479614</v>
       </c>
       <c r="B69">
-        <v>119.6893310546875</v>
+        <v>123.4999542236328</v>
       </c>
       <c r="C69">
-        <v>232.9884185791016</v>
+        <v>126</v>
       </c>
       <c r="D69">
-        <v>11.09997844696045</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>0.4942924678325653</v>
+        <v>3.244029521942139</v>
       </c>
       <c r="B70">
-        <v>119.6688766479492</v>
+        <v>123.5032577514648</v>
       </c>
       <c r="C70">
-        <v>232.9883422851562</v>
+        <v>126</v>
       </c>
       <c r="D70">
-        <v>11.09997844696045</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>0.4792332053184509</v>
+        <v>3.241686582565308</v>
       </c>
       <c r="B71">
-        <v>119.6483612060547</v>
+        <v>123.5065307617188</v>
       </c>
       <c r="C71">
-        <v>232.9882507324219</v>
+        <v>126</v>
       </c>
       <c r="D71">
-        <v>11.09997940063477</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>0.4641533493995667</v>
+        <v>3.239364624023438</v>
       </c>
       <c r="B72">
-        <v>119.627815246582</v>
+        <v>123.509765625</v>
       </c>
       <c r="C72">
-        <v>232.9881744384766</v>
+        <v>126</v>
       </c>
       <c r="D72">
-        <v>11.09997844696045</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>0.4490594863891602</v>
+        <v>3.237062215805054</v>
       </c>
       <c r="B73">
-        <v>119.6072616577148</v>
+        <v>123.5129852294922</v>
       </c>
       <c r="C73">
-        <v>232.9880828857422</v>
+        <v>126</v>
       </c>
       <c r="D73">
-        <v>11.09998035430908</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>0.4339401125907898</v>
+        <v>3.234779834747314</v>
       </c>
       <c r="B74">
-        <v>119.5866470336914</v>
+        <v>123.5161743164062</v>
       </c>
       <c r="C74">
-        <v>232.9879913330078</v>
+        <v>126</v>
       </c>
       <c r="D74">
-        <v>11.09998035430908</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>0.418811023235321</v>
+        <v>3.23251748085022</v>
       </c>
       <c r="B75">
-        <v>119.5660247802734</v>
+        <v>123.5193328857422</v>
       </c>
       <c r="C75">
-        <v>232.9879150390625</v>
+        <v>126</v>
       </c>
       <c r="D75">
-        <v>11.0999813079834</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>0.4036729633808136</v>
+        <v>3.230274438858032</v>
       </c>
       <c r="B76">
-        <v>119.5453796386719</v>
+        <v>123.5224609375</v>
       </c>
       <c r="C76">
-        <v>232.9878234863281</v>
+        <v>126</v>
       </c>
       <c r="D76">
-        <v>11.09998035430908</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>0.3885162770748138</v>
+        <v>3.228050947189331</v>
       </c>
       <c r="B77">
-        <v>119.5247116088867</v>
+        <v>123.5255813598633</v>
       </c>
       <c r="C77">
-        <v>232.9877319335938</v>
+        <v>126</v>
       </c>
       <c r="D77">
-        <v>11.09998035430908</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>0.3733546733856201</v>
+        <v>3.225846767425537</v>
       </c>
       <c r="B78">
-        <v>119.504020690918</v>
+        <v>123.5286483764648</v>
       </c>
       <c r="C78">
-        <v>232.9876556396484</v>
+        <v>126</v>
       </c>
       <c r="D78">
-        <v>11.09998321533203</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>0.3581817448139191</v>
+        <v>3.223661422729492</v>
       </c>
       <c r="B79">
-        <v>119.4833221435547</v>
+        <v>123.5317077636719</v>
       </c>
       <c r="C79">
-        <v>232.9875640869141</v>
+        <v>126</v>
       </c>
       <c r="D79">
-        <v>11.09998321533203</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>0.3430109322071075</v>
+        <v>3.221495389938354</v>
       </c>
       <c r="B80">
-        <v>119.4626159667969</v>
+        <v>123.5347213745117</v>
       </c>
       <c r="C80">
-        <v>232.9874725341797</v>
+        <v>126</v>
       </c>
       <c r="D80">
-        <v>11.09998226165771</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>0.3278398811817169</v>
+        <v>3.219347715377808</v>
       </c>
       <c r="B81">
-        <v>119.4419021606445</v>
+        <v>123.537727355957</v>
       </c>
       <c r="C81">
-        <v>232.9873809814453</v>
+        <v>126</v>
       </c>
       <c r="D81">
-        <v>11.09998321533203</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>0.3126595616340637</v>
+        <v>3.21721887588501</v>
       </c>
       <c r="B82">
-        <v>119.4211807250977</v>
+        <v>123.5406951904297</v>
       </c>
       <c r="C82">
-        <v>232.9873046875</v>
+        <v>126</v>
       </c>
       <c r="D82">
-        <v>11.09998321533203</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>0.2974852621555328</v>
+        <v>3.215108633041382</v>
       </c>
       <c r="B83">
-        <v>119.4004516601562</v>
+        <v>123.5436553955078</v>
       </c>
       <c r="C83">
-        <v>232.9872131347656</v>
+        <v>126</v>
       </c>
       <c r="D83">
-        <v>11.09998321533203</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>0.2823205292224884</v>
+        <v>3.213016271591187</v>
       </c>
       <c r="B84">
-        <v>119.3797302246094</v>
+        <v>123.5465698242188</v>
       </c>
       <c r="C84">
-        <v>232.9871215820312</v>
+        <v>126</v>
       </c>
       <c r="D84">
-        <v>11.09998321533203</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>0.2671525776386261</v>
+        <v>3.210942268371582</v>
       </c>
       <c r="B85">
-        <v>119.359001159668</v>
+        <v>123.5494689941406</v>
       </c>
       <c r="C85">
-        <v>232.9870300292969</v>
+        <v>126</v>
       </c>
       <c r="D85">
-        <v>11.09998321533203</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>0.2519972920417786</v>
+        <v>3.20888614654541</v>
       </c>
       <c r="B86">
-        <v>119.3383026123047</v>
+        <v>123.5523376464844</v>
       </c>
       <c r="C86">
-        <v>232.9869384765625</v>
+        <v>126</v>
       </c>
       <c r="D86">
-        <v>11.09998512268066</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>0.2368472516536713</v>
+        <v>3.20684814453125</v>
       </c>
       <c r="B87">
-        <v>119.3175811767578</v>
+        <v>123.5551910400391</v>
       </c>
       <c r="C87">
-        <v>232.9868469238281</v>
+        <v>126</v>
       </c>
       <c r="D87">
-        <v>11.09998512268066</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>0.2217162251472473</v>
+        <v>3.204827308654785</v>
       </c>
       <c r="B88">
-        <v>119.2968902587891</v>
+        <v>123.5580215454102</v>
       </c>
       <c r="C88">
-        <v>232.9867553710938</v>
+        <v>126</v>
       </c>
       <c r="D88">
-        <v>11.09998512268066</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>0.2065958678722382</v>
+        <v>3.202824115753174</v>
       </c>
       <c r="B89">
-        <v>119.2762145996094</v>
+        <v>123.5608139038086</v>
       </c>
       <c r="C89">
-        <v>232.9866638183594</v>
+        <v>126</v>
       </c>
       <c r="D89">
-        <v>11.09998607635498</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>0.1914999186992645</v>
+        <v>3.200838327407837</v>
       </c>
       <c r="B90">
-        <v>119.2555618286133</v>
+        <v>123.5635833740234</v>
       </c>
       <c r="C90">
-        <v>232.986572265625</v>
+        <v>126</v>
       </c>
       <c r="D90">
-        <v>11.0999870300293</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>0.1764115542173386</v>
+        <v>3.198869705200195</v>
       </c>
       <c r="B91">
-        <v>119.2349243164062</v>
+        <v>123.5663375854492</v>
       </c>
       <c r="C91">
-        <v>232.9864807128906</v>
+        <v>126</v>
       </c>
       <c r="D91">
-        <v>11.0999870300293</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>0.1613502204418182</v>
+        <v>3.196918249130249</v>
       </c>
       <c r="B92">
-        <v>119.2143173217773</v>
+        <v>123.5690612792969</v>
       </c>
       <c r="C92">
-        <v>232.9863891601562</v>
+        <v>126</v>
       </c>
       <c r="D92">
-        <v>11.09998798370361</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>0.1463165581226349</v>
+        <v>3.19498348236084</v>
       </c>
       <c r="B93">
-        <v>119.1937484741211</v>
+        <v>123.5717620849609</v>
       </c>
       <c r="C93">
-        <v>232.9862976074219</v>
+        <v>126</v>
       </c>
       <c r="D93">
-        <v>11.09998798370361</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>0.1312995851039886</v>
+        <v>3.193065404891968</v>
       </c>
       <c r="B94">
-        <v>119.1731948852539</v>
+        <v>123.5744400024414</v>
       </c>
       <c r="C94">
-        <v>232.9862060546875</v>
+        <v>126</v>
       </c>
       <c r="D94">
-        <v>11.09998798370361</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>0.1163110435009003</v>
+        <v>3.191163778305054</v>
       </c>
       <c r="B95">
-        <v>119.1526641845703</v>
+        <v>123.5770950317383</v>
       </c>
       <c r="C95">
-        <v>232.9861145019531</v>
+        <v>126</v>
       </c>
       <c r="D95">
-        <v>11.09998798370361</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>0.1013535633683205</v>
+        <v>3.189278841018677</v>
       </c>
       <c r="B96">
-        <v>119.1321868896484</v>
+        <v>123.5797271728516</v>
       </c>
       <c r="C96">
-        <v>232.9860076904297</v>
+        <v>126</v>
       </c>
       <c r="D96">
-        <v>11.09998893737793</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>0.0864269956946373</v>
+        <v>3.187410116195679</v>
       </c>
       <c r="B97">
-        <v>119.1117401123047</v>
+        <v>123.5823364257812</v>
       </c>
       <c r="C97">
-        <v>232.9859161376953</v>
+        <v>126</v>
       </c>
       <c r="D97">
-        <v>11.09998893737793</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>0.07154015451669693</v>
+        <v>3.18555736541748</v>
       </c>
       <c r="B98">
-        <v>119.0913619995117</v>
+        <v>123.5849227905273</v>
       </c>
       <c r="C98">
-        <v>232.9858245849609</v>
+        <v>126</v>
       </c>
       <c r="D98">
-        <v>11.09998893737793</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>0.05667833983898163</v>
+        <v>3.183720588684082</v>
       </c>
       <c r="B99">
-        <v>119.0709915161133</v>
+        <v>123.5874862670898</v>
       </c>
       <c r="C99">
-        <v>232.9857177734375</v>
+        <v>126</v>
       </c>
       <c r="D99">
-        <v>11.09999084472656</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>0.04185794293880463</v>
+        <v>3.181900024414062</v>
       </c>
       <c r="B100">
-        <v>119.0506896972656</v>
+        <v>123.5900344848633</v>
       </c>
       <c r="C100">
-        <v>232.9856262207031</v>
+        <v>126</v>
       </c>
       <c r="D100">
-        <v>11.09999084472656</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>0.02708251401782036</v>
+        <v>3.180094718933105</v>
       </c>
       <c r="B101">
-        <v>119.0304489135742</v>
+        <v>123.5925598144531</v>
       </c>
       <c r="C101">
-        <v>232.9855346679688</v>
+        <v>126</v>
       </c>
       <c r="D101">
-        <v>11.09999084472656</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>0.01233923248946667</v>
+        <v>3.178305149078369</v>
       </c>
       <c r="B102">
-        <v>119.0102386474609</v>
+        <v>123.5950546264648</v>
       </c>
       <c r="C102">
-        <v>232.9854278564453</v>
+        <v>126</v>
       </c>
       <c r="D102">
-        <v>11.09999084472656</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>-0.002358304336667061</v>
+        <v>3.176530838012695</v>
       </c>
       <c r="B103">
-        <v>118.9900894165039</v>
+        <v>123.597526550293</v>
       </c>
       <c r="C103">
-        <v>232.9853363037109</v>
+        <v>126</v>
       </c>
       <c r="D103">
-        <v>11.09998893737793</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>-0.01701550558209419</v>
+        <v>3.174772024154663</v>
       </c>
       <c r="B104">
-        <v>118.9699859619141</v>
+        <v>123.5999908447266</v>
       </c>
       <c r="C104">
-        <v>232.9852294921875</v>
+        <v>126</v>
       </c>
       <c r="D104">
-        <v>11.09999084472656</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>-0.03161861747503281</v>
+        <v>3.173028230667114</v>
       </c>
       <c r="B105">
-        <v>118.9499740600586</v>
+        <v>123.6024322509766</v>
       </c>
       <c r="C105">
-        <v>232.9851379394531</v>
+        <v>126</v>
       </c>
       <c r="D105">
-        <v>11.09999084472656</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>-0.04617258161306381</v>
+        <v>3.17129921913147</v>
       </c>
       <c r="B106">
-        <v>118.9300079345703</v>
+        <v>123.6048355102539</v>
       </c>
       <c r="C106">
-        <v>232.9850311279297</v>
+        <v>126</v>
       </c>
       <c r="D106">
-        <v>11.09998989105225</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>-0.06068436056375504</v>
+        <v>3.169585227966309</v>
       </c>
       <c r="B107">
-        <v>118.9101104736328</v>
+        <v>123.6072387695312</v>
       </c>
       <c r="C107">
-        <v>232.9849243164062</v>
+        <v>126</v>
       </c>
       <c r="D107">
-        <v>11.09999084472656</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>-0.07514142990112305</v>
+        <v>3.167886018753052</v>
       </c>
       <c r="B108">
-        <v>118.8902816772461</v>
+        <v>123.6096038818359</v>
       </c>
       <c r="C108">
-        <v>232.9848327636719</v>
+        <v>126</v>
       </c>
       <c r="D108">
-        <v>11.09999179840088</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>-0.0895393118262291</v>
+        <v>3.166201114654541</v>
       </c>
       <c r="B109">
-        <v>118.8705215454102</v>
+        <v>123.6119689941406</v>
       </c>
       <c r="C109">
-        <v>232.9847259521484</v>
+        <v>126</v>
       </c>
       <c r="D109">
-        <v>11.09998989105225</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>-0.1038912981748581</v>
+        <v>3.164530992507935</v>
       </c>
       <c r="B110">
-        <v>118.8508377075195</v>
+        <v>123.6143035888672</v>
       </c>
       <c r="C110">
-        <v>232.984619140625</v>
+        <v>126</v>
       </c>
       <c r="D110">
-        <v>11.09999179840088</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>-0.1181837767362595</v>
+        <v>3.162874937057495</v>
       </c>
       <c r="B111">
-        <v>118.8312225341797</v>
+        <v>123.6166076660156</v>
       </c>
       <c r="C111">
-        <v>232.9845123291016</v>
+        <v>126</v>
       </c>
       <c r="D111">
-        <v>11.09999179840088</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>-0.1324217021465302</v>
+        <v>3.161232948303223</v>
       </c>
       <c r="B112">
-        <v>118.8116760253906</v>
+        <v>123.618896484375</v>
       </c>
       <c r="C112">
-        <v>232.9844055175781</v>
+        <v>126</v>
       </c>
       <c r="D112">
-        <v>11.09999179840088</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>-0.1465955078601837</v>
+        <v>3.159605026245117</v>
       </c>
       <c r="B113">
-        <v>118.7922286987305</v>
+        <v>123.6211700439453</v>
       </c>
       <c r="C113">
-        <v>232.9843139648438</v>
+        <v>126</v>
       </c>
       <c r="D113">
-        <v>11.09999370574951</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>-0.1607113480567932</v>
+        <v>3.157991409301758</v>
       </c>
       <c r="B114">
-        <v>118.7728424072266</v>
+        <v>123.6234283447266</v>
       </c>
       <c r="C114">
-        <v>232.9842071533203</v>
+        <v>126</v>
       </c>
       <c r="D114">
-        <v>11.0999927520752</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>-0.17475825548172</v>
+        <v>3.156391143798828</v>
       </c>
       <c r="B115">
-        <v>118.7535629272461</v>
+        <v>123.6256637573242</v>
       </c>
       <c r="C115">
-        <v>232.9841003417969</v>
+        <v>126</v>
       </c>
       <c r="D115">
-        <v>11.09999370574951</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>-0.1887509375810623</v>
+        <v>3.154804944992065</v>
       </c>
       <c r="B116">
-        <v>118.7343368530273</v>
+        <v>123.6278839111328</v>
       </c>
       <c r="C116">
-        <v>232.9839935302734</v>
+        <v>126</v>
       </c>
       <c r="D116">
-        <v>11.0999927520752</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>-0.2026749849319458</v>
+        <v>3.153231859207153</v>
       </c>
       <c r="B117">
-        <v>118.7152252197266</v>
+        <v>123.6300735473633</v>
       </c>
       <c r="C117">
-        <v>232.98388671875</v>
+        <v>126</v>
       </c>
       <c r="D117">
-        <v>11.09999370574951</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>-0.2165279537439346</v>
+        <v>3.151672124862671</v>
       </c>
       <c r="B118">
-        <v>118.6961975097656</v>
+        <v>123.6322631835938</v>
       </c>
       <c r="C118">
-        <v>232.9837646484375</v>
+        <v>126</v>
       </c>
       <c r="D118">
-        <v>11.09999370574951</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>-0.2303215712308884</v>
+        <v>3.150125980377197</v>
       </c>
       <c r="B119">
-        <v>118.67724609375</v>
+        <v>123.6344223022461</v>
       </c>
       <c r="C119">
-        <v>232.9836578369141</v>
+        <v>126</v>
       </c>
       <c r="D119">
-        <v>11.0999927520752</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>-0.2440465837717056</v>
+        <v>3.148592710494995</v>
       </c>
       <c r="B120">
-        <v>118.6583938598633</v>
+        <v>123.6365509033203</v>
       </c>
       <c r="C120">
-        <v>232.9835510253906</v>
+        <v>126</v>
       </c>
       <c r="D120">
-        <v>11.0999927520752</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>-0.257698655128479</v>
+        <v>3.147072792053223</v>
       </c>
       <c r="B121">
-        <v>118.6396331787109</v>
+        <v>123.6386795043945</v>
       </c>
       <c r="C121">
-        <v>232.9834442138672</v>
+        <v>126</v>
       </c>
       <c r="D121">
-        <v>11.09999370574951</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>-0.2712807059288025</v>
+        <v>3.145565509796143</v>
       </c>
       <c r="B122">
-        <v>118.6209716796875</v>
+        <v>123.6407852172852</v>
       </c>
       <c r="C122">
-        <v>232.9833374023438</v>
+        <v>126</v>
       </c>
       <c r="D122">
-        <v>11.09999465942383</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>-0.2847858071327209</v>
+        <v>3.144071102142334</v>
       </c>
       <c r="B123">
-        <v>118.602409362793</v>
+        <v>123.6428680419922</v>
       </c>
       <c r="C123">
-        <v>232.9832153320312</v>
+        <v>126</v>
       </c>
       <c r="D123">
-        <v>11.09999465942383</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>-0.2982268929481506</v>
+        <v>3.142589330673218</v>
       </c>
       <c r="B124">
-        <v>118.5839385986328</v>
+        <v>123.6449432373047</v>
       </c>
       <c r="C124">
-        <v>232.9831085205078</v>
+        <v>126</v>
       </c>
       <c r="D124">
-        <v>11.09999370574951</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>-0.3115898072719574</v>
+        <v>3.141119718551636</v>
       </c>
       <c r="B125">
-        <v>118.565559387207</v>
+        <v>123.6470031738281</v>
       </c>
       <c r="C125">
-        <v>232.9830017089844</v>
+        <v>126</v>
       </c>
       <c r="D125">
-        <v>11.09999370574951</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>-0.3248735964298248</v>
+        <v>3.139662981033325</v>
       </c>
       <c r="B126">
-        <v>118.5473022460938</v>
+        <v>123.6490325927734</v>
       </c>
       <c r="C126">
-        <v>232.9828796386719</v>
+        <v>126</v>
       </c>
       <c r="D126">
-        <v>11.09999465942383</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>-0.3380889296531677</v>
+        <v>3.138218402862549</v>
       </c>
       <c r="B127">
-        <v>118.5291290283203</v>
+        <v>123.6510467529297</v>
       </c>
       <c r="C127">
-        <v>232.9827728271484</v>
+        <v>126</v>
       </c>
       <c r="D127">
-        <v>11.09999561309814</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>-0.3512254357337952</v>
+        <v>3.136786222457886</v>
       </c>
       <c r="B128">
-        <v>118.5110626220703</v>
+        <v>123.6530456542969</v>
       </c>
       <c r="C128">
-        <v>232.9826507568359</v>
+        <v>126</v>
       </c>
       <c r="D128">
-        <v>11.09999465942383</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>-0.3642882406711578</v>
+        <v>3.135365724563599</v>
       </c>
       <c r="B129">
-        <v>118.4931030273438</v>
+        <v>123.655029296875</v>
       </c>
       <c r="C129">
-        <v>232.9825439453125</v>
+        <v>126</v>
       </c>
       <c r="D129">
-        <v>11.09999561309814</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>-0.3772664964199066</v>
+        <v>3.133957147598267</v>
       </c>
       <c r="B130">
-        <v>118.4752502441406</v>
+        <v>123.6570053100586</v>
       </c>
       <c r="C130">
-        <v>232.982421875</v>
+        <v>126</v>
       </c>
       <c r="D130">
-        <v>11.09999465942383</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>-0.3901627063751221</v>
+        <v>3.132560968399048</v>
       </c>
       <c r="B131">
-        <v>118.4575042724609</v>
+        <v>123.6589431762695</v>
       </c>
       <c r="C131">
-        <v>232.9822998046875</v>
+        <v>126</v>
       </c>
       <c r="D131">
-        <v>11.09999561309814</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>-0.4029882848262787</v>
+        <v>3.131175994873047</v>
       </c>
       <c r="B132">
-        <v>118.4398574829102</v>
+        <v>123.660888671875</v>
       </c>
       <c r="C132">
-        <v>232.9821929931641</v>
+        <v>126</v>
       </c>
       <c r="D132">
-        <v>11.09999656677246</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>-0.4157303869724274</v>
+        <v>3.129802703857422</v>
       </c>
       <c r="B133">
-        <v>118.4223251342773</v>
+        <v>123.6627960205078</v>
       </c>
       <c r="C133">
-        <v>232.9820709228516</v>
+        <v>126</v>
       </c>
       <c r="D133">
-        <v>11.09999561309814</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>-0.4283839464187622</v>
+        <v>3.128441095352173</v>
       </c>
       <c r="B134">
-        <v>118.4049224853516</v>
+        <v>123.6646957397461</v>
       </c>
       <c r="C134">
-        <v>232.9819488525391</v>
+        <v>126</v>
       </c>
       <c r="D134">
-        <v>11.09999561309814</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>-0.4409656524658203</v>
+        <v>3.127090692520142</v>
       </c>
       <c r="B135">
-        <v>118.3875961303711</v>
+        <v>123.6665802001953</v>
       </c>
       <c r="C135">
-        <v>232.9818267822266</v>
+        <v>126</v>
       </c>
       <c r="D135">
-        <v>11.09999561309814</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>-0.4534614384174347</v>
+        <v>3.125751495361328</v>
       </c>
       <c r="B136">
-        <v>118.3703994750977</v>
+        <v>123.6684494018555</v>
       </c>
       <c r="C136">
-        <v>232.9817199707031</v>
+        <v>126</v>
       </c>
       <c r="D136">
-        <v>11.09999561309814</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>-0.4658787250518799</v>
+        <v>3.124423742294312</v>
       </c>
       <c r="B137">
-        <v>118.3533020019531</v>
+        <v>123.6703109741211</v>
       </c>
       <c r="C137">
-        <v>232.9815979003906</v>
+        <v>126</v>
       </c>
       <c r="D137">
-        <v>11.09999561309814</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>-0.4782054424285889</v>
+        <v>3.123106956481934</v>
       </c>
       <c r="B138">
-        <v>118.3363265991211</v>
+        <v>123.6721496582031</v>
       </c>
       <c r="C138">
-        <v>232.9814758300781</v>
+        <v>126</v>
       </c>
       <c r="D138">
-        <v>11.09999752044678</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>-0.4904514849185944</v>
+        <v>3.121801376342773</v>
       </c>
       <c r="B139">
-        <v>118.319465637207</v>
+        <v>123.6739730834961</v>
       </c>
       <c r="C139">
-        <v>232.9813537597656</v>
+        <v>126</v>
       </c>
       <c r="D139">
-        <v>11.09999656677246</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>-0.5026066303253174</v>
+        <v>3.120505809783936</v>
       </c>
       <c r="B140">
-        <v>118.3027191162109</v>
+        <v>123.6757888793945</v>
       </c>
       <c r="C140">
-        <v>232.9812316894531</v>
+        <v>126</v>
       </c>
       <c r="D140">
-        <v>11.09999561309814</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>-0.5146859288215637</v>
+        <v>3.119221687316895</v>
       </c>
       <c r="B141">
-        <v>118.2860946655273</v>
+        <v>123.6775817871094</v>
       </c>
       <c r="C141">
-        <v>232.9811096191406</v>
+        <v>126</v>
       </c>
       <c r="D141">
-        <v>11.09999561309814</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142">
-        <v>-0.5266769528388977</v>
+        <v>3.117948293685913</v>
       </c>
       <c r="B142">
-        <v>118.2695693969727</v>
+        <v>123.6793518066406</v>
       </c>
       <c r="C142">
-        <v>232.9809875488281</v>
+        <v>126</v>
       </c>
       <c r="D142">
-        <v>11.09999752044678</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>-0.5385749936103821</v>
+        <v>3.116685152053833</v>
       </c>
       <c r="B143">
-        <v>118.253173828125</v>
+        <v>123.6811218261719</v>
       </c>
       <c r="C143">
-        <v>232.9808654785156</v>
+        <v>126</v>
       </c>
       <c r="D143">
-        <v>11.09999752044678</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144">
-        <v>-0.5503971576690674</v>
+        <v>3.115432500839233</v>
       </c>
       <c r="B144">
-        <v>118.2368850708008</v>
+        <v>123.6828765869141</v>
       </c>
       <c r="C144">
-        <v>232.9807281494141</v>
+        <v>126</v>
       </c>
       <c r="D144">
-        <v>11.09999656677246</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>-0.5621310472488403</v>
+        <v>3.114190101623535</v>
       </c>
       <c r="B145">
-        <v>118.2207107543945</v>
+        <v>123.6846160888672</v>
       </c>
       <c r="C145">
-        <v>232.9806060791016</v>
+        <v>126</v>
       </c>
       <c r="D145">
-        <v>11.09999656677246</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
-        <v>-0.5737746357917786</v>
+        <v>3.112958431243896</v>
       </c>
       <c r="B146">
-        <v>118.2046661376953</v>
+        <v>123.6863250732422</v>
       </c>
       <c r="C146">
-        <v>232.9804840087891</v>
+        <v>126</v>
       </c>
       <c r="D146">
-        <v>11.09999561309814</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147">
-        <v>-0.5853332877159119</v>
+        <v>3.111736297607422</v>
       </c>
       <c r="B147">
-        <v>118.188720703125</v>
+        <v>123.6880340576172</v>
       </c>
       <c r="C147">
-        <v>232.9803619384766</v>
+        <v>126</v>
       </c>
       <c r="D147">
-        <v>11.09999656677246</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148">
-        <v>-0.5967965722084045</v>
+        <v>3.11052417755127</v>
       </c>
       <c r="B148">
-        <v>118.1729125976562</v>
+        <v>123.6897277832031</v>
       </c>
       <c r="C148">
-        <v>232.980224609375</v>
+        <v>126</v>
       </c>
       <c r="D148">
-        <v>11.09999656677246</v>
+        <v>11.10000228881836</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149">
-        <v>-0.6081823110580444</v>
+        <v>3.109322309494019</v>
       </c>
       <c r="B149">
-        <v>118.1572189331055</v>
+        <v>123.6914138793945</v>
       </c>
       <c r="C149">
-        <v>232.9801025390625</v>
+        <v>126</v>
       </c>
       <c r="D149">
-        <v>11.09999847412109</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>-0.6194769740104675</v>
+        <v>3.10813045501709</v>
       </c>
       <c r="B150">
-        <v>118.1416397094727</v>
+        <v>123.6930618286133</v>
       </c>
       <c r="C150">
-        <v>232.97998046875</v>
+        <v>126</v>
       </c>
       <c r="D150">
-        <v>11.09999847412109</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>-0.6306767463684082</v>
+        <v>3.106947898864746</v>
       </c>
       <c r="B151">
-        <v>118.1261901855469</v>
+        <v>123.6947174072266</v>
       </c>
       <c r="C151">
-        <v>232.9798431396484</v>
+        <v>126</v>
       </c>
       <c r="D151">
-        <v>11.09999561309814</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>-0.641798198223114</v>
+        <v>3.105775356292725</v>
       </c>
       <c r="B152">
-        <v>118.1108474731445</v>
+        <v>123.6963577270508</v>
       </c>
       <c r="C152">
-        <v>232.9797210693359</v>
+        <v>126</v>
       </c>
       <c r="D152">
-        <v>11.09999561309814</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>-0.6528273820877075</v>
+        <v>3.104612112045288</v>
       </c>
       <c r="B153">
-        <v>118.0956268310547</v>
+        <v>123.6979751586914</v>
       </c>
       <c r="C153">
-        <v>232.9795837402344</v>
+        <v>126</v>
       </c>
       <c r="D153">
-        <v>11.09999752044678</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>-0.6637706160545349</v>
+        <v>3.103458642959595</v>
       </c>
       <c r="B154">
-        <v>118.0805206298828</v>
+        <v>123.6996002197266</v>
       </c>
       <c r="C154">
-        <v>232.9794616699219</v>
+        <v>126</v>
       </c>
       <c r="D154">
-        <v>11.09999752044678</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>-0.6746203899383545</v>
+        <v>3.102314472198486</v>
       </c>
       <c r="B155">
-        <v>118.0655517578125</v>
+        <v>123.7011947631836</v>
       </c>
       <c r="C155">
-        <v>232.9793243408203</v>
+        <v>126</v>
       </c>
       <c r="D155">
-        <v>11.09999847412109</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>-0.6853769421577454</v>
+        <v>3.101179361343384</v>
       </c>
       <c r="B156">
-        <v>118.0507125854492</v>
+        <v>123.7027740478516</v>
       </c>
       <c r="C156">
-        <v>232.9792022705078</v>
+        <v>126</v>
       </c>
       <c r="D156">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>-0.6960538029670715</v>
+        <v>3.100053548812866</v>
       </c>
       <c r="B157">
-        <v>118.0359649658203</v>
+        <v>123.7043533325195</v>
       </c>
       <c r="C157">
-        <v>232.9790649414062</v>
+        <v>126</v>
       </c>
       <c r="D157">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>-0.7066380381584167</v>
+        <v>3.098937034606934</v>
       </c>
       <c r="B158">
-        <v>118.0213394165039</v>
+        <v>123.7059097290039</v>
       </c>
       <c r="C158">
-        <v>232.9789276123047</v>
+        <v>126</v>
       </c>
       <c r="D158">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>-0.7171275615692139</v>
+        <v>3.097829103469849</v>
       </c>
       <c r="B159">
-        <v>118.0068511962891</v>
+        <v>123.7074584960938</v>
       </c>
       <c r="C159">
-        <v>232.9788055419922</v>
+        <v>126</v>
       </c>
       <c r="D159">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>-0.7275370359420776</v>
+        <v>3.09673023223877</v>
       </c>
       <c r="B160">
-        <v>117.9924697875977</v>
+        <v>123.7089920043945</v>
       </c>
       <c r="C160">
-        <v>232.9786682128906</v>
+        <v>126</v>
       </c>
       <c r="D160">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>-0.7378531694412231</v>
+        <v>3.095640420913696</v>
       </c>
       <c r="B161">
-        <v>117.9782257080078</v>
+        <v>123.7105178833008</v>
       </c>
       <c r="C161">
-        <v>232.9785308837891</v>
+        <v>126</v>
       </c>
       <c r="D161">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>-0.7480844259262085</v>
+        <v>3.094559192657471</v>
       </c>
       <c r="B162">
-        <v>117.9640884399414</v>
+        <v>123.7120208740234</v>
       </c>
       <c r="C162">
-        <v>232.9783935546875</v>
+        <v>126</v>
       </c>
       <c r="D162">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>-0.7582208514213562</v>
+        <v>3.093487024307251</v>
       </c>
       <c r="B163">
-        <v>117.950080871582</v>
+        <v>123.7135314941406</v>
       </c>
       <c r="C163">
-        <v>232.9782562255859</v>
+        <v>126</v>
       </c>
       <c r="D163">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>-0.7682708501815796</v>
+        <v>3.092422962188721</v>
       </c>
       <c r="B164">
-        <v>117.9361877441406</v>
+        <v>123.7150115966797</v>
       </c>
       <c r="C164">
-        <v>232.9781188964844</v>
+        <v>126</v>
       </c>
       <c r="D164">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>-0.7782236337661743</v>
+        <v>3.091367483139038</v>
       </c>
       <c r="B165">
-        <v>117.9224243164062</v>
+        <v>123.7164840698242</v>
       </c>
       <c r="C165">
-        <v>232.9779815673828</v>
+        <v>126</v>
       </c>
       <c r="D165">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166">
-        <v>-0.7880989909172058</v>
+        <v>3.090320587158203</v>
       </c>
       <c r="B166">
-        <v>117.9087677001953</v>
+        <v>123.7179489135742</v>
       </c>
       <c r="C166">
-        <v>232.9778442382812</v>
+        <v>126</v>
       </c>
       <c r="D166">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167">
-        <v>-0.7978807091712952</v>
+        <v>3.089281797409058</v>
       </c>
       <c r="B167">
-        <v>117.8952484130859</v>
+        <v>123.7193984985352</v>
       </c>
       <c r="C167">
-        <v>232.9777069091797</v>
+        <v>126</v>
       </c>
       <c r="D167">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168">
-        <v>-0.8075666427612305</v>
+        <v>3.08825159072876</v>
       </c>
       <c r="B168">
-        <v>117.8818511962891</v>
+        <v>123.720832824707</v>
       </c>
       <c r="C168">
-        <v>232.9775695800781</v>
+        <v>126</v>
       </c>
       <c r="D168">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169">
-        <v>-0.8171743154525757</v>
+        <v>3.087229251861572</v>
       </c>
       <c r="B169">
-        <v>117.8685607910156</v>
+        <v>123.7222747802734</v>
       </c>
       <c r="C169">
-        <v>232.9774322509766</v>
+        <v>126</v>
       </c>
       <c r="D169">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170">
-        <v>-0.8266925811767578</v>
+        <v>3.086215496063232</v>
       </c>
       <c r="B170">
-        <v>117.8553924560547</v>
+        <v>123.7236785888672</v>
       </c>
       <c r="C170">
-        <v>232.977294921875</v>
+        <v>126</v>
       </c>
       <c r="D170">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171">
-        <v>-0.8361180424690247</v>
+        <v>3.085209131240845</v>
       </c>
       <c r="B171">
-        <v>117.8423385620117</v>
+        <v>123.7250823974609</v>
       </c>
       <c r="C171">
-        <v>232.9771575927734</v>
+        <v>126</v>
       </c>
       <c r="D171">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172">
-        <v>-0.8454570174217224</v>
+        <v>3.084210872650146</v>
       </c>
       <c r="B172">
-        <v>117.8294143676758</v>
+        <v>123.7264709472656</v>
       </c>
       <c r="C172">
-        <v>232.9770202636719</v>
+        <v>126</v>
       </c>
       <c r="D172">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173">
-        <v>-0.8546998500823975</v>
+        <v>3.083220720291138</v>
       </c>
       <c r="B173">
-        <v>117.8166198730469</v>
+        <v>123.7278671264648</v>
       </c>
       <c r="C173">
-        <v>232.9768829345703</v>
+        <v>126</v>
       </c>
       <c r="D173">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>-0.8638653755187988</v>
+        <v>3.082237958908081</v>
       </c>
       <c r="B174">
-        <v>117.8039321899414</v>
+        <v>123.7292251586914</v>
       </c>
       <c r="C174">
-        <v>232.9767303466797</v>
+        <v>126</v>
       </c>
       <c r="D174">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>-0.8729401230812073</v>
+        <v>3.081263065338135</v>
       </c>
       <c r="B175">
-        <v>117.7913665771484</v>
+        <v>123.7305908203125</v>
       </c>
       <c r="C175">
-        <v>232.9765930175781</v>
+        <v>126</v>
       </c>
       <c r="D175">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>-0.8819208145141602</v>
+        <v>3.08029580116272</v>
       </c>
       <c r="B176">
-        <v>117.778923034668</v>
+        <v>123.7319564819336</v>
       </c>
       <c r="C176">
-        <v>232.9764556884766</v>
+        <v>126</v>
       </c>
       <c r="D176">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>-0.8908238410949707</v>
+        <v>3.079336166381836</v>
       </c>
       <c r="B177">
-        <v>117.7666015625</v>
+        <v>123.733283996582</v>
       </c>
       <c r="C177">
-        <v>232.9763031005859</v>
+        <v>126</v>
       </c>
       <c r="D177">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>-0.8996353149414062</v>
+        <v>3.078383922576904</v>
       </c>
       <c r="B178">
-        <v>117.7543869018555</v>
+        <v>123.734619140625</v>
       </c>
       <c r="C178">
-        <v>232.9761657714844</v>
+        <v>126</v>
       </c>
       <c r="D178">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>-0.9083639979362488</v>
+        <v>3.077439308166504</v>
       </c>
       <c r="B179">
-        <v>117.7422943115234</v>
+        <v>123.7359390258789</v>
       </c>
       <c r="C179">
-        <v>232.9760284423828</v>
+        <v>126</v>
       </c>
       <c r="D179">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>-0.9170001149177551</v>
+        <v>3.076501607894897</v>
       </c>
       <c r="B180">
-        <v>117.7303161621094</v>
+        <v>123.7372436523438</v>
       </c>
       <c r="C180">
-        <v>232.9758758544922</v>
+        <v>126</v>
       </c>
       <c r="D180">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>-0.925547182559967</v>
+        <v>3.075571537017822</v>
       </c>
       <c r="B181">
-        <v>117.7184829711914</v>
+        <v>123.7385482788086</v>
       </c>
       <c r="C181">
-        <v>232.9757385253906</v>
+        <v>126</v>
       </c>
       <c r="D181">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>-0.9340157508850098</v>
+        <v>3.074648380279541</v>
       </c>
       <c r="B182">
-        <v>117.7067337036133</v>
+        <v>123.7398376464844</v>
       </c>
       <c r="C182">
-        <v>232.9755859375</v>
+        <v>126</v>
       </c>
       <c r="D182">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>-0.9423948526382446</v>
+        <v>3.073732614517212</v>
       </c>
       <c r="B183">
-        <v>117.6951293945312</v>
+        <v>123.7411117553711</v>
       </c>
       <c r="C183">
-        <v>232.9754333496094</v>
+        <v>126</v>
       </c>
       <c r="D183">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>-0.9506843090057373</v>
+        <v>3.072823524475098</v>
       </c>
       <c r="B184">
-        <v>117.6836242675781</v>
+        <v>123.7423934936523</v>
       </c>
       <c r="C184">
-        <v>232.9752960205078</v>
+        <v>126</v>
       </c>
       <c r="D184">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>-0.9588959217071533</v>
+        <v>3.071921586990356</v>
       </c>
       <c r="B185">
-        <v>117.6722412109375</v>
+        <v>123.74365234375</v>
       </c>
       <c r="C185">
-        <v>232.9751434326172</v>
+        <v>126</v>
       </c>
       <c r="D185">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>-0.9670201539993286</v>
+        <v>3.071026802062988</v>
       </c>
       <c r="B186">
-        <v>117.6609725952148</v>
+        <v>123.7448959350586</v>
       </c>
       <c r="C186">
-        <v>232.9749908447266</v>
+        <v>126</v>
       </c>
       <c r="D186">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>-0.9750627875328064</v>
+        <v>3.070138454437256</v>
       </c>
       <c r="B187">
-        <v>117.6498184204102</v>
+        <v>123.7461318969727</v>
       </c>
       <c r="C187">
-        <v>232.974853515625</v>
+        <v>126</v>
       </c>
       <c r="D187">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>-0.983018159866333</v>
+        <v>3.069257020950317</v>
       </c>
       <c r="B188">
-        <v>117.638786315918</v>
+        <v>123.7473602294922</v>
       </c>
       <c r="C188">
-        <v>232.9747009277344</v>
+        <v>126</v>
       </c>
       <c r="D188">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>-0.9908886551856995</v>
+        <v>3.068382263183594</v>
       </c>
       <c r="B189">
-        <v>117.6278610229492</v>
+        <v>123.7485961914062</v>
       </c>
       <c r="C189">
-        <v>232.9745483398438</v>
+        <v>126</v>
       </c>
       <c r="D189">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190">
-        <v>-0.9986701607704163</v>
+        <v>3.067514181137085</v>
       </c>
       <c r="B190">
-        <v>117.617057800293</v>
+        <v>123.7497940063477</v>
       </c>
       <c r="C190">
-        <v>232.9743957519531</v>
+        <v>126</v>
       </c>
       <c r="D190">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191">
-        <v>-1.006379246711731</v>
+        <v>3.066652774810791</v>
       </c>
       <c r="B191">
-        <v>117.6063690185547</v>
+        <v>123.7509994506836</v>
       </c>
       <c r="C191">
-        <v>232.9742584228516</v>
+        <v>126</v>
       </c>
       <c r="D191">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192">
-        <v>-1.014002799987793</v>
+        <v>3.065797805786133</v>
       </c>
       <c r="B192">
-        <v>117.5957946777344</v>
+        <v>123.7522048950195</v>
       </c>
       <c r="C192">
-        <v>232.9741058349609</v>
+        <v>126</v>
       </c>
       <c r="D192">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193">
-        <v>-1.021536469459534</v>
+        <v>3.064949035644531</v>
       </c>
       <c r="B193">
-        <v>117.5853271484375</v>
+        <v>123.7533874511719</v>
       </c>
       <c r="C193">
-        <v>232.9739532470703</v>
+        <v>126</v>
       </c>
       <c r="D193">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194">
-        <v>-1.028998613357544</v>
+        <v>3.064106702804565</v>
       </c>
       <c r="B194">
-        <v>117.5749664306641</v>
+        <v>123.7545623779297</v>
       </c>
       <c r="C194">
-        <v>232.9738006591797</v>
+        <v>126</v>
       </c>
       <c r="D194">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195">
-        <v>-1.036379933357239</v>
+        <v>3.063271045684814</v>
       </c>
       <c r="B195">
-        <v>117.5647277832031</v>
+        <v>123.7557220458984</v>
       </c>
       <c r="C195">
-        <v>232.9736480712891</v>
+        <v>126</v>
       </c>
       <c r="D195">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196">
-        <v>-1.043674826622009</v>
+        <v>3.062441349029541</v>
       </c>
       <c r="B196">
-        <v>117.5546035766602</v>
+        <v>123.7568817138672</v>
       </c>
       <c r="C196">
-        <v>232.9734954833984</v>
+        <v>126</v>
       </c>
       <c r="D196">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197">
-        <v>-1.050891399383545</v>
+        <v>3.061617851257324</v>
       </c>
       <c r="B197">
-        <v>117.5445785522461</v>
+        <v>123.7580413818359</v>
       </c>
       <c r="C197">
-        <v>232.9733428955078</v>
+        <v>126</v>
       </c>
       <c r="D197">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>-1.058021306991577</v>
+        <v>3.060800552368164</v>
       </c>
       <c r="B198">
-        <v>117.5346755981445</v>
+        <v>123.7591781616211</v>
       </c>
       <c r="C198">
-        <v>232.9731750488281</v>
+        <v>126</v>
       </c>
       <c r="D198">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>-1.065081715583801</v>
+        <v>3.059989213943481</v>
       </c>
       <c r="B199">
-        <v>117.5248794555664</v>
+        <v>123.7603225708008</v>
       </c>
       <c r="C199">
-        <v>232.9730224609375</v>
+        <v>126</v>
       </c>
       <c r="D199">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>-1.072061061859131</v>
+        <v>3.059183835983276</v>
       </c>
       <c r="B200">
-        <v>117.5151824951172</v>
+        <v>123.7614364624023</v>
       </c>
       <c r="C200">
-        <v>232.9728698730469</v>
+        <v>126</v>
       </c>
       <c r="D200">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>-1.078954935073853</v>
+        <v>3.058384418487549</v>
       </c>
       <c r="B201">
-        <v>117.505615234375</v>
+        <v>123.7625503540039</v>
       </c>
       <c r="C201">
-        <v>232.9727172851562</v>
+        <v>126</v>
       </c>
       <c r="D201">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>-1.085780024528503</v>
+        <v>3.057591199874878</v>
       </c>
       <c r="B202">
-        <v>117.4961318969727</v>
+        <v>123.7636642456055</v>
       </c>
       <c r="C202">
-        <v>232.9725646972656</v>
+        <v>126</v>
       </c>
       <c r="D202">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>-1.092525482177734</v>
+        <v>3.056803464889526</v>
       </c>
       <c r="B203">
-        <v>117.4867706298828</v>
+        <v>123.7647705078125</v>
       </c>
       <c r="C203">
-        <v>232.9723968505859</v>
+        <v>126</v>
       </c>
       <c r="D203">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>-1.09919798374176</v>
+        <v>3.056021451950073</v>
       </c>
       <c r="B204">
-        <v>117.4775009155273</v>
+        <v>123.7658538818359</v>
       </c>
       <c r="C204">
-        <v>232.9722442626953</v>
+        <v>126</v>
       </c>
       <c r="D204">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>-1.10578978061676</v>
+        <v>3.055245399475098</v>
       </c>
       <c r="B205">
-        <v>117.4683532714844</v>
+        <v>123.7669448852539</v>
       </c>
       <c r="C205">
-        <v>232.9720916748047</v>
+        <v>126</v>
       </c>
       <c r="D205">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>-1.112299680709839</v>
+        <v>3.054474830627441</v>
       </c>
       <c r="B206">
-        <v>117.4593124389648</v>
+        <v>123.7680130004883</v>
       </c>
       <c r="C206">
-        <v>232.971923828125</v>
+        <v>126</v>
       </c>
       <c r="D206">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>-1.118745923042297</v>
+        <v>3.053709983825684</v>
       </c>
       <c r="B207">
-        <v>117.4503707885742</v>
+        <v>123.7690887451172</v>
       </c>
       <c r="C207">
-        <v>232.9717712402344</v>
+        <v>126</v>
       </c>
       <c r="D207">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>-1.125114917755127</v>
+        <v>3.052950382232666</v>
       </c>
       <c r="B208">
-        <v>117.4415283203125</v>
+        <v>123.770149230957</v>
       </c>
       <c r="C208">
-        <v>232.9716033935547</v>
+        <v>126</v>
       </c>
       <c r="D208">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>-1.131405115127563</v>
+        <v>3.052196264266968</v>
       </c>
       <c r="B209">
-        <v>117.4328002929688</v>
+        <v>123.7711868286133</v>
       </c>
       <c r="C209">
-        <v>232.9714508056641</v>
+        <v>126</v>
       </c>
       <c r="D209">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>-1.137630105018616</v>
+        <v>3.051447868347168</v>
       </c>
       <c r="B210">
-        <v>117.4241485595703</v>
+        <v>123.7722473144531</v>
       </c>
       <c r="C210">
-        <v>232.9712829589844</v>
+        <v>126</v>
       </c>
       <c r="D210">
-        <v>11.10000038146973</v>
+        <v>11.10000133514404</v>
       </c>
     </row>
   </sheetData>
